--- a/on_trucks/Processed_Stand_Alone/32_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/32_11R22.xlsx
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>107</v>
       </c>
       <c r="E4">
-        <v>0.006229109540580775</v>
+        <v>0.006224712153941683</v>
       </c>
       <c r="F4">
         <v>0.5477595173540903</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>107</v>
       </c>
       <c r="E5">
-        <v>0.009860432102001741</v>
+        <v>0.009833739078146463</v>
       </c>
       <c r="F5">
         <v>0.5298625691077112</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>32</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>116</v>
       </c>
       <c r="E6">
-        <v>0.01456846811396109</v>
+        <v>0.01324313929279989</v>
       </c>
       <c r="F6">
         <v>0.5299538993309915</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>147</v>
       </c>
       <c r="E4">
-        <v>0.006229109540580775</v>
+        <v>0.006224712153941683</v>
       </c>
       <c r="F4">
         <v>0.7006768088673592</v>
       </c>
       <c r="G4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>156</v>
       </c>
       <c r="E5">
-        <v>0.009860432102001741</v>
+        <v>0.009833739078146463</v>
       </c>
       <c r="F5">
         <v>0.7194848438633852</v>
       </c>
       <c r="G5">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H5">
         <v>32</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>157</v>
       </c>
       <c r="E6">
-        <v>0.01456846811396109</v>
+        <v>0.01324313929279989</v>
       </c>
       <c r="F6">
         <v>0.7231557291337966</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>157</v>
       </c>
       <c r="E4">
-        <v>0.006229109540580775</v>
+        <v>0.006224712153941683</v>
       </c>
       <c r="F4">
         <v>0.806640761598718</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>165</v>
       </c>
       <c r="E5">
-        <v>0.009860432102001741</v>
+        <v>0.009833739078146463</v>
       </c>
       <c r="F5">
         <v>0.8136296291532931</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H5">
         <v>32</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>165</v>
       </c>
       <c r="E6">
-        <v>0.01456846811396109</v>
+        <v>0.01324313929279989</v>
       </c>
       <c r="F6">
         <v>0.8051553030905634</v>
       </c>
       <c r="G6">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>167</v>
       </c>
       <c r="E4">
-        <v>0.006229109540580775</v>
+        <v>0.006224712153941683</v>
       </c>
       <c r="F4">
         <v>0.9009491799802516</v>
       </c>
       <c r="G4">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>174</v>
       </c>
       <c r="E5">
-        <v>0.009860432102001741</v>
+        <v>0.009833739078146463</v>
       </c>
       <c r="F5">
         <v>0.9065861890271387</v>
       </c>
       <c r="G5">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H5">
         <v>32</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>172</v>
       </c>
       <c r="E6">
-        <v>0.01456846811396109</v>
+        <v>0.01324313929279989</v>
       </c>
       <c r="F6">
         <v>0.9011035089225445</v>
       </c>
       <c r="G6">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6">
         <v>32</v>

--- a/on_trucks/Processed_Stand_Alone/32_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/32_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001310043106848468</v>
+        <v>0.0001160277901851753</v>
       </c>
       <c r="C2">
-        <v>0.0002349491591626959</v>
+        <v>0.0002202786861908481</v>
       </c>
       <c r="D2">
-        <v>0.0001857417551492893</v>
+        <v>0.0001709263995346799</v>
       </c>
       <c r="E2">
-        <v>0.00030663687500962</v>
+        <v>0.0002921774740488584</v>
       </c>
       <c r="F2">
-        <v>0.0003209929861805193</v>
+        <v>0.0003065758542922259</v>
       </c>
       <c r="G2">
-        <v>0.0001811386647738564</v>
+        <v>0.0001663097561602252</v>
       </c>
       <c r="H2">
-        <v>0.0001142236093161955</v>
+        <v>9.919768095991325E-05</v>
       </c>
       <c r="I2">
-        <v>0.0001703951538976046</v>
+        <v>0.0001555346128847542</v>
       </c>
       <c r="J2">
-        <v>4.472343764768973E-05</v>
+        <v>2.949287812368789E-05</v>
       </c>
       <c r="K2">
-        <v>2.951380440717635E-05</v>
+        <v>1.423846276342035E-05</v>
       </c>
       <c r="L2">
-        <v>2.85279703267707E-05</v>
+        <v>1.32497260660253E-05</v>
       </c>
       <c r="M2">
-        <v>6.207546006293859E-06</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>6.194524505231813E-06</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.531714124928185E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001403828014497662</v>
+        <v>0.000125433894285006</v>
       </c>
       <c r="Q2">
-        <v>0.0002095478470909387</v>
+        <v>0.0001948025843735971</v>
       </c>
       <c r="R2">
-        <v>0.0001679468836979212</v>
+        <v>0.0001530791341792811</v>
       </c>
       <c r="S2">
-        <v>0.000280571522883703</v>
+        <v>0.0002660353770270008</v>
       </c>
       <c r="T2">
-        <v>0.0002599453312014095</v>
+        <v>0.0002453484551106916</v>
       </c>
       <c r="U2">
-        <v>0.000280571522883703</v>
+        <v>0.0002660353770270008</v>
       </c>
       <c r="V2">
-        <v>0.0002599453312014095</v>
+        <v>0.0002453484551106916</v>
       </c>
       <c r="W2">
-        <v>0.0002684438918945609</v>
+        <v>0.000253872038337699</v>
       </c>
       <c r="X2">
-        <v>0.0002775144726343668</v>
+        <v>0.0002629693258249004</v>
       </c>
       <c r="Y2">
-        <v>0.0001917759156414416</v>
+        <v>0.0001769783265629151</v>
       </c>
       <c r="Z2">
-        <v>0.0001075619237728615</v>
+        <v>9.251638124212495E-05</v>
       </c>
       <c r="AA2">
-        <v>6.640606541614724E-05</v>
+        <v>5.123934661847702E-05</v>
       </c>
       <c r="AB2">
-        <v>1.66761633601251E-05</v>
+        <v>1.363023515081861E-06</v>
       </c>
       <c r="AC2">
-        <v>2.568355009477686E-06</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>2.359530192445718E-05</v>
+        <v>8.302534279511325E-06</v>
       </c>
       <c r="AE2">
-        <v>4.402682359087318E-05</v>
+        <v>2.879421300793904E-05</v>
       </c>
       <c r="AF2">
-        <v>7.938405147464517E-05</v>
+        <v>6.425554409973899E-05</v>
       </c>
       <c r="AG2">
-        <v>0.0001580021428868179</v>
+        <v>0.0001431051128084901</v>
       </c>
       <c r="AH2">
-        <v>0.0001659875435381154</v>
+        <v>0.0001511140250831513</v>
       </c>
       <c r="AI2">
-        <v>0.0003112319953844028</v>
+        <v>0.0002967861239563823</v>
       </c>
       <c r="AJ2">
-        <v>0.0003570839791241379</v>
+        <v>0.0003427731108874717</v>
       </c>
       <c r="AK2">
-        <v>0.000243032149821953</v>
+        <v>0.0002283854758102741</v>
       </c>
       <c r="AL2">
-        <v>0.0002587664211052564</v>
+        <v>0.0002441660739188013</v>
       </c>
       <c r="AM2">
-        <v>0.0002824137230339547</v>
+        <v>0.0002678830012151919</v>
       </c>
       <c r="AN2">
-        <v>0.000265965221692398</v>
+        <v>0.0002513860701222265</v>
       </c>
       <c r="AO2">
-        <v>0.0001922105856768938</v>
+        <v>0.000177414276408687</v>
       </c>
       <c r="AP2">
-        <v>0.0002405928896230044</v>
+        <v>0.0002259390336339159</v>
       </c>
       <c r="AQ2">
-        <v>0.0001857417551492893</v>
+        <v>0.0001709263995346799</v>
       </c>
       <c r="AR2">
-        <v>8.996396733755403E-05</v>
+        <v>7.486661068480332E-05</v>
       </c>
       <c r="AS2">
-        <v>1.867582752321977E-05</v>
+        <v>3.368575341514874E-06</v>
       </c>
       <c r="AT2">
-        <v>5.669164462382906E-07</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>1.16757619522872E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>1.820431648476284E-05</v>
+        <v>2.895676020812368E-06</v>
       </c>
       <c r="AW2">
-        <v>7.161756584120259E-05</v>
+        <v>5.646619140012816E-05</v>
       </c>
       <c r="AX2">
-        <v>0.0002671603817898765</v>
+        <v>0.0002525847491607448</v>
       </c>
       <c r="AY2">
-        <v>0.0003223058862876007</v>
+        <v>0.0003078926200053276</v>
       </c>
       <c r="AZ2">
-        <v>0.0003079200951142808</v>
+        <v>0.0002934644723719343</v>
       </c>
       <c r="BA2">
-        <v>0.0003501032485547823</v>
+        <v>0.0003357718267710723</v>
       </c>
       <c r="BB2">
-        <v>0.0003384614776052675</v>
+        <v>0.0003240957786517818</v>
       </c>
       <c r="BC2">
-        <v>0.0003365403074485748</v>
+        <v>0.0003221689519437006</v>
       </c>
       <c r="BD2">
-        <v>0.0003204311961346991</v>
+        <v>0.0003060124101533247</v>
       </c>
       <c r="BE2">
-        <v>0.0002701599920345278</v>
+        <v>0.0002555931912360569</v>
       </c>
       <c r="BF2">
-        <v>0.0002470427201490593</v>
+        <v>0.0002324078545641734</v>
       </c>
       <c r="BG2">
-        <v>0.0001665944035876115</v>
+        <v>0.0001517226719265156</v>
       </c>
       <c r="BH2">
-        <v>2.657956816785701E-05</v>
+        <v>1.129558717582888E-05</v>
       </c>
       <c r="BI2">
-        <v>1.522713224194062E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>1.20539744831346E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>4.282090349251709E-05</v>
+        <v>2.758474228759197E-05</v>
       </c>
       <c r="BL2">
-        <v>0.0001292150705389145</v>
+        <v>0.0001142332819328254</v>
       </c>
       <c r="BM2">
-        <v>0.0001511764123301042</v>
+        <v>0.0001362592850753116</v>
       </c>
       <c r="BN2">
-        <v>0.0001907635155588692</v>
+        <v>0.0001759629456443804</v>
       </c>
       <c r="BO2">
-        <v>0.000193299515765708</v>
+        <v>0.0001785064126627566</v>
       </c>
       <c r="BP2">
-        <v>0.0002321523789345877</v>
+        <v>0.0002174736713297858</v>
       </c>
       <c r="BQ2">
-        <v>0.00030663687500962</v>
+        <v>0.0002921774740488584</v>
       </c>
       <c r="BR2">
-        <v>0.0003487348684431758</v>
+        <v>0.0003343994177022216</v>
       </c>
       <c r="BS2">
-        <v>0.0003690391000992099</v>
+        <v>0.0003547634316369706</v>
       </c>
       <c r="BT2">
-        <v>0.0001636381333464951</v>
+        <v>0.000148757697461841</v>
       </c>
       <c r="BU2">
-        <v>9.885228806249464E-05</v>
+        <v>8.378110152422489E-05</v>
       </c>
       <c r="BV2">
-        <v>5.602433956940296E-05</v>
+        <v>4.082705358560983E-05</v>
       </c>
       <c r="BW2">
-        <v>1.142697243199567E-05</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>2.568355009477686E-06</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>2.870015234081405E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>4.595807174838777E-08</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>1.054331685992381E-05</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>3.87808751630082E-05</v>
+        <v>2.353281879732534E-05</v>
       </c>
       <c r="CC2">
-        <v>7.452264607814394E-05</v>
+        <v>5.937982514056356E-05</v>
       </c>
       <c r="CD2">
-        <v>0.000163237083313785</v>
+        <v>0.0001483554666070619</v>
       </c>
       <c r="CE2">
-        <v>0.0001250295401975383</v>
+        <v>0.0001100354280253239</v>
       </c>
       <c r="CF2">
-        <v>0.0001133312392434129</v>
+        <v>9.830268345865604E-05</v>
       </c>
       <c r="CG2">
-        <v>0.0002198905479345001</v>
+        <v>0.0002051757375009469</v>
       </c>
       <c r="CH2">
-        <v>0.0001747913942561665</v>
+        <v>0.0001599437972084395</v>
       </c>
       <c r="CI2">
-        <v>0.0001543430225883762</v>
+        <v>0.0001394352188667391</v>
       </c>
       <c r="CJ2">
-        <v>0.0001498293722202383</v>
+        <v>0.0001349082788401249</v>
       </c>
       <c r="CK2">
-        <v>0.0001238629601023909</v>
+        <v>0.0001088654131379827</v>
       </c>
       <c r="CL2">
-        <v>2.524880805931885E-05</v>
+        <v>9.960908875602442E-06</v>
       </c>
       <c r="CM2">
-        <v>2.850004832449336E-05</v>
+        <v>1.322172185226856E-05</v>
       </c>
       <c r="CN2">
-        <v>0.0002188063678460732</v>
+        <v>0.0002040883652328148</v>
       </c>
       <c r="CO2">
-        <v>0.06128591799854272</v>
+        <v>0.06145100148508056</v>
       </c>
       <c r="CP2">
-        <v>0.0002292932387013932</v>
+        <v>0.0002146061128554482</v>
       </c>
       <c r="CQ2">
-        <v>0.04272486348468397</v>
+        <v>0.04283529717442137</v>
       </c>
       <c r="CR2">
-        <v>0.04206276643068265</v>
+        <v>0.04217125069079922</v>
       </c>
       <c r="CS2">
-        <v>0.005015197109044653</v>
+        <v>0.00501460124476067</v>
       </c>
       <c r="CT2">
-        <v>0.0002818867729909762</v>
+        <v>0.0002673544996594611</v>
       </c>
       <c r="CU2">
-        <v>0.0008987392233020987</v>
+        <v>0.0008860231647249865</v>
       </c>
       <c r="CV2">
-        <v>0.012842579047454</v>
+        <v>0.01286502954791692</v>
       </c>
       <c r="CW2">
-        <v>0.08168032666193174</v>
+        <v>0.08190545793769874</v>
       </c>
       <c r="CX2">
-        <v>0.005083561414620516</v>
+        <v>0.005083166837144098</v>
       </c>
       <c r="CY2">
-        <v>0.08674620707511017</v>
+        <v>0.08698625395467482</v>
       </c>
       <c r="CZ2">
-        <v>0.001365220611348802</v>
+        <v>0.001353878026086414</v>
       </c>
       <c r="DA2">
-        <v>0.001254354702306464</v>
+        <v>0.00124268569165716</v>
       </c>
       <c r="DB2">
-        <v>0.07676395626094751</v>
+        <v>0.07697461213914435</v>
       </c>
       <c r="DC2">
-        <v>0.0005896285780907154</v>
+        <v>0.0005760023969805846</v>
       </c>
       <c r="DD2">
-        <v>0.1437004517203572</v>
+        <v>0.1441081904675612</v>
       </c>
       <c r="DE2">
-        <v>0.00124899020186893</v>
+        <v>0.001237305396381104</v>
       </c>
       <c r="DF2">
-        <v>0.02387069194691827</v>
+        <v>0.02392561280775849</v>
       </c>
       <c r="DG2">
-        <v>0.003646556097416879</v>
+        <v>0.003641930507713883</v>
       </c>
       <c r="DH2">
-        <v>8.173048166602245E-05</v>
+        <v>6.660888294671391E-05</v>
       </c>
       <c r="DI2">
-        <v>0.002486406602793889</v>
+        <v>0.002478365154681991</v>
       </c>
       <c r="DJ2">
-        <v>0.001934376557769749</v>
+        <v>0.001924709753201633</v>
       </c>
       <c r="DK2">
-        <v>0.0004054535830692127</v>
+        <v>0.0003912851307187206</v>
       </c>
       <c r="DL2">
-        <v>0.0004236571845539173</v>
+        <v>0.0004095423295419509</v>
       </c>
       <c r="DM2">
-        <v>0.02739373823426156</v>
+        <v>0.02745903209215204</v>
       </c>
       <c r="DN2">
-        <v>0.0002418109897223539</v>
+        <v>0.0002271607202171509</v>
       </c>
       <c r="DO2">
-        <v>0.01430406166665403</v>
+        <v>0.01433081524850206</v>
       </c>
       <c r="DP2">
-        <v>0.0003669327699274155</v>
+        <v>0.000352650899742327</v>
       </c>
       <c r="DQ2">
-        <v>0.00393593572101898</v>
+        <v>0.003932162159287575</v>
       </c>
       <c r="DR2">
-        <v>0.003747974105688637</v>
+        <v>0.003743647123671956</v>
       </c>
       <c r="DS2">
-        <v>0.0007310433596246509</v>
+        <v>0.0007178335497433011</v>
       </c>
       <c r="DT2">
-        <v>4.109368035164298E-05</v>
+        <v>2.585243363858538E-05</v>
       </c>
       <c r="DU2">
-        <v>0.002234740182267715</v>
+        <v>0.002225957746151446</v>
       </c>
       <c r="DV2">
-        <v>0.002205177179856527</v>
+        <v>0.002196307700621378</v>
       </c>
       <c r="DW2">
-        <v>0.004003470326527172</v>
+        <v>0.003999895608695787</v>
       </c>
       <c r="DX2">
-        <v>0.01047712185452487</v>
+        <v>0.01049260767769334</v>
       </c>
       <c r="DY2">
-        <v>0.001962071160028549</v>
+        <v>0.001952485897400024</v>
       </c>
       <c r="DZ2">
-        <v>0.001860358951732796</v>
+        <v>0.001850474215197154</v>
       </c>
       <c r="EA2">
-        <v>0.0003015309245931734</v>
+        <v>0.0002870564900494586</v>
       </c>
       <c r="EB2">
-        <v>0.0001210279098711612</v>
+        <v>0.0001060220155944309</v>
       </c>
       <c r="EC2">
-        <v>0.005192626723515995</v>
+        <v>0.005192553269872528</v>
       </c>
       <c r="ED2">
-        <v>0.007715444629279628</v>
+        <v>0.007722799174180722</v>
       </c>
       <c r="EE2">
-        <v>0.0003914680919285416</v>
+        <v>0.0003772584617318004</v>
       </c>
       <c r="EF2">
-        <v>0.0008207232669390368</v>
+        <v>0.0008077775039472726</v>
       </c>
       <c r="EG2">
-        <v>0.004660662680128459</v>
+        <v>0.004659022950880632</v>
       </c>
       <c r="EH2">
-        <v>0.008542532696737784</v>
+        <v>0.008552322458602919</v>
       </c>
       <c r="EI2">
-        <v>0.002558622908683925</v>
+        <v>0.00255079408892456</v>
       </c>
       <c r="EJ2">
-        <v>7.012097571913915E-05</v>
+        <v>5.496519482874346E-05</v>
       </c>
       <c r="EK2">
-        <v>0.001174196195768654</v>
+        <v>0.001162291172338349</v>
       </c>
       <c r="EL2">
-        <v>0.000944772227056598</v>
+        <v>0.0009321917046527899</v>
       </c>
       <c r="EM2">
-        <v>0.0004123260336297369</v>
+        <v>0.0003981778160146351</v>
       </c>
       <c r="EN2">
-        <v>0.000379152030924031</v>
+        <v>0.0003649061382277225</v>
       </c>
       <c r="EO2">
-        <v>0.0004145586638118325</v>
+        <v>0.0004004170197879936</v>
       </c>
       <c r="EP2">
-        <v>0.002530664206403585</v>
+        <v>0.00252275306710805</v>
       </c>
       <c r="EQ2">
-        <v>0.003913006619148858</v>
+        <v>0.003909165546664922</v>
       </c>
       <c r="ER2">
-        <v>0.0006288578112902922</v>
+        <v>0.0006153471338344066</v>
       </c>
       <c r="ES2">
-        <v>0.000185670505143478</v>
+        <v>0.0001708549397456186</v>
       </c>
       <c r="ET2">
-        <v>0.0003190287660203154</v>
+        <v>0.0003046058508273857</v>
       </c>
       <c r="EU2">
-        <v>0.004467798764398279</v>
+        <v>0.004465591180894278</v>
       </c>
       <c r="EV2">
-        <v>0.005846510476847429</v>
+        <v>0.00584836227018947</v>
       </c>
       <c r="EW2">
-        <v>0.007705802628493216</v>
+        <v>0.007713128784199971</v>
       </c>
       <c r="EX2">
-        <v>0.007107432579689537</v>
+        <v>0.007112996938858592</v>
       </c>
       <c r="EY2">
-        <v>0.00050987057158557</v>
+        <v>0.0004960095568971283</v>
       </c>
       <c r="EZ2">
-        <v>5.940035184475401E-05</v>
+        <v>4.421300594193559E-05</v>
       </c>
       <c r="FA2">
-        <v>0.01373819562050141</v>
+        <v>0.01376328310819431</v>
       </c>
       <c r="FB2">
-        <v>0.02674852318163716</v>
+        <v>0.02681191731602366</v>
       </c>
       <c r="FC2">
-        <v>0.01386411813077179</v>
+        <v>0.01388957637539521</v>
       </c>
       <c r="FD2">
-        <v>0.006644015241892741</v>
+        <v>0.00664821514931012</v>
       </c>
       <c r="FE2">
-        <v>0.00603430299216398</v>
+        <v>0.006036707707905718</v>
       </c>
       <c r="FF2">
-        <v>0.006089260796646396</v>
+        <v>0.006091827326084942</v>
       </c>
       <c r="FG2">
-        <v>0.0005350868936422394</v>
+        <v>0.0005213001240283662</v>
       </c>
       <c r="FH2">
-        <v>3.132646555501886E-06</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.003013343145771377</v>
+        <v>0.003006853170663286</v>
       </c>
       <c r="FJ2">
-        <v>0.0162883213284923</v>
+        <v>0.01632091721780393</v>
       </c>
       <c r="FK2">
-        <v>0.01954280959393172</v>
+        <v>0.01958498775790684</v>
       </c>
       <c r="FL2">
-        <v>0.02006893563684311</v>
+        <v>0.02011266288744555</v>
       </c>
       <c r="FM2">
-        <v>0.003891775317417212</v>
+        <v>0.003887871733057963</v>
       </c>
       <c r="FN2">
-        <v>0.0009255846754916415</v>
+        <v>0.000912947658679429</v>
       </c>
       <c r="FO2">
-        <v>0.001400999914266999</v>
+        <v>0.001389762674939169</v>
       </c>
       <c r="FP2">
-        <v>0.005934798184048266</v>
+        <v>0.005936909925188796</v>
       </c>
       <c r="FQ2">
-        <v>8.991439733351104E-05</v>
+        <v>7.481689473050484E-05</v>
       </c>
       <c r="FR2">
-        <v>0.003015066045911899</v>
+        <v>0.003008581143583617</v>
       </c>
       <c r="FS2">
-        <v>0.01342438459490666</v>
+        <v>0.01344854812061401</v>
       </c>
       <c r="FT2">
-        <v>0.008518386694768411</v>
+        <v>0.008528105362930321</v>
       </c>
       <c r="FU2">
-        <v>0.006921757564545691</v>
+        <v>0.006926775235926024</v>
       </c>
       <c r="FV2">
-        <v>0.02082479769849199</v>
+        <v>0.02087075045347229</v>
       </c>
       <c r="FW2">
-        <v>0.01373819562050141</v>
+        <v>0.01376328310819431</v>
       </c>
       <c r="FX2">
-        <v>0.006074988795482356</v>
+        <v>0.00607751330349572</v>
       </c>
       <c r="FY2">
-        <v>0.0005046888411629429</v>
+        <v>0.0004908125697704999</v>
       </c>
       <c r="FZ2">
-        <v>9.776360197370029E-05</v>
+        <v>8.268920998859088E-05</v>
       </c>
       <c r="GA2">
-        <v>0.0009584824781748202</v>
+        <v>0.000945942323220886</v>
       </c>
       <c r="GB2">
-        <v>0.003086979251777214</v>
+        <v>0.00308070608537616</v>
       </c>
       <c r="GC2">
-        <v>0.004703237383600896</v>
+        <v>0.004701723008162674</v>
       </c>
       <c r="GD2">
-        <v>0.00268958991936573</v>
+        <v>0.002682146709190992</v>
       </c>
       <c r="GE2">
-        <v>0.001863517351990398</v>
+        <v>0.001853641914814993</v>
       </c>
       <c r="GF2">
-        <v>0.0006721941548248491</v>
+        <v>0.0006588110736952642</v>
       </c>
       <c r="GG2">
-        <v>0.003023397446591416</v>
+        <v>0.003016937074623404</v>
       </c>
       <c r="GH2">
-        <v>0.00231076538846841</v>
+        <v>0.00230220679534918</v>
       </c>
       <c r="GI2">
-        <v>0.002073388969107744</v>
+        <v>0.002064131462407198</v>
       </c>
       <c r="GJ2">
-        <v>0.005517440850008171</v>
+        <v>0.005518323755067139</v>
       </c>
       <c r="GK2">
-        <v>0.0008205733069268059</v>
+        <v>0.0008076271024038673</v>
       </c>
       <c r="GL2">
-        <v>6.287512512816011E-05</v>
+        <v>4.769801009092769E-05</v>
       </c>
       <c r="GM2">
-        <v>0.001401195914282985</v>
+        <v>0.001389959252043113</v>
       </c>
       <c r="GN2">
-        <v>0.00072694935929074</v>
+        <v>0.0007137274953374525</v>
       </c>
       <c r="GO2">
-        <v>0.0002975491442684153</v>
+        <v>0.0002830629860650621</v>
       </c>
       <c r="GP2">
-        <v>9.24105115370967E-05</v>
+        <v>7.732035830822842E-05</v>
       </c>
       <c r="GQ2">
-        <v>0.0001821252248543213</v>
+        <v>0.0001672992209952604</v>
       </c>
       <c r="GR2">
-        <v>0.0001623031432376119</v>
+        <v>0.0001474187767067692</v>
       </c>
       <c r="GS2">
-        <v>0.0001087037188659875</v>
+        <v>9.366153815231691E-05</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>4.128101922908962E-07</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.405754690723165E-05</v>
+        <v>1.532600745498384E-05</v>
       </c>
       <c r="D3">
-        <v>0.0001813178453985072</v>
+        <v>0.0001335686156374419</v>
       </c>
       <c r="E3">
-        <v>0.0001249228137194172</v>
+        <v>7.670115307709303E-05</v>
       </c>
       <c r="F3">
-        <v>0.0002744967481727901</v>
+        <v>0.0002275280941085856</v>
       </c>
       <c r="G3">
-        <v>0.0007898934235180678</v>
+        <v>0.0007472423360600285</v>
       </c>
       <c r="H3">
-        <v>0.0005994407178475817</v>
+        <v>0.0005551941753131087</v>
       </c>
       <c r="I3">
-        <v>0.0001958958358325483</v>
+        <v>0.0001482687284050057</v>
       </c>
       <c r="J3">
-        <v>0.0002310258668785001</v>
+        <v>0.0001836930497639789</v>
       </c>
       <c r="K3">
-        <v>0.000491045314620247</v>
+        <v>0.0004458907251471269</v>
       </c>
       <c r="L3">
-        <v>0.0001958958358325483</v>
+        <v>0.0001482687284050057</v>
       </c>
       <c r="M3">
-        <v>7.963300237097093E-05</v>
+        <v>3.103194118838019E-05</v>
       </c>
       <c r="N3">
-        <v>7.900263235220248E-05</v>
+        <v>3.039629045153039E-05</v>
       </c>
       <c r="O3">
-        <v>0.0001446305443061897</v>
+        <v>9.657397871304827E-05</v>
       </c>
       <c r="P3">
-        <v>8.384834749647746E-06</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.76015175240627E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>4.885886145471019E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>9.529894283740431E-05</v>
+        <v>4.682911793290312E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001890453656285843</v>
+        <v>0.0001413608706337483</v>
       </c>
       <c r="U3">
-        <v>3.976194518386113E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0001503812444774095</v>
+        <v>0.0001023728534888184</v>
       </c>
       <c r="W3">
-        <v>0.0001492261544430181</v>
+        <v>0.0001012080870665142</v>
       </c>
       <c r="X3">
-        <v>0.0001706987450823371</v>
+        <v>0.0001228605572912614</v>
       </c>
       <c r="Y3">
-        <v>0.0001737951451745285</v>
+        <v>0.0001259828964596574</v>
       </c>
       <c r="Z3">
-        <v>0.0002823980284080406</v>
+        <v>0.0002354955647275183</v>
       </c>
       <c r="AA3">
-        <v>0.000301749568984208</v>
+        <v>0.0002550092164878791</v>
       </c>
       <c r="AB3">
-        <v>7.467446222333674E-05</v>
+        <v>2.603186249697791E-05</v>
       </c>
       <c r="AC3">
-        <v>0.0001059451431543813</v>
+        <v>5.756450330125892E-05</v>
       </c>
       <c r="AD3">
-        <v>2.243686566802902E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.544487645985147E-08</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>8.804653262147306E-06</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.824435884093971E-06</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>9.235436974973341E-07</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>4.721229140568568E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1.818226054135358E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1.351127740228103E-06</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.920220957172126E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.930653117030176E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>3.930653117030176E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>2.724414581115964E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>5.887938675305854E-05</v>
+        <v>1.010446896246958E-05</v>
       </c>
       <c r="AQ3">
-        <v>0.0002025558560308419</v>
+        <v>0.0001549845407381346</v>
       </c>
       <c r="AR3">
-        <v>0.0001018403630321667</v>
+        <v>5.342533672987011E-05</v>
       </c>
       <c r="AS3">
-        <v>1.709246350890627E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0002575669276687263</v>
+        <v>0.0002104564495859486</v>
       </c>
       <c r="AU3">
-        <v>0.0001825908454364092</v>
+        <v>0.0001348522798156386</v>
       </c>
       <c r="AV3">
-        <v>5.048306450306877E-06</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>2.81217538372893E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>3.82881411399805E-05</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>9.691800688560986E-05</v>
+        <v>4.846174515914643E-05</v>
       </c>
       <c r="AZ3">
-        <v>7.672717228445355E-05</v>
+        <v>2.810176846337696E-05</v>
       </c>
       <c r="BA3">
-        <v>6.145413182971827E-05</v>
+        <v>1.270078312153545E-05</v>
       </c>
       <c r="BB3">
-        <v>0.0001265285737672267</v>
+        <v>7.832036485304041E-05</v>
       </c>
       <c r="BC3">
-        <v>6.463855192453032E-05</v>
+        <v>1.591187965125495E-05</v>
       </c>
       <c r="BD3">
-        <v>0.0001340685439917197</v>
+        <v>8.592349870510421E-05</v>
       </c>
       <c r="BE3">
-        <v>6.463855192453032E-05</v>
+        <v>1.591187965125495E-05</v>
       </c>
       <c r="BF3">
-        <v>9.529894283740431E-05</v>
+        <v>4.682911793290312E-05</v>
       </c>
       <c r="BG3">
-        <v>3.25365259687335E-05</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>1.857520455305299E-07</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>1.848532255037687E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1.639287048807678E-06</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>2.639742078594949E-05</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>3.348539099698475E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>3.028892290181399E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>9.460923281686907E-05</v>
+        <v>4.613363009288427E-05</v>
       </c>
       <c r="BO3">
-        <v>7.900996235242071E-09</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>5.817726773215384E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>1.349208640170964E-06</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>1.76015175240627E-06</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>6.595977196386796E-05</v>
+        <v>1.724416777813394E-05</v>
       </c>
       <c r="BT3">
-        <v>0.0001835485054649223</v>
+        <v>0.000135817962326944</v>
       </c>
       <c r="BU3">
-        <v>0.0001275737237983447</v>
+        <v>7.937427028575224E-05</v>
       </c>
       <c r="BV3">
-        <v>4.079962821475682E-05</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0001359684040482856</v>
+        <v>8.783927421617148E-05</v>
       </c>
       <c r="BX3">
-        <v>0.0002690515280106656</v>
+        <v>0.0002220372584004945</v>
       </c>
       <c r="BY3">
-        <v>0.0002507963874671421</v>
+        <v>0.0002036291914044502</v>
       </c>
       <c r="BZ3">
-        <v>7.913428235612217E-06</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>4.186135124636827E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>7.263551616262973E-05</v>
+        <v>2.397583583438773E-05</v>
       </c>
       <c r="CC3">
-        <v>2.210285365808424E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>1.359291840471178E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>6.825360203216382E-06</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>2.899548286330347E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>1.297511438631746E-07</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>3.25271079684531E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>1.544487645985147E-08</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>5.763146471590325E-05</v>
+        <v>8.846092867745699E-06</v>
       </c>
       <c r="CK3">
-        <v>7.528735224158475E-05</v>
+        <v>2.664988680033606E-05</v>
       </c>
       <c r="CL3">
-        <v>1.420863142304385E-05</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.000595444217728591</v>
+        <v>0.0005511641958251567</v>
       </c>
       <c r="CN3">
-        <v>0.0500755284909349</v>
+        <v>0.05044575164638533</v>
       </c>
       <c r="CO3">
-        <v>0.002767456782397491</v>
+        <v>0.002741372083370564</v>
       </c>
       <c r="CP3">
-        <v>0.04767157141936015</v>
+        <v>0.04802165621290142</v>
       </c>
       <c r="CQ3">
-        <v>0.06358422189313899</v>
+        <v>0.06406760969693957</v>
       </c>
       <c r="CR3">
-        <v>0.006218101585136033</v>
+        <v>0.006220923531189928</v>
       </c>
       <c r="CS3">
-        <v>0.005475097463014033</v>
+        <v>0.005471695135727849</v>
       </c>
       <c r="CT3">
-        <v>0.0004491451933727244</v>
+        <v>0.0004036395993763963</v>
       </c>
       <c r="CU3">
-        <v>0.002917125686853691</v>
+        <v>0.002892294789984934</v>
       </c>
       <c r="CV3">
-        <v>0.03470276403323047</v>
+        <v>0.03494420689644762</v>
       </c>
       <c r="CW3">
-        <v>0.005079253151228274</v>
+        <v>0.005072534768050458</v>
       </c>
       <c r="CX3">
-        <v>0.09283516876404857</v>
+        <v>0.09356359678143598</v>
       </c>
       <c r="CY3">
-        <v>0.000965880258757851</v>
+        <v>0.0009247034432912772</v>
       </c>
       <c r="CZ3">
-        <v>0.002218184366043606</v>
+        <v>0.002187498317500894</v>
       </c>
       <c r="DA3">
-        <v>0.050870595514607</v>
+        <v>0.05124747908327949</v>
       </c>
       <c r="DB3">
-        <v>0.0005862285174542053</v>
+        <v>0.0005418712940443187</v>
       </c>
       <c r="DC3">
-        <v>0.09987245297357472</v>
+        <v>0.1006598335313152</v>
       </c>
       <c r="DD3">
-        <v>0.007621520226921029</v>
+        <v>0.007636098852348499</v>
       </c>
       <c r="DE3">
-        <v>0.02526236175215455</v>
+        <v>0.02542472074155697</v>
       </c>
       <c r="DF3">
-        <v>5.048306450306877E-06</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.0006394057190374886</v>
+        <v>0.0005954939701926282</v>
       </c>
       <c r="DH3">
-        <v>0.007525021224047895</v>
+        <v>0.007538791460728864</v>
       </c>
       <c r="DI3">
-        <v>0.0006052716180211893</v>
+        <v>0.0005610739219404823</v>
       </c>
       <c r="DJ3">
-        <v>0.001474828243911127</v>
+        <v>0.001437914973263698</v>
       </c>
       <c r="DK3">
-        <v>0.001604470547771061</v>
+        <v>0.001568643313003699</v>
       </c>
       <c r="DL3">
-        <v>0.03578791906553958</v>
+        <v>0.0360384524591271</v>
       </c>
       <c r="DM3">
-        <v>0.0001553399546250487</v>
+        <v>0.000107373103604345</v>
       </c>
       <c r="DN3">
-        <v>0.0222281876618159</v>
+        <v>0.02236512885293515</v>
       </c>
       <c r="DO3">
-        <v>0.0003229834896164209</v>
+        <v>0.0002764210173258154</v>
       </c>
       <c r="DP3">
-        <v>0.0006174814183847206</v>
+        <v>0.0005733860059019475</v>
       </c>
       <c r="DQ3">
-        <v>0.001735502451672369</v>
+        <v>0.001700772893703654</v>
       </c>
       <c r="DR3">
-        <v>0.002035432760602411</v>
+        <v>0.002003215770424603</v>
       </c>
       <c r="DS3">
-        <v>0.0001822945054275861</v>
+        <v>0.0001345534573155861</v>
       </c>
       <c r="DT3">
-        <v>0.0007675092228516067</v>
+        <v>0.0007246706190941298</v>
       </c>
       <c r="DU3">
-        <v>0.004088730121736717</v>
+        <v>0.004073713956754418</v>
       </c>
       <c r="DV3">
-        <v>0.005643972168042062</v>
+        <v>0.005641984533209155</v>
       </c>
       <c r="DW3">
-        <v>0.01543451345954292</v>
+        <v>0.01551454287324481</v>
       </c>
       <c r="DX3">
-        <v>0.002164147064434714</v>
+        <v>0.002133008336121111</v>
       </c>
       <c r="DY3">
-        <v>0.002715659880855304</v>
+        <v>0.00268914127027423</v>
       </c>
       <c r="DZ3">
-        <v>5.430046161672689E-06</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.001474891643913015</v>
+        <v>0.001437978904378308</v>
       </c>
       <c r="EB3">
-        <v>0.007105340411552435</v>
+        <v>0.007115594909875051</v>
       </c>
       <c r="EC3">
-        <v>0.009509603283136291</v>
+        <v>0.009539998705107355</v>
       </c>
       <c r="ED3">
-        <v>0.0001426512042472574</v>
+        <v>9.457805738196288E-05</v>
       </c>
       <c r="EE3">
-        <v>0.00011689972348054</v>
+        <v>6.861085203117975E-05</v>
       </c>
       <c r="EF3">
-        <v>0.005008995149136432</v>
+        <v>0.005001688202589547</v>
       </c>
       <c r="EG3">
-        <v>0.01072406631929538</v>
+        <v>0.01076463550702818</v>
       </c>
       <c r="EH3">
-        <v>0.005475220163017687</v>
+        <v>0.005471818863610541</v>
       </c>
       <c r="EI3">
-        <v>0.0001265285737672267</v>
+        <v>7.832036485304041E-05</v>
       </c>
       <c r="EJ3">
-        <v>0.001540786245874943</v>
+        <v>0.001504425516755838</v>
       </c>
       <c r="EK3">
-        <v>0.0007629407227155854</v>
+        <v>0.000720063847846611</v>
       </c>
       <c r="EL3">
-        <v>0.0008686842858639651</v>
+        <v>0.0008266932430131357</v>
       </c>
       <c r="EM3">
-        <v>0.0001633597748638286</v>
+        <v>0.0001154601072568076</v>
       </c>
       <c r="EN3">
-        <v>0.0003289469297939747</v>
+        <v>0.0002824344142675474</v>
       </c>
       <c r="EO3">
-        <v>0.006645534197862292</v>
+        <v>0.006651936820438512</v>
       </c>
       <c r="EP3">
-        <v>0.00484000814410506</v>
+        <v>0.004831285564348453</v>
       </c>
       <c r="EQ3">
-        <v>0.0009991060297471059</v>
+        <v>0.0009582075522794941</v>
       </c>
       <c r="ER3">
-        <v>0.0003187573094905918</v>
+        <v>0.0002721594337620989</v>
       </c>
       <c r="ES3">
-        <v>0.001087485632378496</v>
+        <v>0.001047327526044888</v>
       </c>
       <c r="ET3">
-        <v>0.005740092170903912</v>
+        <v>0.005738909749869217</v>
       </c>
       <c r="EU3">
-        <v>0.007920858235833435</v>
+        <v>0.00793794446725268</v>
       </c>
       <c r="EV3">
-        <v>0.01104386532881698</v>
+        <v>0.0110871135278633</v>
       </c>
       <c r="EW3">
-        <v>0.008275403246389562</v>
+        <v>0.008295459562349871</v>
       </c>
       <c r="EX3">
-        <v>0.0004337440929141764</v>
+        <v>0.0003881094812500616</v>
       </c>
       <c r="EY3">
-        <v>0.0004693683739748438</v>
+        <v>0.0004240321930411429</v>
       </c>
       <c r="EZ3">
-        <v>0.02414649571893107</v>
+        <v>0.02429950690662566</v>
       </c>
       <c r="FA3">
-        <v>0.04706053940116745</v>
+        <v>0.04740550547438465</v>
       </c>
       <c r="FB3">
-        <v>0.0264116417863729</v>
+        <v>0.02658362849231724</v>
       </c>
       <c r="FC3">
-        <v>0.01164202634662646</v>
+        <v>0.01169028544341261</v>
       </c>
       <c r="FD3">
-        <v>0.008422144250758587</v>
+        <v>0.008443429841354389</v>
       </c>
       <c r="FE3">
-        <v>0.008355156748764121</v>
+        <v>0.008375881173532751</v>
       </c>
       <c r="FF3">
-        <v>0.001395352441544837</v>
+        <v>0.001357773388429826</v>
       </c>
       <c r="FG3">
-        <v>8.478130852425516E-05</v>
+        <v>3.622337558790475E-05</v>
       </c>
       <c r="FH3">
-        <v>0.001759171652377089</v>
+        <v>0.001724640375374174</v>
       </c>
       <c r="FI3">
-        <v>0.01134842483788485</v>
+        <v>0.01139422438432793</v>
       </c>
       <c r="FJ3">
-        <v>0.01852084955143464</v>
+        <v>0.01862673373347943</v>
       </c>
       <c r="FK3">
-        <v>0.0203591906061689</v>
+        <v>0.02048047488745443</v>
       </c>
       <c r="FL3">
-        <v>0.005118000452381926</v>
+        <v>0.005111606662011054</v>
       </c>
       <c r="FM3">
-        <v>0.003210883895599967</v>
+        <v>0.003188513861777174</v>
       </c>
       <c r="FN3">
-        <v>0.005475097463014033</v>
+        <v>0.005471695135727849</v>
       </c>
       <c r="FO3">
-        <v>0.008569867255156851</v>
+        <v>0.00859239034677131</v>
       </c>
       <c r="FP3">
-        <v>0.0005474752163003754</v>
+        <v>0.000502793349820511</v>
       </c>
       <c r="FQ3">
-        <v>0.001493068944454221</v>
+        <v>0.001456308479292945</v>
       </c>
       <c r="FR3">
-        <v>0.009046042269334354</v>
+        <v>0.009072554360952598</v>
       </c>
       <c r="FS3">
-        <v>0.006167971183643464</v>
+        <v>0.006170373178700794</v>
       </c>
       <c r="FT3">
-        <v>0.003160375994096158</v>
+        <v>0.003137582846894269</v>
       </c>
       <c r="FU3">
-        <v>0.01739875851802581</v>
+        <v>0.01749524275046543</v>
       </c>
       <c r="FV3">
-        <v>0.01605938647814772</v>
+        <v>0.01614465056061501</v>
       </c>
       <c r="FW3">
-        <v>0.004391440130749521</v>
+        <v>0.004378959819583877</v>
       </c>
       <c r="FX3">
-        <v>2.827212384176638E-06</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0004506114134163793</v>
+        <v>0.000405118102197571</v>
       </c>
       <c r="FZ3">
-        <v>0.0007345362218698778</v>
+        <v>0.0006914213976112725</v>
       </c>
       <c r="GA3">
-        <v>0.003658649108931604</v>
+        <v>0.003640030081323952</v>
       </c>
       <c r="GB3">
-        <v>0.005072529551028089</v>
+        <v>0.005065754843094824</v>
       </c>
       <c r="GC3">
-        <v>0.003133811593305237</v>
+        <v>0.003110795911548404</v>
       </c>
       <c r="GD3">
-        <v>0.002596421677305139</v>
+        <v>0.002568904187781971</v>
       </c>
       <c r="GE3">
-        <v>0.0001532679245633567</v>
+        <v>0.0001052837157904025</v>
       </c>
       <c r="GF3">
-        <v>0.002191596065251974</v>
+        <v>0.0021606872819399</v>
       </c>
       <c r="GG3">
-        <v>0.00149665394456096</v>
+        <v>0.001459923511562258</v>
       </c>
       <c r="GH3">
-        <v>0.0006034910479681752</v>
+        <v>0.0005592784357458464</v>
       </c>
       <c r="GI3">
-        <v>0.003362362600110052</v>
+        <v>0.003341261529451796</v>
       </c>
       <c r="GJ3">
-        <v>4.340176129223201E-05</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0004994829148714658</v>
+        <v>0.0004543990086270577</v>
       </c>
       <c r="GL3">
-        <v>0.004935793146956936</v>
+        <v>0.004927872974645833</v>
       </c>
       <c r="GM3">
-        <v>0.003147126293701666</v>
+        <v>0.003124222151480403</v>
       </c>
       <c r="GN3">
-        <v>0.000595444217728591</v>
+        <v>0.0005511641958251567</v>
       </c>
       <c r="GO3">
-        <v>0.000287975978574117</v>
+        <v>0.0002411202423416361</v>
       </c>
       <c r="GP3">
-        <v>0.0001091256432490766</v>
+        <v>6.077164699234641E-05</v>
       </c>
       <c r="GQ3">
-        <v>0.0007721371629893978</v>
+        <v>0.0007293373282825378</v>
       </c>
       <c r="GR3">
-        <v>0.0003480751303634924</v>
+        <v>0.0003017228550636045</v>
       </c>
       <c r="GS3">
-        <v>0.0002534449775460005</v>
+        <v>0.0002062999691780008</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>8.138306101959955E-09</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.548611331930022E-05</v>
+        <v>1.415304402918992E-05</v>
       </c>
       <c r="D4">
-        <v>1.819391022794058E-07</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.975648424751713E-05</v>
+        <v>8.411728781559998E-06</v>
       </c>
       <c r="F4">
-        <v>8.997987712730388E-05</v>
+        <v>7.877834959241751E-05</v>
       </c>
       <c r="G4">
-        <v>0.0001345924816862284</v>
+        <v>0.0001234819462095241</v>
       </c>
       <c r="H4">
-        <v>0.0002152609426968752</v>
+        <v>0.0002043149389566678</v>
       </c>
       <c r="I4">
-        <v>0.0002548125631923937</v>
+        <v>0.0002439472291057271</v>
       </c>
       <c r="J4">
-        <v>0.0002086273026137663</v>
+        <v>0.0001976677688730048</v>
       </c>
       <c r="K4">
-        <v>0.0001787528522394872</v>
+        <v>0.0001677323864425617</v>
       </c>
       <c r="L4">
-        <v>1.614180720223102E-05</v>
+        <v>4.789679225584009E-06</v>
       </c>
       <c r="M4">
-        <v>5.496059768856835E-05</v>
+        <v>4.36876446822556E-05</v>
       </c>
       <c r="N4">
-        <v>6.797845385166126E-06</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>7.377587592429369E-05</v>
+        <v>6.254129863957041E-05</v>
       </c>
       <c r="P4">
-        <v>6.742626584474322E-07</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>5.010385462772113E-06</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.136187714234614E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>4.051534050759239E-05</v>
+        <v>2.921292489323735E-05</v>
       </c>
       <c r="T4">
-        <v>2.79955063507389E-05</v>
+        <v>1.666755522933844E-05</v>
       </c>
       <c r="U4">
-        <v>3.101179138852813E-06</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>5.553071769571104E-07</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1.294974416223957E-05</v>
+        <v>1.591105640227033E-06</v>
       </c>
       <c r="X4">
-        <v>5.225991565473312E-05</v>
+        <v>4.098145432584688E-05</v>
       </c>
       <c r="Y4">
-        <v>0.0001466840818377169</v>
+        <v>0.0001355982084401575</v>
       </c>
       <c r="Z4">
-        <v>3.273028441005809E-05</v>
+        <v>2.141199036214419E-05</v>
       </c>
       <c r="AA4">
-        <v>5.784717472473255E-06</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>2.574639332256111E-05</v>
+        <v>1.441385490065352E-05</v>
       </c>
       <c r="AC4">
-        <v>5.045152363207687E-05</v>
+        <v>3.916937389912259E-05</v>
       </c>
       <c r="AD4">
-        <v>7.508628094071095E-05</v>
+        <v>6.385437636363779E-05</v>
       </c>
       <c r="AE4">
-        <v>0.0001334295016716582</v>
+        <v>0.000122316594175965</v>
       </c>
       <c r="AF4">
-        <v>0.0001473076118455287</v>
+        <v>0.0001362230102024278</v>
       </c>
       <c r="AG4">
-        <v>7.831671098118308E-05</v>
+        <v>6.709139520297297E-05</v>
       </c>
       <c r="AH4">
-        <v>3.780010047357478E-05</v>
+        <v>2.649214684408711E-05</v>
       </c>
       <c r="AI4">
-        <v>3.429258642963124E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>6.932588086854237E-06</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>1.036097612980645E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>6.243871778225723E-06</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>4.765997859710327E-05</v>
+        <v>3.637213521701157E-05</v>
       </c>
       <c r="AN4">
-        <v>1.047513713123671E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>2.199131627551601E-06</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.819100122790414E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>1.241147915549597E-06</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>6.686352683769301E-05</v>
+        <v>5.561485109634563E-05</v>
       </c>
       <c r="AS4">
-        <v>2.78017703483117E-06</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>1.528178819145636E-05</v>
+        <v>3.92790611637372E-06</v>
       </c>
       <c r="AU4">
-        <v>1.379308517280529E-05</v>
+        <v>2.436166732708148E-06</v>
       </c>
       <c r="AV4">
-        <v>3.617826045325572E-06</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>4.765997859710327E-05</v>
+        <v>3.637213521701157E-05</v>
       </c>
       <c r="AX4">
-        <v>0.0001587484719888643</v>
+        <v>0.0001476872051728175</v>
       </c>
       <c r="AY4">
-        <v>0.00013890600174027</v>
+        <v>0.0001278042641374312</v>
       </c>
       <c r="AZ4">
-        <v>6.175392077367782E-05</v>
+        <v>5.049482345804981E-05</v>
       </c>
       <c r="BA4">
-        <v>6.175392077367782E-05</v>
+        <v>5.049482345804981E-05</v>
       </c>
       <c r="BB4">
-        <v>0.0002249176528178583</v>
+        <v>0.0002139913449447239</v>
       </c>
       <c r="BC4">
-        <v>0.0001269017815898763</v>
+        <v>0.0001157755601285147</v>
       </c>
       <c r="BD4">
-        <v>5.126158064222559E-06</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>1.026551012861042E-05</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>4.312929754034109E-05</v>
+        <v>3.183221336387812E-05</v>
       </c>
       <c r="BG4">
-        <v>1.723822021596731E-05</v>
+        <v>5.888328487970743E-06</v>
       </c>
       <c r="BH4">
-        <v>8.220434102988886E-05</v>
+        <v>7.09869544784764E-05</v>
       </c>
       <c r="BI4">
-        <v>5.106991063982426E-05</v>
+        <v>3.978902217164356E-05</v>
       </c>
       <c r="BJ4">
-        <v>1.723822021596731E-05</v>
+        <v>5.888328487970743E-06</v>
       </c>
       <c r="BK4">
-        <v>0.0001028347912883554</v>
+        <v>9.16594826911175E-05</v>
       </c>
       <c r="BL4">
-        <v>8.558285607221624E-05</v>
+        <v>7.437236035446704E-05</v>
       </c>
       <c r="BM4">
-        <v>5.878428873647308E-05</v>
+        <v>4.751913454669975E-05</v>
       </c>
       <c r="BN4">
-        <v>0.0002542483331853248</v>
+        <v>0.0002433818482927337</v>
       </c>
       <c r="BO4">
-        <v>0.0001803141522590478</v>
+        <v>0.0001692968708962888</v>
       </c>
       <c r="BP4">
-        <v>0.0001491569018686973</v>
+        <v>0.0001380760720454004</v>
       </c>
       <c r="BQ4">
-        <v>0.0001765462022118414</v>
+        <v>0.0001655212357221253</v>
       </c>
       <c r="BR4">
-        <v>0.0001097691913752323</v>
+        <v>9.860802620993258E-05</v>
       </c>
       <c r="BS4">
-        <v>4.461434455894635E-06</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>1.552321319448102E-07</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>4.49100605626512E-05</v>
+        <v>3.361660843802955E-05</v>
       </c>
       <c r="BV4">
-        <v>7.338282691936941E-06</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>2.189770727434324E-05</v>
+        <v>1.055731905598717E-05</v>
       </c>
       <c r="BX4">
-        <v>1.118919514018271E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.0001227803715382416</v>
+        <v>0.0001116457440313932</v>
       </c>
       <c r="BZ4">
-        <v>0.0003331379641736857</v>
+        <v>0.0003224323829083052</v>
       </c>
       <c r="CA4">
-        <v>0.0004578909457366409</v>
+        <v>0.0004474398111835514</v>
       </c>
       <c r="CB4">
-        <v>0.0001396742717498952</v>
+        <v>0.0001285741011138387</v>
       </c>
       <c r="CC4">
-        <v>4.312929754034109E-05</v>
+        <v>3.183221336387812E-05</v>
       </c>
       <c r="CD4">
-        <v>3.273028441005809E-05</v>
+        <v>2.141199036214419E-05</v>
       </c>
       <c r="CE4">
-        <v>1.83018982292935E-05</v>
+        <v>6.954175983501173E-06</v>
       </c>
       <c r="CF4">
-        <v>4.456609055834181E-05</v>
+        <v>3.327193687103502E-05</v>
       </c>
       <c r="CG4">
-        <v>2.592617232481345E-05</v>
+        <v>1.45940005809242E-05</v>
       </c>
       <c r="CH4">
-        <v>9.948056124633226E-05</v>
+        <v>8.829841134722112E-05</v>
       </c>
       <c r="CI4">
-        <v>0.0002002509025088234</v>
+        <v>0.0001892742842267481</v>
       </c>
       <c r="CJ4">
-        <v>8.936344111958093E-05</v>
+        <v>7.816065629918894E-05</v>
       </c>
       <c r="CK4">
-        <v>3.78479854741747E-06</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>4.391358455016695E-08</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>4.353473054542052E-06</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.0001454698618225046</v>
+        <v>0.0001343815118966331</v>
       </c>
       <c r="CO4">
-        <v>0.1045956213104158</v>
+        <v>0.1047975699340469</v>
       </c>
       <c r="CP4">
-        <v>0.0188530142361981</v>
+        <v>0.01888008187341947</v>
       </c>
       <c r="CQ4">
-        <v>0.05692290571315294</v>
+        <v>0.05702762086310083</v>
       </c>
       <c r="CR4">
-        <v>0.04150877552003854</v>
+        <v>0.04158205194442393</v>
       </c>
       <c r="CS4">
-        <v>7.407998092810363E-05</v>
+        <v>6.284602389724075E-05</v>
       </c>
       <c r="CT4">
-        <v>0.0004148430351973195</v>
+        <v>0.0004043040999426315</v>
       </c>
       <c r="CU4">
-        <v>0.0003455285343289197</v>
+        <v>0.0003348482249231767</v>
       </c>
       <c r="CV4">
-        <v>2.845662935651604E-05</v>
+        <v>1.712961874356124E-05</v>
       </c>
       <c r="CW4">
-        <v>0.04304797653932227</v>
+        <v>0.04312439232465923</v>
       </c>
       <c r="CX4">
-        <v>0.05495041068844072</v>
+        <v>0.05505110272913896</v>
       </c>
       <c r="CY4">
-        <v>0.03816446747813972</v>
+        <v>0.03823092283760555</v>
       </c>
       <c r="CZ4">
-        <v>0.004282396053651571</v>
+        <v>0.004279745395998166</v>
       </c>
       <c r="DA4">
-        <v>0.02401417130085914</v>
+        <v>0.02405176565600153</v>
       </c>
       <c r="DB4">
-        <v>0.04157789452090449</v>
+        <v>0.0416513119206983</v>
       </c>
       <c r="DC4">
-        <v>0.03248938540704002</v>
+        <v>0.03254426584495382</v>
       </c>
       <c r="DD4">
-        <v>0.0801150110037129</v>
+        <v>0.08026702887034423</v>
       </c>
       <c r="DE4">
-        <v>0.007969506099845159</v>
+        <v>0.007974375687538638</v>
       </c>
       <c r="DF4">
-        <v>0.003781964547381964</v>
+        <v>0.003778293207497948</v>
       </c>
       <c r="DG4">
-        <v>0.001084018613581019</v>
+        <v>0.001074844531684799</v>
       </c>
       <c r="DH4">
-        <v>3.309770841466133E-06</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.008421998605514167</v>
+        <v>0.008427791098848546</v>
       </c>
       <c r="DJ4">
-        <v>8.974024712430171E-07</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.002473764830992316</v>
+        <v>0.002467425281397518</v>
       </c>
       <c r="DL4">
-        <v>0.00936501711732868</v>
+        <v>0.00937273299523435</v>
       </c>
       <c r="DM4">
-        <v>0.02461088030833495</v>
+        <v>0.02464969171370928</v>
       </c>
       <c r="DN4">
-        <v>0.009780317122531725</v>
+        <v>0.009788880048096011</v>
       </c>
       <c r="DO4">
-        <v>0.0129510151622555</v>
+        <v>0.01296604505703982</v>
       </c>
       <c r="DP4">
-        <v>3.842030548134496E-05</v>
+        <v>2.711361682463146E-05</v>
       </c>
       <c r="DQ4">
-        <v>0.00237124372970789</v>
+        <v>0.002364695077638462</v>
       </c>
       <c r="DR4">
-        <v>0.001504659218850972</v>
+        <v>0.001496343077324001</v>
       </c>
       <c r="DS4">
-        <v>5.534250569335305E-05</v>
+        <v>4.40703316282327E-05</v>
       </c>
       <c r="DT4">
-        <v>0.0003040965238098429</v>
+        <v>0.0002933317094990619</v>
       </c>
       <c r="DU4">
-        <v>0.002005140025121196</v>
+        <v>0.001997844666377327</v>
       </c>
       <c r="DV4">
-        <v>0.001504659218850972</v>
+        <v>0.001496343077324001</v>
       </c>
       <c r="DW4">
-        <v>0.00841131110538027</v>
+        <v>0.008417081800443878</v>
       </c>
       <c r="DX4">
-        <v>0.001900629523811847</v>
+        <v>0.001893121005004588</v>
       </c>
       <c r="DY4">
-        <v>0.004123443051660144</v>
+        <v>0.004120468192787187</v>
       </c>
       <c r="DZ4">
-        <v>0.001033888312952966</v>
+        <v>0.001024611985082172</v>
       </c>
       <c r="EA4">
-        <v>4.389792654997078E-05</v>
+        <v>3.260241007250804E-05</v>
       </c>
       <c r="EB4">
-        <v>0.002292004228715146</v>
+        <v>0.002285293959422157</v>
       </c>
       <c r="EC4">
-        <v>0.01054439913210445</v>
+        <v>0.01055452048258829</v>
       </c>
       <c r="ED4">
-        <v>0.003609657845223237</v>
+        <v>0.003605635067855959</v>
       </c>
       <c r="EE4">
-        <v>2.173251227227361E-05</v>
+        <v>1.039178712148806E-05</v>
       </c>
       <c r="EF4">
-        <v>0.0005313720066572411</v>
+        <v>0.0005210707443888267</v>
       </c>
       <c r="EG4">
-        <v>0.00601704607538396</v>
+        <v>0.006017933417299587</v>
       </c>
       <c r="EH4">
-        <v>0.008200447102738481</v>
+        <v>0.008205787718684616</v>
       </c>
       <c r="EI4">
-        <v>0.001224767015344371</v>
+        <v>0.001215880004487578</v>
       </c>
       <c r="EJ4">
-        <v>0.0003951934649511418</v>
+        <v>0.0003846144523493281</v>
       </c>
       <c r="EK4">
-        <v>0.002368074829668188</v>
+        <v>0.002361519714296749</v>
       </c>
       <c r="EL4">
-        <v>0.0008532204106894867</v>
+        <v>0.000843575591796101</v>
       </c>
       <c r="EM4">
-        <v>0.0005182638064930163</v>
+        <v>0.0005079358086837432</v>
       </c>
       <c r="EN4">
-        <v>6.326962079266711E-07</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.0009806114122854921</v>
+        <v>0.0009712264206212873</v>
       </c>
       <c r="EP4">
-        <v>0.007380318092463577</v>
+        <v>0.007383985969788925</v>
       </c>
       <c r="EQ4">
-        <v>0.00354945964446905</v>
+        <v>0.003545314086595239</v>
       </c>
       <c r="ER4">
-        <v>0.0006906702086529926</v>
+        <v>0.0006806938516755288</v>
       </c>
       <c r="ES4">
-        <v>2.839463835573939E-06</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.001436431817996192</v>
+        <v>0.001427976519571982</v>
       </c>
       <c r="EU4">
-        <v>0.007443833693259325</v>
+        <v>0.007447631117274453</v>
       </c>
       <c r="EV4">
-        <v>0.00862962710811542</v>
+        <v>0.008635843081427615</v>
       </c>
       <c r="EW4">
-        <v>0.009948414124637711</v>
+        <v>0.00995731990156311</v>
       </c>
       <c r="EX4">
-        <v>0.002396670430026446</v>
+        <v>0.002390173638363234</v>
       </c>
       <c r="EY4">
-        <v>0.0003018304437814525</v>
+        <v>0.0002910610075641985</v>
       </c>
       <c r="EZ4">
-        <v>0.003182464739871191</v>
+        <v>0.003177570657627601</v>
       </c>
       <c r="FA4">
-        <v>0.02885052036145086</v>
+        <v>0.02889797895472641</v>
       </c>
       <c r="FB4">
-        <v>0.04377132054838461</v>
+        <v>0.04384921166924186</v>
       </c>
       <c r="FC4">
-        <v>0.01481207718557163</v>
+        <v>0.01483090291038157</v>
       </c>
       <c r="FD4">
-        <v>0.007621553795485875</v>
+        <v>0.007625713698178088</v>
       </c>
       <c r="FE4">
-        <v>0.007835195098162457</v>
+        <v>0.007839790744565117</v>
       </c>
       <c r="FF4">
-        <v>0.004852575060795001</v>
+        <v>0.004851087342671916</v>
       </c>
       <c r="FG4">
-        <v>0.0006053060075835157</v>
+        <v>0.0005951555414181406</v>
       </c>
       <c r="FH4">
-        <v>0.0001522548019075091</v>
+        <v>0.0001411802905743196</v>
       </c>
       <c r="FI4">
-        <v>0.004926359761719405</v>
+        <v>0.004925022535186441</v>
       </c>
       <c r="FJ4">
-        <v>0.01677627921017994</v>
+        <v>0.01679911112980121</v>
       </c>
       <c r="FK4">
-        <v>0.02330991329203592</v>
+        <v>0.02334607123954536</v>
       </c>
       <c r="FL4">
-        <v>0.01341690416809234</v>
+        <v>0.01343288429207634</v>
       </c>
       <c r="FM4">
-        <v>0.003444245043150879</v>
+        <v>0.003439884889128303</v>
       </c>
       <c r="FN4">
-        <v>0.0015830912198336</v>
+        <v>0.001574935048549731</v>
       </c>
       <c r="FO4">
-        <v>0.005568954069770084</v>
+        <v>0.005568927481323455</v>
       </c>
       <c r="FP4">
-        <v>0.004984403562446602</v>
+        <v>0.004983184722296702</v>
       </c>
       <c r="FQ4">
-        <v>0.0001359477317032075</v>
+        <v>0.0001248399604002073</v>
       </c>
       <c r="FR4">
-        <v>0.003716027446555878</v>
+        <v>0.003712221621080311</v>
       </c>
       <c r="FS4">
-        <v>0.01235638665480576</v>
+        <v>0.01237020374275484</v>
       </c>
       <c r="FT4">
-        <v>0.00219031402744113</v>
+        <v>0.00218339635038071</v>
       </c>
       <c r="FU4">
-        <v>0.006396509780138033</v>
+        <v>0.006398171077841319</v>
       </c>
       <c r="FV4">
-        <v>0.01898732623788082</v>
+        <v>0.01901466781843261</v>
       </c>
       <c r="FW4">
-        <v>0.01014495812710009</v>
+        <v>0.01015426477600964</v>
       </c>
       <c r="FX4">
-        <v>0.001701225121313629</v>
+        <v>0.001693309896438135</v>
       </c>
       <c r="FY4">
-        <v>0.0001887526223647683</v>
+        <v>0.000177752552141561</v>
       </c>
       <c r="FZ4">
-        <v>0.0005286893066236312</v>
+        <v>0.0005183825727088076</v>
       </c>
       <c r="GA4">
-        <v>0.002028527425414203</v>
+        <v>0.002021279767711535</v>
       </c>
       <c r="GB4">
-        <v>0.004169033452231318</v>
+        <v>0.004166151579733452</v>
       </c>
       <c r="GC4">
-        <v>0.002823095835368874</v>
+        <v>0.002817468782777765</v>
       </c>
       <c r="GD4">
-        <v>0.003500505043855727</v>
+        <v>0.003496259637970097</v>
       </c>
       <c r="GE4">
-        <v>0.0004161699352139434</v>
+        <v>0.0004056337063101782</v>
       </c>
       <c r="GF4">
-        <v>0.0002455462530763017</v>
+        <v>0.0002346620193840739</v>
       </c>
       <c r="GG4">
-        <v>0.001855493523246365</v>
+        <v>0.001847892944860201</v>
       </c>
       <c r="GH4">
-        <v>0.0002139893826809446</v>
+        <v>0.0002030407854615154</v>
       </c>
       <c r="GI4">
-        <v>0.001573608619714798</v>
+        <v>0.001565433107679358</v>
       </c>
       <c r="GJ4">
-        <v>0.001442194318068387</v>
+        <v>0.001433750772863856</v>
       </c>
       <c r="GK4">
-        <v>3.203511040134868E-05</v>
+        <v>2.071539847356714E-05</v>
       </c>
       <c r="GL4">
-        <v>0.002207612027657846</v>
+        <v>0.002200729631672309</v>
       </c>
       <c r="GM4">
-        <v>0.004062362550894903</v>
+        <v>0.004059263111972554</v>
       </c>
       <c r="GN4">
-        <v>0.001692287221201651</v>
+        <v>0.001684353766547039</v>
       </c>
       <c r="GO4">
-        <v>0.0004079641051111375</v>
+        <v>0.0003974111395613609</v>
       </c>
       <c r="GP4">
-        <v>1.047058813117971E-06</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0001183419014826347</v>
+        <v>0.0001071982212533655</v>
       </c>
       <c r="GR4">
-        <v>2.652287033228913E-05</v>
+        <v>1.519191561619617E-05</v>
       </c>
       <c r="GS4">
-        <v>0.0003076524338543928</v>
+        <v>0.0002968948721928768</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001723889543508735</v>
+        <v>0.0001683404869861321</v>
       </c>
       <c r="C5">
-        <v>0.0004225719461524632</v>
+        <v>0.0004187248186482452</v>
       </c>
       <c r="D5">
-        <v>0.0001938872536463816</v>
+        <v>0.0001898560874760599</v>
       </c>
       <c r="E5">
-        <v>1.855127539208111E-05</v>
+        <v>1.437900402051367E-05</v>
       </c>
       <c r="F5">
-        <v>3.080275499060436E-05</v>
+        <v>2.664034324688694E-05</v>
       </c>
       <c r="G5">
-        <v>3.440811187245805E-05</v>
+        <v>3.024860161315611E-05</v>
       </c>
       <c r="H5">
-        <v>4.183833862897209E-06</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>5.549128518156974E-06</v>
+        <v>1.366393403953606E-06</v>
       </c>
       <c r="J5">
-        <v>3.371205889526747E-06</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4.76402454388456E-09</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>3.362970389796621E-05</v>
+        <v>2.946956719898551E-05</v>
       </c>
       <c r="M5">
-        <v>0.0001226857259796311</v>
+        <v>0.0001185972589290768</v>
       </c>
       <c r="N5">
-        <v>0.0002167834428960814</v>
+        <v>0.0002127707029006042</v>
       </c>
       <c r="O5">
-        <v>0.0002146885329647309</v>
+        <v>0.0002106741070477993</v>
       </c>
       <c r="P5">
-        <v>0.0001105869563761036</v>
+        <v>0.0001064887525941794</v>
       </c>
       <c r="Q5">
-        <v>7.841868743024669E-05</v>
+        <v>7.429459557840938E-05</v>
       </c>
       <c r="R5">
-        <v>0.0002408148521085804</v>
+        <v>0.0002368214518793446</v>
       </c>
       <c r="S5">
-        <v>5.62569581564789E-05</v>
+        <v>5.211503120142854E-05</v>
       </c>
       <c r="T5">
-        <v>3.006650001473117E-05</v>
+        <v>2.590349575481957E-05</v>
       </c>
       <c r="U5">
-        <v>8.789075711985023E-05</v>
+        <v>8.37742881091039E-05</v>
       </c>
       <c r="V5">
-        <v>0.0002812765907826632</v>
+        <v>0.0002773157529620967</v>
       </c>
       <c r="W5">
-        <v>0.0001295496957547012</v>
+        <v>0.0001254667526236875</v>
       </c>
       <c r="X5">
-        <v>3.484373185818294E-06</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>3.915303671696851E-06</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>5.467127420844122E-05</v>
+        <v>5.052807114192288E-05</v>
       </c>
       <c r="AA5">
-        <v>6.992031770873533E-05</v>
+        <v>6.578938662069702E-05</v>
       </c>
       <c r="AB5">
-        <v>5.991356803665306E-05</v>
+        <v>5.577458381291294E-05</v>
       </c>
       <c r="AC5">
-        <v>9.44163229060097E-05</v>
+        <v>9.030510547729843E-05</v>
       </c>
       <c r="AD5">
-        <v>4.966894437236584E-05</v>
+        <v>4.552171557898161E-05</v>
       </c>
       <c r="AE5">
-        <v>4.586744649693961E-05</v>
+        <v>4.171715837067865E-05</v>
       </c>
       <c r="AF5">
-        <v>6.09091680040276E-08</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>1.075071664770273E-06</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>5.362176824283317E-05</v>
+        <v>4.947772056500368E-05</v>
       </c>
       <c r="AI5">
-        <v>6.77229777807414E-05</v>
+        <v>6.35902783386218E-05</v>
       </c>
       <c r="AJ5">
-        <v>2.32969712365663E-05</v>
+        <v>1.91285190604307E-05</v>
       </c>
       <c r="AK5">
-        <v>3.1256752975727E-05</v>
+        <v>2.709470659613903E-05</v>
       </c>
       <c r="AL5">
-        <v>0.0001417806553538969</v>
+        <v>0.0001377075553368456</v>
       </c>
       <c r="AM5">
-        <v>0.0002027821533548988</v>
+        <v>0.0001987581455363651</v>
       </c>
       <c r="AN5">
-        <v>5.991356803665306E-05</v>
+        <v>5.577458381291294E-05</v>
       </c>
       <c r="AO5">
-        <v>7.354400158998845E-05</v>
+        <v>6.941598673539183E-05</v>
       </c>
       <c r="AP5">
-        <v>0.0002312830924209329</v>
+        <v>0.0002272820213138639</v>
       </c>
       <c r="AQ5">
-        <v>0.0001135093662803373</v>
+        <v>0.0001094135143673322</v>
       </c>
       <c r="AR5">
-        <v>1.307177057164259E-06</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0001019763916582688</v>
+        <v>9.787125834893422E-05</v>
       </c>
       <c r="AT5">
-        <v>0.0001677258645036813</v>
+        <v>0.0001636736444223677</v>
       </c>
       <c r="AU5">
-        <v>0.0003208514894858074</v>
+        <v>0.000316922500371373</v>
       </c>
       <c r="AV5">
-        <v>0.0004341475557731345</v>
+        <v>0.0004303097439766298</v>
       </c>
       <c r="AW5">
-        <v>0.0005171674230526021</v>
+        <v>0.0005133964231859506</v>
       </c>
       <c r="AX5">
-        <v>0.0004082245866226212</v>
+        <v>0.0004043659127884715</v>
       </c>
       <c r="AY5">
-        <v>0.0002895376905119498</v>
+        <v>0.0002855835009797234</v>
       </c>
       <c r="AZ5">
-        <v>0.0001368387655158409</v>
+        <v>0.0001327616884122437</v>
       </c>
       <c r="BA5">
-        <v>0.0001013600526784661</v>
+        <v>9.725442335777856E-05</v>
       </c>
       <c r="BB5">
-        <v>6.481218387612711E-05</v>
+        <v>6.067714191330078E-05</v>
       </c>
       <c r="BC5">
-        <v>1.850303939366179E-05</v>
+        <v>1.433072920319174E-05</v>
       </c>
       <c r="BD5">
-        <v>4.355154557283089E-05</v>
+        <v>3.939939367811113E-05</v>
       </c>
       <c r="BE5">
-        <v>9.720844181451292E-05</v>
+        <v>9.309947140038708E-05</v>
       </c>
       <c r="BF5">
-        <v>2.571706015726082E-05</v>
+        <v>2.155055559699726E-05</v>
       </c>
       <c r="BG5">
-        <v>5.720827412530461E-06</v>
+        <v>1.538230476510974E-06</v>
       </c>
       <c r="BH5">
-        <v>5.867965507708796E-06</v>
+        <v>1.685486984069574E-06</v>
       </c>
       <c r="BI5">
-        <v>1.881548738342297E-05</v>
+        <v>1.46434286418393E-05</v>
       </c>
       <c r="BJ5">
-        <v>2.886802205400488E-06</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>4.531713251497321E-05</v>
+        <v>4.116640151232174E-05</v>
       </c>
       <c r="BL5">
-        <v>3.205923894942981E-05</v>
+        <v>2.789783838678109E-05</v>
       </c>
       <c r="BM5">
-        <v>3.897241072288756E-05</v>
+        <v>3.481657367609025E-05</v>
       </c>
       <c r="BN5">
-        <v>6.054609001592553E-05</v>
+        <v>5.640761482713685E-05</v>
       </c>
       <c r="BO5">
-        <v>0.0002136597829984427</v>
+        <v>0.0002096445291740134</v>
       </c>
       <c r="BP5">
-        <v>0.0003793400875691563</v>
+        <v>0.0003754581683458263</v>
       </c>
       <c r="BQ5">
-        <v>0.0001241684159310439</v>
+        <v>0.0001200811421054401</v>
       </c>
       <c r="BR5">
-        <v>3.646993280489289E-05</v>
+        <v>3.231208183799916E-05</v>
       </c>
       <c r="BS5">
-        <v>0.0001519023150222136</v>
+        <v>0.0001478373606170251</v>
       </c>
       <c r="BT5">
-        <v>0.0002148527829593485</v>
+        <v>0.0002108384892259469</v>
       </c>
       <c r="BU5">
-        <v>1.457794852228566E-05</v>
+        <v>1.040247953495699E-05</v>
       </c>
       <c r="BV5">
-        <v>8.502963721360814E-06</v>
+        <v>4.322605766226249E-06</v>
       </c>
       <c r="BW5">
-        <v>4.61098114889974E-06</v>
+        <v>4.274910414847378E-07</v>
       </c>
       <c r="BX5">
-        <v>1.704306444150466E-05</v>
+        <v>1.286957930644258E-05</v>
       </c>
       <c r="BY5">
-        <v>0.0001666719845382166</v>
+        <v>0.0001626189163255263</v>
       </c>
       <c r="BZ5">
-        <v>0.0001614525047092572</v>
+        <v>0.0001573952360138194</v>
       </c>
       <c r="CA5">
-        <v>8.655870316350119E-05</v>
+        <v>8.244116215519081E-05</v>
       </c>
       <c r="CB5">
-        <v>0.0001606767247346792</v>
+        <v>0.0001566188317144992</v>
       </c>
       <c r="CC5">
-        <v>0.0001063430865151738</v>
+        <v>0.0001022414673925035</v>
       </c>
       <c r="CD5">
-        <v>2.819717407598834E-05</v>
+        <v>2.403266543793709E-05</v>
       </c>
       <c r="CE5">
-        <v>0.0001614525047092572</v>
+        <v>0.0001573952360138194</v>
       </c>
       <c r="CF5">
-        <v>0.0004443965254372793</v>
+        <v>0.0004405669617079507</v>
       </c>
       <c r="CG5">
-        <v>0.0002484632318579457</v>
+        <v>0.000244475986818161</v>
       </c>
       <c r="CH5">
-        <v>8.523681720681892E-05</v>
+        <v>8.11182123838494E-05</v>
       </c>
       <c r="CI5">
-        <v>0.0001806312540807762</v>
+        <v>0.0001765894198746923</v>
       </c>
       <c r="CJ5">
-        <v>4.037189567702692E-06</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>2.530540917075048E-05</v>
+        <v>2.113857332596749E-05</v>
       </c>
       <c r="CL5">
-        <v>3.051787199993987E-07</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>2.638784513527943E-05</v>
+        <v>2.222188040289523E-05</v>
       </c>
       <c r="CN5">
-        <v>0.001899688637747859</v>
+        <v>0.001897030249999772</v>
       </c>
       <c r="CO5">
-        <v>0.08746666213374768</v>
+        <v>0.0875328655114818</v>
       </c>
       <c r="CP5">
-        <v>4.388160456201497E-05</v>
+        <v>3.972971828899222E-05</v>
       </c>
       <c r="CQ5">
-        <v>0.03256862893273727</v>
+        <v>0.03259065199961934</v>
       </c>
       <c r="CR5">
-        <v>0.04607361449018356</v>
+        <v>0.04610650596937824</v>
       </c>
       <c r="CS5">
-        <v>0.000678193077775847</v>
+        <v>0.0006745516665859843</v>
       </c>
       <c r="CT5">
-        <v>0.005108653432591191</v>
+        <v>0.005108577524649444</v>
       </c>
       <c r="CU5">
-        <v>0.001639759946265633</v>
+        <v>0.00163689237560662</v>
       </c>
       <c r="CV5">
-        <v>0.006752232378731676</v>
+        <v>0.006753479174437335</v>
       </c>
       <c r="CW5">
-        <v>0.0616365909801902</v>
+        <v>0.06168200708183527</v>
       </c>
       <c r="CX5">
-        <v>0.01484571851351093</v>
+        <v>0.01485347870710103</v>
       </c>
       <c r="CY5">
-        <v>0.08155026732762589</v>
+        <v>0.08161170936608396</v>
       </c>
       <c r="CZ5">
-        <v>0.000152769934993782</v>
+        <v>0.0001487056788234447</v>
       </c>
       <c r="DA5">
-        <v>0.005456623821188321</v>
+        <v>0.005456827949507241</v>
       </c>
       <c r="DB5">
-        <v>0.06105396799928255</v>
+        <v>0.06109891522321188</v>
       </c>
       <c r="DC5">
-        <v>0.001337077456184433</v>
+        <v>0.001333966295623898</v>
       </c>
       <c r="DD5">
-        <v>0.1117378063383907</v>
+        <v>0.1118235424139861</v>
       </c>
       <c r="DE5">
-        <v>0.0005429664822071759</v>
+        <v>0.0005392162446590754</v>
       </c>
       <c r="DF5">
-        <v>0.01184024661199921</v>
+        <v>0.01184558809083536</v>
       </c>
       <c r="DG5">
-        <v>0.002101021931150237</v>
+        <v>0.002098525570472497</v>
       </c>
       <c r="DH5">
-        <v>1.377997954843483E-06</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.01027799066319379</v>
+        <v>0.01028207488472173</v>
       </c>
       <c r="DJ5">
-        <v>0.005801227809895768</v>
+        <v>0.005801709265296447</v>
       </c>
       <c r="DK5">
-        <v>0.0003463580686499657</v>
+        <v>0.0003424496064748501</v>
       </c>
       <c r="DL5">
-        <v>0.0007489278754578921</v>
+        <v>0.0007453433895377965</v>
       </c>
       <c r="DM5">
-        <v>0.04409657855497034</v>
+        <v>0.04412787897421096</v>
       </c>
       <c r="DN5">
-        <v>0.0006323021792796759</v>
+        <v>0.0006286238364541495</v>
       </c>
       <c r="DO5">
-        <v>0.0148780085124528</v>
+        <v>0.0148857946920775</v>
       </c>
       <c r="DP5">
-        <v>0.0003809291375170837</v>
+        <v>0.0003770484971140787</v>
       </c>
       <c r="DQ5">
-        <v>0.0008963710706262294</v>
+        <v>0.000892905242621832</v>
       </c>
       <c r="DR5">
-        <v>0.002290549124939496</v>
+        <v>0.002288205290132871</v>
       </c>
       <c r="DS5">
-        <v>0.0004863855540613133</v>
+        <v>0.0004825897818583622</v>
       </c>
       <c r="DT5">
-        <v>6.880880174515931E-05</v>
+        <v>6.467697614200044E-05</v>
       </c>
       <c r="DU5">
-        <v>0.002977143602440032</v>
+        <v>0.002975352318529616</v>
       </c>
       <c r="DV5">
-        <v>0.002153223029439625</v>
+        <v>0.002150768678659412</v>
       </c>
       <c r="DW5">
-        <v>0.005848734808338979</v>
+        <v>0.005849254495964685</v>
       </c>
       <c r="DX5">
-        <v>0.01130978362938229</v>
+        <v>0.01131469820732417</v>
       </c>
       <c r="DY5">
-        <v>0.001419521153482782</v>
+        <v>0.001416476341167567</v>
       </c>
       <c r="DZ5">
-        <v>0.0003259814293177011</v>
+        <v>0.000322056568626877</v>
       </c>
       <c r="EA5">
-        <v>0.0004242489860975072</v>
+        <v>0.0004204032082253572</v>
       </c>
       <c r="EB5">
-        <v>1.814606140535983E-06</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.002949913203332362</v>
+        <v>0.002948100005203402</v>
       </c>
       <c r="ED5">
-        <v>0.004097513865725886</v>
+        <v>0.004096624222614149</v>
       </c>
       <c r="EE5">
-        <v>8.088262734950423E-05</v>
+        <v>7.676051840352359E-05</v>
       </c>
       <c r="EF5">
-        <v>1.763696442204277E-05</v>
+        <v>1.346395724009167E-05</v>
       </c>
       <c r="EG5">
-        <v>0.002553630116318423</v>
+        <v>0.002551498001300299</v>
       </c>
       <c r="EH5">
-        <v>0.007395475357652825</v>
+        <v>0.007397239816252856</v>
       </c>
       <c r="EI5">
-        <v>0.003347598390300357</v>
+        <v>0.003346105237429068</v>
       </c>
       <c r="EJ5">
-        <v>1.324460056597901E-05</v>
+        <v>9.068058539713442E-06</v>
       </c>
       <c r="EK5">
-        <v>0.001206012560479385</v>
+        <v>0.001202795922773378</v>
       </c>
       <c r="EL5">
-        <v>0.0002743317610102429</v>
+        <v>0.0002703653341964053</v>
       </c>
       <c r="EM5">
-        <v>0.0001851918339313275</v>
+        <v>0.0001811536699448073</v>
       </c>
       <c r="EN5">
-        <v>0.0002323533723858602</v>
+        <v>0.0002283531626084016</v>
       </c>
       <c r="EO5">
-        <v>0.000237663322211855</v>
+        <v>0.0002336673857247174</v>
       </c>
       <c r="EP5">
-        <v>0.002283727925163024</v>
+        <v>0.002281378600856887</v>
       </c>
       <c r="EQ5">
-        <v>0.002130591430181255</v>
+        <v>0.002128118866160385</v>
       </c>
       <c r="ER5">
-        <v>0.0001996030734590762</v>
+        <v>0.0001955765072112175</v>
       </c>
       <c r="ES5">
-        <v>0.0003712287178349631</v>
+        <v>0.0003673402708215576</v>
       </c>
       <c r="ET5">
-        <v>2.618153214204023E-07</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.002931736303928013</v>
+        <v>0.002929908477568875</v>
       </c>
       <c r="EV5">
-        <v>0.00548827722015105</v>
+        <v>0.005488506822187772</v>
       </c>
       <c r="EW5">
-        <v>0.008387892725131652</v>
+        <v>0.008390455851830222</v>
       </c>
       <c r="EX5">
-        <v>0.004479774553199335</v>
+        <v>0.004479192542165005</v>
       </c>
       <c r="EY5">
-        <v>0.0001187791161076494</v>
+        <v>0.0001146875051331972</v>
       </c>
       <c r="EZ5">
-        <v>0.0009618529284804116</v>
+        <v>0.0009584397983354178</v>
       </c>
       <c r="FA5">
-        <v>0.01982659935028918</v>
+        <v>0.01983836800922594</v>
       </c>
       <c r="FB5">
-        <v>0.03273061892742892</v>
+        <v>0.03275277235906002</v>
       </c>
       <c r="FC5">
-        <v>0.01748178442712796</v>
+        <v>0.01749166604847602</v>
       </c>
       <c r="FD5">
-        <v>0.007093729767540925</v>
+        <v>0.007095251390228773</v>
       </c>
       <c r="FE5">
-        <v>0.004048100867345132</v>
+        <v>0.004047171458116082</v>
       </c>
       <c r="FF5">
-        <v>0.004367904156865289</v>
+        <v>0.004367232115849973</v>
       </c>
       <c r="FG5">
-        <v>9.709797181813299E-05</v>
+        <v>9.298891250102656E-05</v>
       </c>
       <c r="FH5">
-        <v>0.0004832450841642254</v>
+        <v>0.0004794467846041327</v>
       </c>
       <c r="FI5">
-        <v>0.007424504756701542</v>
+        <v>0.007426292577301976</v>
       </c>
       <c r="FJ5">
-        <v>0.02041779933091576</v>
+        <v>0.02043004377008356</v>
       </c>
       <c r="FK5">
-        <v>0.02435266920197144</v>
+        <v>0.02436808030784711</v>
       </c>
       <c r="FL5">
-        <v>0.02727487410621179</v>
+        <v>0.02729263691602866</v>
       </c>
       <c r="FM5">
-        <v>0.007282976761339367</v>
+        <v>0.007284650684401679</v>
       </c>
       <c r="FN5">
-        <v>0.002852841206513379</v>
+        <v>0.002850949887716984</v>
       </c>
       <c r="FO5">
-        <v>0.003698887178788744</v>
+        <v>0.003697676732728052</v>
       </c>
       <c r="FP5">
-        <v>0.008167297732360473</v>
+        <v>0.008169683330743643</v>
       </c>
       <c r="FQ5">
-        <v>0.0001303743157276787</v>
+        <v>0.0001262920362263912</v>
       </c>
       <c r="FR5">
-        <v>0.003134195897293483</v>
+        <v>0.003132531004417537</v>
       </c>
       <c r="FS5">
-        <v>0.01606244347363927</v>
+        <v>0.01607118285143372</v>
       </c>
       <c r="FT5">
-        <v>0.00981846867825217</v>
+        <v>0.009822183090099244</v>
       </c>
       <c r="FU5">
-        <v>0.007152197165624968</v>
+        <v>0.00715376584114279</v>
       </c>
       <c r="FV5">
-        <v>0.02231588726871608</v>
+        <v>0.02232965923282833</v>
       </c>
       <c r="FW5">
-        <v>0.02186165528360111</v>
+        <v>0.02187506169526765</v>
       </c>
       <c r="FX5">
-        <v>0.008728007713986201</v>
+        <v>0.008730844555152429</v>
       </c>
       <c r="FY5">
-        <v>0.0003700519078735267</v>
+        <v>0.0003661625137983255</v>
       </c>
       <c r="FZ5">
-        <v>8.863187709556399E-06</v>
+        <v>4.683119652016464E-06</v>
       </c>
       <c r="GA5">
-        <v>0.0002541317916721889</v>
+        <v>0.0002501491085214204</v>
       </c>
       <c r="GB5">
-        <v>0.002290549124939496</v>
+        <v>0.002288205290132871</v>
       </c>
       <c r="GC5">
-        <v>0.003481597085909265</v>
+        <v>0.003480211771218702</v>
       </c>
       <c r="GD5">
-        <v>0.002354372922848012</v>
+        <v>0.002352080451543264</v>
       </c>
       <c r="GE5">
-        <v>0.001042826465826937</v>
+        <v>0.001039478500786085</v>
       </c>
       <c r="GF5">
-        <v>0.0002743317610102429</v>
+        <v>0.0002703653341964053</v>
       </c>
       <c r="GG5">
-        <v>0.001998222634518934</v>
+        <v>0.001995643544012533</v>
       </c>
       <c r="GH5">
-        <v>0.0006372045391190272</v>
+        <v>0.0006335301415674747</v>
       </c>
       <c r="GI5">
-        <v>0.001708114544025676</v>
+        <v>0.001705301983122043</v>
       </c>
       <c r="GJ5">
-        <v>0.005580741217121037</v>
+        <v>0.005581045231443421</v>
       </c>
       <c r="GK5">
-        <v>0.0004895361339580698</v>
+        <v>0.0004857428972484887</v>
       </c>
       <c r="GL5">
-        <v>6.093513200317676E-05</v>
+        <v>5.679696990385466E-05</v>
       </c>
       <c r="GM5">
-        <v>0.001417219153558218</v>
+        <v>0.001414172488661656</v>
       </c>
       <c r="GN5">
-        <v>0.000678193077775847</v>
+        <v>0.0006745516665859843</v>
       </c>
       <c r="GO5">
-        <v>6.646291782203313E-05</v>
+        <v>6.232920432098605E-05</v>
       </c>
       <c r="GP5">
-        <v>0.0003051894199990481</v>
+        <v>0.0003012478265150549</v>
       </c>
       <c r="GQ5">
-        <v>0.0004877345840171061</v>
+        <v>0.0004839398974735005</v>
       </c>
       <c r="GR5">
-        <v>2.027748933551368E-06</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>2.92895120401928E-05</v>
+        <v>2.512588248337634E-05</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.782456244426784E-05</v>
+        <v>1.828469139648397E-05</v>
       </c>
       <c r="C6">
-        <v>1.961095231312318E-06</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>6.348335101362281E-08</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.303895120818968E-05</v>
+        <v>3.472182178415898E-06</v>
       </c>
       <c r="F6">
-        <v>9.573074152850885E-06</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>8.95411014296804E-05</v>
+        <v>8.011350510139262E-05</v>
       </c>
       <c r="H6">
-        <v>0.0004382883269980403</v>
+        <v>0.0004294951715760222</v>
       </c>
       <c r="I6">
-        <v>0.0001696223627083179</v>
+        <v>0.0001603404501998742</v>
       </c>
       <c r="J6">
-        <v>0.0001831780829247587</v>
+        <v>0.000173920830980726</v>
       </c>
       <c r="K6">
-        <v>0.0002800943344721962</v>
+        <v>0.0002710133925600607</v>
       </c>
       <c r="L6">
-        <v>0.0004086913565254728</v>
+        <v>0.0003998443582987159</v>
       </c>
       <c r="M6">
-        <v>0.0001175718318772401</v>
+        <v>0.0001081952290500463</v>
       </c>
       <c r="N6">
-        <v>3.537535056482938E-05</v>
+        <v>2.5849215909788E-05</v>
       </c>
       <c r="O6">
-        <v>0.0001940098230977064</v>
+        <v>0.0001847722762539525</v>
       </c>
       <c r="P6">
-        <v>0.000115069627837288</v>
+        <v>0.0001056884730008383</v>
       </c>
       <c r="Q6">
-        <v>0.000250626704001694</v>
+        <v>0.0002414921545801343</v>
       </c>
       <c r="R6">
-        <v>3.818899060975408E-05</v>
+        <v>2.866797452830739E-05</v>
       </c>
       <c r="S6">
-        <v>1.170893318695361E-06</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>8.228453131381657E-06</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>8.748066139678188E-05</v>
+        <v>7.804931671626088E-05</v>
       </c>
       <c r="V6">
-        <v>5.551228088635072E-05</v>
+        <v>4.602277933226621E-05</v>
       </c>
       <c r="W6">
-        <v>0.0002191957834998443</v>
+        <v>0.000210004054951897</v>
       </c>
       <c r="X6">
-        <v>0.000690532311025557</v>
+        <v>0.0006821980378256602</v>
       </c>
       <c r="Y6">
-        <v>0.0006101067097414215</v>
+        <v>0.0006016261262983885</v>
       </c>
       <c r="Z6">
-        <v>0.0004351659269481857</v>
+        <v>0.000426367091256413</v>
       </c>
       <c r="AA6">
-        <v>0.0006198876798975917</v>
+        <v>0.0006114248899941632</v>
       </c>
       <c r="AB6">
-        <v>0.0007458585419089371</v>
+        <v>0.0007376249181808889</v>
       </c>
       <c r="AC6">
-        <v>0.0003963844063289708</v>
+        <v>0.0003875150193000568</v>
       </c>
       <c r="AD6">
-        <v>8.661482138295722E-05</v>
+        <v>7.718190156639849E-05</v>
       </c>
       <c r="AE6">
-        <v>0.0001220308319484358</v>
+        <v>0.0001126623409335772</v>
       </c>
       <c r="AF6">
-        <v>0.0001152090518395142</v>
+        <v>0.0001058281506431907</v>
       </c>
       <c r="AG6">
-        <v>7.523470120125368E-05</v>
+        <v>6.578107867157724E-05</v>
       </c>
       <c r="AH6">
-        <v>0.0003018571348196775</v>
+        <v>0.0002928157837910333</v>
       </c>
       <c r="AI6">
-        <v>0.0001091741417431563</v>
+        <v>9.978226183918987E-05</v>
       </c>
       <c r="AJ6">
-        <v>1.160933218536331E-05</v>
+        <v>2.039962392853757E-06</v>
       </c>
       <c r="AK6">
-        <v>4.429351670722352E-05</v>
+        <v>3.478360597883968E-05</v>
       </c>
       <c r="AL6">
-        <v>2.994393047810726E-05</v>
+        <v>2.040791498436806E-05</v>
       </c>
       <c r="AM6">
-        <v>2.943825947003334E-05</v>
+        <v>1.990132405966365E-05</v>
       </c>
       <c r="AN6">
-        <v>4.856063277535549E-05</v>
+        <v>3.905848478395404E-05</v>
       </c>
       <c r="AO6">
-        <v>2.381916438031465E-05</v>
+        <v>1.427200671290671E-05</v>
       </c>
       <c r="AP6">
-        <v>9.331215148989182E-05</v>
+        <v>8.389141545537094E-05</v>
       </c>
       <c r="AQ6">
-        <v>0.0001930415630822464</v>
+        <v>0.0001838022547800015</v>
       </c>
       <c r="AR6">
-        <v>0.000246967223943264</v>
+        <v>0.0002378260171960697</v>
       </c>
       <c r="AS6">
-        <v>0.0001429623222826437</v>
+        <v>0.0001336319098322112</v>
       </c>
       <c r="AT6">
-        <v>7.583963121091244E-05</v>
+        <v>6.638710916982894E-05</v>
       </c>
       <c r="AU6">
-        <v>0.0002074854133128678</v>
+        <v>0.0001982723812610372</v>
       </c>
       <c r="AV6">
-        <v>0.0003311548052874661</v>
+        <v>0.0003221667525770318</v>
       </c>
       <c r="AW6">
-        <v>0.0001696223627083179</v>
+        <v>0.0001603404501998742</v>
       </c>
       <c r="AX6">
-        <v>4.321925469007105E-05</v>
+        <v>3.370738966436879E-05</v>
       </c>
       <c r="AY6">
-        <v>2.405526538408442E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>3.261103552069226E-05</v>
+        <v>2.307987202409104E-05</v>
       </c>
       <c r="BA6">
-        <v>0.00019097123304919</v>
+        <v>0.0001817281584028249</v>
       </c>
       <c r="BB6">
-        <v>4.657023674357534E-05</v>
+        <v>3.706446782397817E-05</v>
       </c>
       <c r="BC6">
-        <v>4.865123077680205E-05</v>
+        <v>3.914924760127275E-05</v>
       </c>
       <c r="BD6">
-        <v>0.0001792926928627217</v>
+        <v>0.0001700283726176059</v>
       </c>
       <c r="BE6">
-        <v>0.0005055606680721609</v>
+        <v>0.0004968898944840581</v>
       </c>
       <c r="BF6">
-        <v>0.0002661238842491336</v>
+        <v>0.0002570175272958144</v>
       </c>
       <c r="BG6">
-        <v>8.025828128146393E-05</v>
+        <v>7.081379764799982E-05</v>
       </c>
       <c r="BH6">
-        <v>0.0001555906024842763</v>
+        <v>0.0001462831633995034</v>
       </c>
       <c r="BI6">
-        <v>0.0003061288248878825</v>
+        <v>0.000297095244917241</v>
       </c>
       <c r="BJ6">
-        <v>0.0001319642521070403</v>
+        <v>0.0001226138319688102</v>
       </c>
       <c r="BK6">
-        <v>7.477098419384963E-06</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>5.694994090930548E-06</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>4.704642675117855E-05</v>
+        <v>3.754152411637974E-05</v>
       </c>
       <c r="BN6">
-        <v>9.207915147020482E-07</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>6.348335101362281E-08</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>3.72712535951008E-05</v>
+        <v>2.774856796659938E-05</v>
       </c>
       <c r="BQ6">
-        <v>1.258846620099689E-06</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>9.946133158807423E-05</v>
+        <v>9.005178214116834E-05</v>
       </c>
       <c r="BS6">
-        <v>0.0002455109539200121</v>
+        <v>0.0002363670979265856</v>
       </c>
       <c r="BT6">
-        <v>0.0001457498023271507</v>
+        <v>0.0001364244608600436</v>
       </c>
       <c r="BU6">
-        <v>0.0003030676548390056</v>
+        <v>0.0002940285059882192</v>
       </c>
       <c r="BV6">
-        <v>0.0001262806320162913</v>
+        <v>0.0001169198722371497</v>
       </c>
       <c r="BW6">
-        <v>3.818899060975408E-05</v>
+        <v>2.866797452830739E-05</v>
       </c>
       <c r="BX6">
-        <v>8.223234131298326E-05</v>
+        <v>7.279144888926536E-05</v>
       </c>
       <c r="BY6">
-        <v>0.0001218873419461447</v>
+        <v>0.0001125185898942931</v>
       </c>
       <c r="BZ6">
-        <v>3.785383860440279E-06</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>5.134799781986066E-05</v>
+        <v>4.185092060257665E-05</v>
       </c>
       <c r="CB6">
-        <v>0.0002347262837478159</v>
+        <v>0.0002255628082838497</v>
       </c>
       <c r="CC6">
-        <v>2.943825947003334E-05</v>
+        <v>1.990132405966365E-05</v>
       </c>
       <c r="CD6">
-        <v>0.0001021540916310689</v>
+        <v>9.274944085287428E-05</v>
       </c>
       <c r="CE6">
-        <v>1.034611516519384E-05</v>
+        <v>7.74447328449568E-07</v>
       </c>
       <c r="CF6">
-        <v>5.154786382305187E-06</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.0001035658876536107</v>
+        <v>9.41638052145521E-05</v>
       </c>
       <c r="CH6">
-        <v>0.0001212631719361788</v>
+        <v>0.0001118932843943282</v>
       </c>
       <c r="CI6">
-        <v>9.116367145558757E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>4.975176079437394E-06</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0001919342930645669</v>
+        <v>0.0001826929704168534</v>
       </c>
       <c r="CL6">
-        <v>0.0002497313339873978</v>
+        <v>0.0002405951557088274</v>
       </c>
       <c r="CM6">
-        <v>0.0001758917528084197</v>
+        <v>0.0001666212455736105</v>
       </c>
       <c r="CN6">
-        <v>0.001325328821161194</v>
+        <v>0.001318149369687925</v>
       </c>
       <c r="CO6">
-        <v>0.01091140317421965</v>
+        <v>0.01092166270793174</v>
       </c>
       <c r="CP6">
-        <v>0.02583813141255099</v>
+        <v>0.02587554564828468</v>
       </c>
       <c r="CQ6">
-        <v>0.03244374751802122</v>
+        <v>0.03249317868969352</v>
       </c>
       <c r="CR6">
-        <v>0.06331557101094391</v>
+        <v>0.06342116419979965</v>
       </c>
       <c r="CS6">
-        <v>0.02094645233444677</v>
+        <v>0.02097496762825359</v>
       </c>
       <c r="CT6">
-        <v>0.01113550417779781</v>
+        <v>0.01114617139602575</v>
       </c>
       <c r="CU6">
-        <v>0.002531997640427774</v>
+        <v>0.002527013360709678</v>
       </c>
       <c r="CV6">
-        <v>0.001188030018968979</v>
+        <v>0.001180600793533061</v>
       </c>
       <c r="CW6">
-        <v>0.006583036105109693</v>
+        <v>0.006585421474026586</v>
       </c>
       <c r="CX6">
-        <v>0.0001478750323610837</v>
+        <v>0.000138553557112171</v>
       </c>
       <c r="CY6">
-        <v>0.1045664716695867</v>
+        <v>0.1047471084914224</v>
       </c>
       <c r="CZ6">
-        <v>0.001439550722984947</v>
+        <v>0.00143257906398025</v>
       </c>
       <c r="DA6">
-        <v>0.002713765043330009</v>
+        <v>0.002709111434847044</v>
       </c>
       <c r="DB6">
-        <v>0.06212701699196656</v>
+        <v>0.0622304479635094</v>
       </c>
       <c r="DC6">
-        <v>0.009094104145203291</v>
+        <v>0.009101057648764023</v>
       </c>
       <c r="DD6">
-        <v>0.06522117704137025</v>
+        <v>0.06533023690846254</v>
       </c>
       <c r="DE6">
-        <v>0.02064867532969224</v>
+        <v>0.02067664890761169</v>
       </c>
       <c r="DF6">
-        <v>0.01858732829677923</v>
+        <v>0.01861155187245116</v>
       </c>
       <c r="DG6">
-        <v>0.0004152841066307376</v>
+        <v>0.0004064491019340935</v>
       </c>
       <c r="DH6">
-        <v>0.0003020829548232831</v>
+        <v>0.0002930420146063594</v>
       </c>
       <c r="DI6">
-        <v>0.002205369335212582</v>
+        <v>0.002199790853325174</v>
       </c>
       <c r="DJ6">
-        <v>0.01074857717161985</v>
+        <v>0.01075854049228971</v>
       </c>
       <c r="DK6">
-        <v>0.0003370919453822629</v>
+        <v>0.0003281146935162977</v>
       </c>
       <c r="DL6">
-        <v>1.030436816452727E-05</v>
+        <v>7.326243816449556E-07</v>
       </c>
       <c r="DM6">
-        <v>0.04192688366943608</v>
+        <v>0.04199356656113103</v>
       </c>
       <c r="DN6">
-        <v>0.01440206472995417</v>
+        <v>0.01441867447470319</v>
       </c>
       <c r="DO6">
-        <v>0.01812838828945145</v>
+        <v>0.01815177696152322</v>
       </c>
       <c r="DP6">
-        <v>0.002241953735796715</v>
+        <v>0.002236441808245974</v>
       </c>
       <c r="DQ6">
-        <v>0.0007138939813985669</v>
+        <v>0.0007056022077462988</v>
       </c>
       <c r="DR6">
-        <v>0.001072959917131683</v>
+        <v>0.001065321356181841</v>
       </c>
       <c r="DS6">
-        <v>0.0009066838644767949</v>
+        <v>0.0008987428141541259</v>
       </c>
       <c r="DT6">
-        <v>0.0003611740257667755</v>
+        <v>0.0003522405840182359</v>
       </c>
       <c r="DU6">
-        <v>1.418921222655561E-05</v>
+        <v>4.624535751473124E-06</v>
       </c>
       <c r="DV6">
-        <v>0.002648892342294202</v>
+        <v>0.00264412071740216</v>
       </c>
       <c r="DW6">
-        <v>0.004918541378533122</v>
+        <v>0.004917898698865285</v>
       </c>
       <c r="DX6">
-        <v>0.01137919918168883</v>
+        <v>0.01139030972983536</v>
       </c>
       <c r="DY6">
-        <v>2.950879247115952E-05</v>
+        <v>1.997198537441608E-05</v>
       </c>
       <c r="DZ6">
-        <v>0.002265700436175873</v>
+        <v>0.002260231708619296</v>
       </c>
       <c r="EA6">
-        <v>2.381916438031465E-05</v>
+        <v>1.427200671290671E-05</v>
       </c>
       <c r="EB6">
-        <v>6.1545084982675E-05</v>
+        <v>5.206655830499841E-05</v>
       </c>
       <c r="EC6">
-        <v>0.003488142055694293</v>
+        <v>0.003484897193769005</v>
       </c>
       <c r="ED6">
-        <v>0.007347582517317015</v>
+        <v>0.007351358748965088</v>
       </c>
       <c r="EE6">
-        <v>1.708138627273423E-05</v>
+        <v>7.521971240291056E-06</v>
       </c>
       <c r="EF6">
-        <v>0.001070681117095298</v>
+        <v>0.001063038410552734</v>
       </c>
       <c r="EG6">
-        <v>0.002356034737618219</v>
+        <v>0.002350730346210785</v>
       </c>
       <c r="EH6">
-        <v>0.007152018714194497</v>
+        <v>0.007155439176197997</v>
       </c>
       <c r="EI6">
-        <v>0.003437627354887738</v>
+        <v>0.003434290596625476</v>
       </c>
       <c r="EJ6">
-        <v>0.0008211691131114021</v>
+        <v>0.0008130724943644475</v>
       </c>
       <c r="EK6">
-        <v>0.0005084024081175343</v>
+        <v>0.0004997368042225432</v>
       </c>
       <c r="EL6">
-        <v>0.001112068017756112</v>
+        <v>0.001104500602257714</v>
       </c>
       <c r="EM6">
-        <v>0.001577381325185654</v>
+        <v>0.001570660407594109</v>
       </c>
       <c r="EN6">
-        <v>0.0004431588770758071</v>
+        <v>0.0004343745821578413</v>
       </c>
       <c r="EO6">
-        <v>4.215817567312906E-05</v>
+        <v>3.264438033262061E-05</v>
       </c>
       <c r="EP6">
-        <v>0.004996953079785102</v>
+        <v>0.004996453046673732</v>
       </c>
       <c r="EQ6">
-        <v>0.004295306068582079</v>
+        <v>0.00429352959932145</v>
       </c>
       <c r="ER6">
-        <v>0.0008618434837608397</v>
+        <v>0.000853820859823549</v>
       </c>
       <c r="ES6">
-        <v>0.0002273211336295798</v>
+        <v>0.0002181441867175054</v>
       </c>
       <c r="ET6">
-        <v>4.443710070951609E-06</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.002374585037914406</v>
+        <v>0.002369314393210799</v>
       </c>
       <c r="EV6">
-        <v>0.005148975082212399</v>
+        <v>0.005148751607507582</v>
       </c>
       <c r="EW6">
-        <v>0.007702661122986467</v>
+        <v>0.007707083313586646</v>
       </c>
       <c r="EX6">
-        <v>0.009910347158236039</v>
+        <v>0.009918785570977282</v>
       </c>
       <c r="EY6">
-        <v>0.001001978015998333</v>
+        <v>0.0009942103247834099</v>
       </c>
       <c r="EZ6">
-        <v>2.502988539964593E-05</v>
+        <v>1.548493027575498E-05</v>
       </c>
       <c r="FA6">
-        <v>0.01790591528589928</v>
+        <v>0.01792889923511264</v>
       </c>
       <c r="FB6">
-        <v>0.05020445080160193</v>
+        <v>0.05028619224232041</v>
       </c>
       <c r="FC6">
-        <v>0.03953448063123718</v>
+        <v>0.03959681126364392</v>
       </c>
       <c r="FD6">
-        <v>0.0130329712080942</v>
+        <v>0.01304709029809073</v>
       </c>
       <c r="FE6">
-        <v>0.007816207124799428</v>
+        <v>0.007820835878270972</v>
       </c>
       <c r="FF6">
-        <v>0.008049705128527632</v>
+        <v>0.008054758661536435</v>
       </c>
       <c r="FG6">
-        <v>0.002261285236105377</v>
+        <v>0.00225580847641742</v>
       </c>
       <c r="FH6">
-        <v>3.347447553447859E-06</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.002792893044593426</v>
+        <v>0.002788383385759813</v>
       </c>
       <c r="FJ6">
-        <v>0.008508684135856035</v>
+        <v>0.008514572643413792</v>
       </c>
       <c r="FK6">
-        <v>0.02011685632120082</v>
+        <v>0.02014386241405091</v>
       </c>
       <c r="FL6">
-        <v>0.03082400049215912</v>
+        <v>0.03087048502025787</v>
       </c>
       <c r="FM6">
-        <v>0.0117710741879458</v>
+        <v>0.01178289763505148</v>
       </c>
       <c r="FN6">
-        <v>0.004884431077988491</v>
+        <v>0.004883726344866451</v>
       </c>
       <c r="FO6">
-        <v>0.008560124136677364</v>
+        <v>0.008566106223877759</v>
       </c>
       <c r="FP6">
-        <v>0.01618134025836342</v>
+        <v>0.01620118686091656</v>
       </c>
       <c r="FQ6">
-        <v>0.003610379357646026</v>
+        <v>0.003607356869804156</v>
       </c>
       <c r="FR6">
-        <v>0.000370046245908436</v>
+        <v>0.0003611289445015956</v>
       </c>
       <c r="FS6">
-        <v>0.006246729099739964</v>
+        <v>0.006248502658997514</v>
       </c>
       <c r="FT6">
-        <v>0.0100856341610348</v>
+        <v>0.01009439145586817</v>
       </c>
       <c r="FU6">
-        <v>0.004770882476175489</v>
+        <v>0.004769971175452165</v>
       </c>
       <c r="FV6">
-        <v>0.01852589329579831</v>
+        <v>0.01855000510892465</v>
       </c>
       <c r="FW6">
-        <v>0.02395523238248721</v>
+        <v>0.02398922124855638</v>
       </c>
       <c r="FX6">
-        <v>0.01109529217715576</v>
+        <v>0.01110588624171748</v>
       </c>
       <c r="FY6">
-        <v>0.001540338424594199</v>
+        <v>0.001533550118562836</v>
       </c>
       <c r="FZ6">
-        <v>5.785981692383325E-05</v>
+        <v>4.837458600699522E-05</v>
       </c>
       <c r="GA6">
-        <v>6.121255497736558E-06</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.001900155130339302</v>
+        <v>0.001894021402811071</v>
       </c>
       <c r="GC6">
-        <v>0.005097495481390437</v>
+        <v>0.005097178355002666</v>
       </c>
       <c r="GD6">
-        <v>0.002146324834269833</v>
+        <v>0.00214063893863418</v>
       </c>
       <c r="GE6">
-        <v>0.002098229033501899</v>
+        <v>0.0020924556419919</v>
       </c>
       <c r="GF6">
-        <v>3.032601148420785E-05</v>
+        <v>2.079069107218403E-05</v>
       </c>
       <c r="GG6">
-        <v>0.0006155284098279883</v>
+        <v>0.0006070576895410302</v>
       </c>
       <c r="GH6">
-        <v>0.001424625022746632</v>
+        <v>0.001417626210910051</v>
       </c>
       <c r="GI6">
-        <v>4.111029265639778E-05</v>
+        <v>3.159459100724497E-05</v>
       </c>
       <c r="GJ6">
-        <v>0.0030665789489633</v>
+        <v>0.003062567179490438</v>
       </c>
       <c r="GK6">
-        <v>0.0002800943344721962</v>
+        <v>0.0002710133925600607</v>
       </c>
       <c r="GL6">
-        <v>0.0006118270797688902</v>
+        <v>0.0006033496260227819</v>
       </c>
       <c r="GM6">
-        <v>0.002091390833392715</v>
+        <v>0.002085605001829989</v>
       </c>
       <c r="GN6">
-        <v>0.002037629332534319</v>
+        <v>0.002031745698056397</v>
       </c>
       <c r="GO6">
-        <v>0.0003982341763585056</v>
+        <v>0.0003893681544309828</v>
       </c>
       <c r="GP6">
-        <v>8.52041513604334E-05</v>
+        <v>7.576866525315772E-05</v>
       </c>
       <c r="GQ6">
-        <v>0.0002659119542457498</v>
+        <v>0.0002568052117493966</v>
       </c>
       <c r="GR6">
-        <v>3.12995944997528E-05</v>
+        <v>2.176604522982109E-05</v>
       </c>
       <c r="GS6">
-        <v>2.04971203272724E-05</v>
+        <v>1.094391919776596E-05</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001310043106848468</v>
+        <v>0.0001160277901851753</v>
       </c>
       <c r="C2">
-        <v>0.0003659534698475427</v>
+        <v>0.0003363064763760235</v>
       </c>
       <c r="D2">
-        <v>0.000551695224996832</v>
+        <v>0.0005072328759107034</v>
       </c>
       <c r="E2">
-        <v>0.000858332100006452</v>
+        <v>0.0007994103499595617</v>
       </c>
       <c r="F2">
-        <v>0.001179325086186971</v>
+        <v>0.001105986204251788</v>
       </c>
       <c r="G2">
-        <v>0.001360463750960828</v>
+        <v>0.001272295960412013</v>
       </c>
       <c r="H2">
-        <v>0.001474687360277023</v>
+        <v>0.001371493641371926</v>
       </c>
       <c r="I2">
-        <v>0.001645082514174628</v>
+        <v>0.00152702825425668</v>
       </c>
       <c r="J2">
-        <v>0.001689805951822318</v>
+        <v>0.001556521132380368</v>
       </c>
       <c r="K2">
-        <v>0.001719319756229494</v>
+        <v>0.001570759595143788</v>
       </c>
       <c r="L2">
-        <v>0.001747847726556265</v>
+        <v>0.001584009321209814</v>
       </c>
       <c r="M2">
-        <v>0.001754055272562558</v>
+        <v>0.001584009321209814</v>
       </c>
       <c r="N2">
-        <v>0.00176024979706779</v>
+        <v>0.001584009321209814</v>
       </c>
       <c r="O2">
-        <v>0.001775566938317072</v>
+        <v>0.001584009321209814</v>
       </c>
       <c r="P2">
-        <v>0.001915949739766838</v>
+        <v>0.00170944321549482</v>
       </c>
       <c r="Q2">
-        <v>0.002125497586857777</v>
+        <v>0.001904245799868417</v>
       </c>
       <c r="R2">
-        <v>0.002293444470555699</v>
+        <v>0.002057324934047698</v>
       </c>
       <c r="S2">
-        <v>0.002574015993439402</v>
+        <v>0.002323360311074699</v>
       </c>
       <c r="T2">
-        <v>0.002833961324640811</v>
+        <v>0.00256870876618539</v>
       </c>
       <c r="U2">
-        <v>0.003114532847524514</v>
+        <v>0.002834744143212391</v>
       </c>
       <c r="V2">
-        <v>0.003374478178725923</v>
+        <v>0.003080092598323082</v>
       </c>
       <c r="W2">
-        <v>0.003642922070620484</v>
+        <v>0.003333964636660781</v>
       </c>
       <c r="X2">
-        <v>0.003920436543254851</v>
+        <v>0.003596933962485682</v>
       </c>
       <c r="Y2">
-        <v>0.004112212458896293</v>
+        <v>0.003773912289048597</v>
       </c>
       <c r="Z2">
-        <v>0.004219774382669154</v>
+        <v>0.003866428670290722</v>
       </c>
       <c r="AA2">
-        <v>0.004286180448085301</v>
+        <v>0.003917668016909199</v>
       </c>
       <c r="AB2">
-        <v>0.004302856611445426</v>
+        <v>0.003919031040424281</v>
       </c>
       <c r="AC2">
-        <v>0.004305424966454904</v>
+        <v>0.003919031040424281</v>
       </c>
       <c r="AD2">
-        <v>0.004329020268379362</v>
+        <v>0.003927333574703792</v>
       </c>
       <c r="AE2">
-        <v>0.004373047091970235</v>
+        <v>0.003956127787711731</v>
       </c>
       <c r="AF2">
-        <v>0.00445243114344488</v>
+        <v>0.00402038333181147</v>
       </c>
       <c r="AG2">
-        <v>0.004610433286331698</v>
+        <v>0.004163488444619961</v>
       </c>
       <c r="AH2">
-        <v>0.004776420829869813</v>
+        <v>0.004314602469703112</v>
       </c>
       <c r="AI2">
-        <v>0.005087652825254216</v>
+        <v>0.004611388593659494</v>
       </c>
       <c r="AJ2">
-        <v>0.005444736804378354</v>
+        <v>0.004954161704546966</v>
       </c>
       <c r="AK2">
-        <v>0.005687768954200307</v>
+        <v>0.00518254718035724</v>
       </c>
       <c r="AL2">
-        <v>0.005946535375305564</v>
+        <v>0.005426713254276042</v>
       </c>
       <c r="AM2">
-        <v>0.006228949098339518</v>
+        <v>0.005694596255491234</v>
       </c>
       <c r="AN2">
-        <v>0.006494914320031916</v>
+        <v>0.005945982325613461</v>
       </c>
       <c r="AO2">
-        <v>0.00668712490570881</v>
+        <v>0.006123396602022147</v>
       </c>
       <c r="AP2">
-        <v>0.006927717795331814</v>
+        <v>0.006349335635656063</v>
       </c>
       <c r="AQ2">
-        <v>0.007113459550481103</v>
+        <v>0.006520262035190742</v>
       </c>
       <c r="AR2">
-        <v>0.007203423517818657</v>
+        <v>0.006595128645875545</v>
       </c>
       <c r="AS2">
-        <v>0.007222099345341878</v>
+        <v>0.00659849722121706</v>
       </c>
       <c r="AT2">
-        <v>0.007222666261788115</v>
+        <v>0.00659849722121706</v>
       </c>
       <c r="AU2">
-        <v>0.007234342023740402</v>
+        <v>0.00659849722121706</v>
       </c>
       <c r="AV2">
-        <v>0.007252546340225165</v>
+        <v>0.006601392897237873</v>
       </c>
       <c r="AW2">
-        <v>0.007324163906066368</v>
+        <v>0.006657859088638001</v>
       </c>
       <c r="AX2">
-        <v>0.007591324287856244</v>
+        <v>0.006910443837798746</v>
       </c>
       <c r="AY2">
-        <v>0.007913630174143845</v>
+        <v>0.007218336457804073</v>
       </c>
       <c r="AZ2">
-        <v>0.008221550269258126</v>
+        <v>0.007511800930176007</v>
       </c>
       <c r="BA2">
-        <v>0.008571653517812907</v>
+        <v>0.00784757275694708</v>
       </c>
       <c r="BB2">
-        <v>0.008910114995418175</v>
+        <v>0.008171668535598862</v>
       </c>
       <c r="BC2">
-        <v>0.00924665530286675</v>
+        <v>0.008493837487542562</v>
       </c>
       <c r="BD2">
-        <v>0.00956708649900145</v>
+        <v>0.008799849897695887</v>
       </c>
       <c r="BE2">
-        <v>0.009837246491035978</v>
+        <v>0.009055443088931943</v>
       </c>
       <c r="BF2">
-        <v>0.01008428921118504</v>
+        <v>0.009287850943496117</v>
       </c>
       <c r="BG2">
-        <v>0.01025088361477265</v>
+        <v>0.009439573615422633</v>
       </c>
       <c r="BH2">
-        <v>0.01027746318294051</v>
+        <v>0.009450869202598461</v>
       </c>
       <c r="BI2">
-        <v>0.0102789858961647</v>
+        <v>0.009450869202598461</v>
       </c>
       <c r="BJ2">
-        <v>0.01029103987064784</v>
+        <v>0.009450869202598461</v>
       </c>
       <c r="BK2">
-        <v>0.01033386077414035</v>
+        <v>0.009478453944886053</v>
       </c>
       <c r="BL2">
-        <v>0.01046307584467927</v>
+        <v>0.009592687226818879</v>
       </c>
       <c r="BM2">
-        <v>0.01061425225700937</v>
+        <v>0.009728946511894191</v>
       </c>
       <c r="BN2">
-        <v>0.01080501577256824</v>
+        <v>0.009904909457538571</v>
       </c>
       <c r="BO2">
-        <v>0.01099831528833395</v>
+        <v>0.01008341587020133</v>
       </c>
       <c r="BP2">
-        <v>0.01123046766726854</v>
+        <v>0.01030088954153111</v>
       </c>
       <c r="BQ2">
-        <v>0.01153710454227816</v>
+        <v>0.01059306701557997</v>
       </c>
       <c r="BR2">
-        <v>0.01188583941072133</v>
+        <v>0.01092746643328219</v>
       </c>
       <c r="BS2">
-        <v>0.01225487851082054</v>
+        <v>0.01128222986491916</v>
       </c>
       <c r="BT2">
-        <v>0.01241851664416704</v>
+        <v>0.011430987562381</v>
       </c>
       <c r="BU2">
-        <v>0.01251736893222953</v>
+        <v>0.01151476866390523</v>
       </c>
       <c r="BV2">
-        <v>0.01257339327179893</v>
+        <v>0.01155559571749084</v>
       </c>
       <c r="BW2">
-        <v>0.01258482024423093</v>
+        <v>0.01155559571749084</v>
       </c>
       <c r="BX2">
-        <v>0.01258738859924041</v>
+        <v>0.01155559571749084</v>
       </c>
       <c r="BY2">
-        <v>0.01259025861447449</v>
+        <v>0.01155559571749084</v>
       </c>
       <c r="BZ2">
-        <v>0.01259030457254624</v>
+        <v>0.01155559571749084</v>
       </c>
       <c r="CA2">
-        <v>0.01260084788940616</v>
+        <v>0.01155559571749084</v>
       </c>
       <c r="CB2">
-        <v>0.01263962876456917</v>
+        <v>0.01157912853628816</v>
       </c>
       <c r="CC2">
-        <v>0.01271415141064731</v>
+        <v>0.01163850836142873</v>
       </c>
       <c r="CD2">
-        <v>0.0128773884939611</v>
+        <v>0.01178686382803579</v>
       </c>
       <c r="CE2">
-        <v>0.01300241803415864</v>
+        <v>0.01189689925606111</v>
       </c>
       <c r="CF2">
-        <v>0.01311574927340205</v>
+        <v>0.01199520193951977</v>
       </c>
       <c r="CG2">
-        <v>0.01333563982133655</v>
+        <v>0.01220037767702072</v>
       </c>
       <c r="CH2">
-        <v>0.01351043121559272</v>
+        <v>0.01236032147422915</v>
       </c>
       <c r="CI2">
-        <v>0.01366477423818109</v>
+        <v>0.01249975669309589</v>
       </c>
       <c r="CJ2">
-        <v>0.01381460361040133</v>
+        <v>0.01263466497193602</v>
       </c>
       <c r="CK2">
-        <v>0.01393846657050372</v>
+        <v>0.012743530385074</v>
       </c>
       <c r="CL2">
-        <v>0.01396371537856304</v>
+        <v>0.0127534912939496</v>
       </c>
       <c r="CM2">
-        <v>0.01399221542688753</v>
+        <v>0.01276671301580187</v>
       </c>
       <c r="CN2">
-        <v>0.01421102179473361</v>
+        <v>0.01297080138103469</v>
       </c>
       <c r="CO2">
-        <v>0.07549693979327633</v>
+        <v>0.07442180286611524</v>
       </c>
       <c r="CP2">
-        <v>0.07572623303197773</v>
+        <v>0.0746364089789707</v>
       </c>
       <c r="CQ2">
-        <v>0.1184510965166617</v>
+        <v>0.1174717061533921</v>
       </c>
       <c r="CR2">
-        <v>0.1605138629473443</v>
+        <v>0.1596429568441913</v>
       </c>
       <c r="CS2">
-        <v>0.165529060056389</v>
+        <v>0.164657558088952</v>
       </c>
       <c r="CT2">
-        <v>0.16581094682938</v>
+        <v>0.1649249125886114</v>
       </c>
       <c r="CU2">
-        <v>0.1667096860526821</v>
+        <v>0.1658109357533364</v>
       </c>
       <c r="CV2">
-        <v>0.1795522651001361</v>
+        <v>0.1786759653012533</v>
       </c>
       <c r="CW2">
-        <v>0.2612325917620679</v>
+        <v>0.2605814232389521</v>
       </c>
       <c r="CX2">
-        <v>0.2663161531766884</v>
+        <v>0.2656645900760962</v>
       </c>
       <c r="CY2">
-        <v>0.3530623602517985</v>
+        <v>0.352650844030771</v>
       </c>
       <c r="CZ2">
-        <v>0.3544275808631474</v>
+        <v>0.3540047220568574</v>
       </c>
       <c r="DA2">
-        <v>0.3556819355654538</v>
+        <v>0.3552474077485145</v>
       </c>
       <c r="DB2">
-        <v>0.4324458918264013</v>
+        <v>0.4322220198876589</v>
       </c>
       <c r="DC2">
-        <v>0.433035520404492</v>
+        <v>0.4327980222846395</v>
       </c>
       <c r="DD2">
-        <v>0.5767359721248492</v>
+        <v>0.5769062127522007</v>
       </c>
       <c r="DE2">
-        <v>0.5779849623267181</v>
+        <v>0.5781435181485818</v>
       </c>
       <c r="DF2">
-        <v>0.6018556542736364</v>
+        <v>0.6020691309563403</v>
       </c>
       <c r="DG2">
-        <v>0.6055022103710533</v>
+        <v>0.6057110614640542</v>
       </c>
       <c r="DH2">
-        <v>0.6055839408527194</v>
+        <v>0.6057776703470009</v>
       </c>
       <c r="DI2">
-        <v>0.6080703474555132</v>
+        <v>0.6082560355016829</v>
       </c>
       <c r="DJ2">
-        <v>0.610004724013283</v>
+        <v>0.6101807452548845</v>
       </c>
       <c r="DK2">
-        <v>0.6104101775963522</v>
+        <v>0.6105720303856033</v>
       </c>
       <c r="DL2">
-        <v>0.6108338347809061</v>
+        <v>0.6109815727151452</v>
       </c>
       <c r="DM2">
-        <v>0.6382275730151677</v>
+        <v>0.6384406048072973</v>
       </c>
       <c r="DN2">
-        <v>0.6384693840048901</v>
+        <v>0.6386677655275144</v>
       </c>
       <c r="DO2">
-        <v>0.6527734456715441</v>
+        <v>0.6529985807760165</v>
       </c>
       <c r="DP2">
-        <v>0.6531403784414714</v>
+        <v>0.6533512316757588</v>
       </c>
       <c r="DQ2">
-        <v>0.6570763141624905</v>
+        <v>0.6572833938350464</v>
       </c>
       <c r="DR2">
-        <v>0.6608242882681791</v>
+        <v>0.6610270409587183</v>
       </c>
       <c r="DS2">
-        <v>0.6615553316278038</v>
+        <v>0.6617448745084616</v>
       </c>
       <c r="DT2">
-        <v>0.6615964253081554</v>
+        <v>0.6617707269421003</v>
       </c>
       <c r="DU2">
-        <v>0.6638311654904232</v>
+        <v>0.6639966846882517</v>
       </c>
       <c r="DV2">
-        <v>0.6660363426702798</v>
+        <v>0.6661929923888731</v>
       </c>
       <c r="DW2">
-        <v>0.6700398129968069</v>
+        <v>0.6701928879975688</v>
       </c>
       <c r="DX2">
-        <v>0.6805169348513318</v>
+        <v>0.6806854956752622</v>
       </c>
       <c r="DY2">
-        <v>0.6824790060113604</v>
+        <v>0.6826379815726622</v>
       </c>
       <c r="DZ2">
-        <v>0.6843393649630931</v>
+        <v>0.6844884557878593</v>
       </c>
       <c r="EA2">
-        <v>0.6846408958876863</v>
+        <v>0.6847755122779088</v>
       </c>
       <c r="EB2">
-        <v>0.6847619237975574</v>
+        <v>0.6848815342935032</v>
       </c>
       <c r="EC2">
-        <v>0.6899545505210734</v>
+        <v>0.6900740875633757</v>
       </c>
       <c r="ED2">
-        <v>0.697669995150353</v>
+        <v>0.6977968867375565</v>
       </c>
       <c r="EE2">
-        <v>0.6980614632422816</v>
+        <v>0.6981741451992882</v>
       </c>
       <c r="EF2">
-        <v>0.6988821865092206</v>
+        <v>0.6989819227032354</v>
       </c>
       <c r="EG2">
-        <v>0.7035428491893491</v>
+        <v>0.7036409456541161</v>
       </c>
       <c r="EH2">
-        <v>0.7120853818860868</v>
+        <v>0.712193268112719</v>
       </c>
       <c r="EI2">
-        <v>0.7146440047947707</v>
+        <v>0.7147440622016435</v>
       </c>
       <c r="EJ2">
-        <v>0.7147141257704899</v>
+        <v>0.7147990273964723</v>
       </c>
       <c r="EK2">
-        <v>0.7158883219662585</v>
+        <v>0.7159613185688106</v>
       </c>
       <c r="EL2">
-        <v>0.7168330941933151</v>
+        <v>0.7168935102734634</v>
       </c>
       <c r="EM2">
-        <v>0.7172454202269448</v>
+        <v>0.717291688089478</v>
       </c>
       <c r="EN2">
-        <v>0.7176245722578688</v>
+        <v>0.7176565942277057</v>
       </c>
       <c r="EO2">
-        <v>0.7180391309216806</v>
+        <v>0.7180570112474937</v>
       </c>
       <c r="EP2">
-        <v>0.7205697951280842</v>
+        <v>0.7205797643146017</v>
       </c>
       <c r="EQ2">
-        <v>0.724482801747233</v>
+        <v>0.7244889298612666</v>
       </c>
       <c r="ER2">
-        <v>0.7251116595585233</v>
+        <v>0.7251042769951009</v>
       </c>
       <c r="ES2">
-        <v>0.7252973300636668</v>
+        <v>0.7252751319348466</v>
       </c>
       <c r="ET2">
-        <v>0.7256163588296871</v>
+        <v>0.725579737785674</v>
       </c>
       <c r="EU2">
-        <v>0.7300841575940854</v>
+        <v>0.7300453289665683</v>
       </c>
       <c r="EV2">
-        <v>0.7359306680709329</v>
+        <v>0.7358936912367577</v>
       </c>
       <c r="EW2">
-        <v>0.7436364706994261</v>
+        <v>0.7436068200209577</v>
       </c>
       <c r="EX2">
-        <v>0.7507439032791156</v>
+        <v>0.7507198169598163</v>
       </c>
       <c r="EY2">
-        <v>0.7512537738507011</v>
+        <v>0.7512158265167134</v>
       </c>
       <c r="EZ2">
-        <v>0.7513131742025458</v>
+        <v>0.7512600395226553</v>
       </c>
       <c r="FA2">
-        <v>0.7650513698230472</v>
+        <v>0.7650233226308496</v>
       </c>
       <c r="FB2">
-        <v>0.7917998930046843</v>
+        <v>0.7918352399468732</v>
       </c>
       <c r="FC2">
-        <v>0.8056640111354562</v>
+        <v>0.8057248163222684</v>
       </c>
       <c r="FD2">
-        <v>0.8123080263773489</v>
+        <v>0.8123730314715786</v>
       </c>
       <c r="FE2">
-        <v>0.8183423293695129</v>
+        <v>0.8184097391794843</v>
       </c>
       <c r="FF2">
-        <v>0.8244315901661593</v>
+        <v>0.8245015665055693</v>
       </c>
       <c r="FG2">
-        <v>0.8249666770598015</v>
+        <v>0.8250228666295977</v>
       </c>
       <c r="FH2">
-        <v>0.824969809706357</v>
+        <v>0.8250228666295977</v>
       </c>
       <c r="FI2">
-        <v>0.8279831528521284</v>
+        <v>0.828029719800261</v>
       </c>
       <c r="FJ2">
-        <v>0.8442714741806208</v>
+        <v>0.8443506370180649</v>
       </c>
       <c r="FK2">
-        <v>0.8638142837745525</v>
+        <v>0.8639356247759717</v>
       </c>
       <c r="FL2">
-        <v>0.8838832194113956</v>
+        <v>0.8840482876634173</v>
       </c>
       <c r="FM2">
-        <v>0.8877749947288128</v>
+        <v>0.8879361593964752</v>
       </c>
       <c r="FN2">
-        <v>0.8887005794043045</v>
+        <v>0.8888491070551546</v>
       </c>
       <c r="FO2">
-        <v>0.8901015793185715</v>
+        <v>0.8902388697300938</v>
       </c>
       <c r="FP2">
-        <v>0.8960363775026198</v>
+        <v>0.8961757796552826</v>
       </c>
       <c r="FQ2">
-        <v>0.8961262918999533</v>
+        <v>0.8962505965500132</v>
       </c>
       <c r="FR2">
-        <v>0.8991413579458652</v>
+        <v>0.8992591776935968</v>
       </c>
       <c r="FS2">
-        <v>0.9125657425407719</v>
+        <v>0.9127077258142108</v>
       </c>
       <c r="FT2">
-        <v>0.9210841292355404</v>
+        <v>0.9212358311771411</v>
       </c>
       <c r="FU2">
-        <v>0.9280058868000861</v>
+        <v>0.9281626064130671</v>
       </c>
       <c r="FV2">
-        <v>0.9488306844985781</v>
+        <v>0.9490333568665394</v>
       </c>
       <c r="FW2">
-        <v>0.9625688801190795</v>
+        <v>0.9627966399747337</v>
       </c>
       <c r="FX2">
-        <v>0.9686438689145619</v>
+        <v>0.9688741532782295</v>
       </c>
       <c r="FY2">
-        <v>0.9691485577557248</v>
+        <v>0.9693649658479999</v>
       </c>
       <c r="FZ2">
-        <v>0.9692463213576985</v>
+        <v>0.9694476550579885</v>
       </c>
       <c r="GA2">
-        <v>0.9702048038358734</v>
+        <v>0.9703935973812093</v>
       </c>
       <c r="GB2">
-        <v>0.9732917830876506</v>
+        <v>0.9734743034665855</v>
       </c>
       <c r="GC2">
-        <v>0.9779950204712515</v>
+        <v>0.9781760264747481</v>
       </c>
       <c r="GD2">
-        <v>0.9806846103906173</v>
+        <v>0.9808581731839391</v>
       </c>
       <c r="GE2">
-        <v>0.9825481277426077</v>
+        <v>0.982711815098754</v>
       </c>
       <c r="GF2">
-        <v>0.9832203218974326</v>
+        <v>0.9833706261724493</v>
       </c>
       <c r="GG2">
-        <v>0.986243719344024</v>
+        <v>0.9863875632470727</v>
       </c>
       <c r="GH2">
-        <v>0.9885544847324924</v>
+        <v>0.9886897700424219</v>
       </c>
       <c r="GI2">
-        <v>0.9906278737016001</v>
+        <v>0.9907539015048291</v>
       </c>
       <c r="GJ2">
-        <v>0.9961453145516083</v>
+        <v>0.9962722252598962</v>
       </c>
       <c r="GK2">
-        <v>0.996965887858535</v>
+        <v>0.9970798523623001</v>
       </c>
       <c r="GL2">
-        <v>0.9970287629836632</v>
+        <v>0.9971275503723911</v>
       </c>
       <c r="GM2">
-        <v>0.9984299588979462</v>
+        <v>0.9985175096244342</v>
       </c>
       <c r="GN2">
-        <v>0.9991569082572369</v>
+        <v>0.9992312371197717</v>
       </c>
       <c r="GO2">
-        <v>0.9994544574015053</v>
+        <v>0.9995143001058368</v>
       </c>
       <c r="GP2">
-        <v>0.9995468679130424</v>
+        <v>0.999591620464145</v>
       </c>
       <c r="GQ2">
-        <v>0.9997289931378966</v>
+        <v>0.9997589196851402</v>
       </c>
       <c r="GR2">
-        <v>0.9998912962811343</v>
+        <v>0.999906338461847</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>4.128101922908962E-07</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.447035709952254E-05</v>
+        <v>1.532600745498384E-05</v>
       </c>
       <c r="D3">
-        <v>0.0002457882024980298</v>
+        <v>0.0001488946230924258</v>
       </c>
       <c r="E3">
-        <v>0.000370711016217447</v>
+        <v>0.0002255957761695188</v>
       </c>
       <c r="F3">
-        <v>0.0006452077643902372</v>
+        <v>0.0004531238702781044</v>
       </c>
       <c r="G3">
-        <v>0.001435101187908305</v>
+        <v>0.001200366206338133</v>
       </c>
       <c r="H3">
-        <v>0.002034541905755887</v>
+        <v>0.001755560381651242</v>
       </c>
       <c r="I3">
-        <v>0.002230437741588435</v>
+        <v>0.001903829110056247</v>
       </c>
       <c r="J3">
-        <v>0.002461463608466935</v>
+        <v>0.002087522159820226</v>
       </c>
       <c r="K3">
-        <v>0.002952508923087183</v>
+        <v>0.002533412884967353</v>
       </c>
       <c r="L3">
-        <v>0.003148404758919731</v>
+        <v>0.002681681613372359</v>
       </c>
       <c r="M3">
-        <v>0.003228037761290702</v>
+        <v>0.002712713554560739</v>
       </c>
       <c r="N3">
-        <v>0.003307040393642905</v>
+        <v>0.002743109845012269</v>
       </c>
       <c r="O3">
-        <v>0.003451670937949094</v>
+        <v>0.002839683823725317</v>
       </c>
       <c r="P3">
-        <v>0.003460055772698742</v>
+        <v>0.002839683823725317</v>
       </c>
       <c r="Q3">
-        <v>0.003461815924451148</v>
+        <v>0.002839683823725317</v>
       </c>
       <c r="R3">
-        <v>0.003510674785905858</v>
+        <v>0.002839683823725317</v>
       </c>
       <c r="S3">
-        <v>0.003605973728743263</v>
+        <v>0.00288651294165822</v>
       </c>
       <c r="T3">
-        <v>0.003795019094371847</v>
+        <v>0.003027873812291968</v>
       </c>
       <c r="U3">
-        <v>0.003834781039555708</v>
+        <v>0.003027873812291968</v>
       </c>
       <c r="V3">
-        <v>0.003985162284033118</v>
+        <v>0.003130246665780787</v>
       </c>
       <c r="W3">
-        <v>0.004134388438476136</v>
+        <v>0.003231454752847301</v>
       </c>
       <c r="X3">
-        <v>0.004305087183558473</v>
+        <v>0.003354315310138563</v>
       </c>
       <c r="Y3">
-        <v>0.004478882328733002</v>
+        <v>0.00348029820659822</v>
       </c>
       <c r="Z3">
-        <v>0.004761280357141042</v>
+        <v>0.003715793771325739</v>
       </c>
       <c r="AA3">
-        <v>0.00506302992612525</v>
+        <v>0.003970802987813618</v>
       </c>
       <c r="AB3">
-        <v>0.005137704388348588</v>
+        <v>0.003996834850310596</v>
       </c>
       <c r="AC3">
-        <v>0.005243649531502969</v>
+        <v>0.004054399353611854</v>
       </c>
       <c r="AD3">
-        <v>0.005266086397170998</v>
+        <v>0.004054399353611854</v>
       </c>
       <c r="AE3">
-        <v>0.005266101842047458</v>
+        <v>0.004054399353611854</v>
       </c>
       <c r="AF3">
-        <v>0.005274906495309605</v>
+        <v>0.004054399353611854</v>
       </c>
       <c r="AG3">
-        <v>0.005277730931193699</v>
+        <v>0.004054399353611854</v>
       </c>
       <c r="AH3">
-        <v>0.005278654474891196</v>
+        <v>0.004054399353611854</v>
       </c>
       <c r="AI3">
-        <v>0.005325866766296882</v>
+        <v>0.004054399353611854</v>
       </c>
       <c r="AJ3">
-        <v>0.005344049026838236</v>
+        <v>0.004054399353611854</v>
       </c>
       <c r="AK3">
-        <v>0.005345400154578464</v>
+        <v>0.004054399353611854</v>
       </c>
       <c r="AL3">
-        <v>0.005364602364150185</v>
+        <v>0.004054399353611854</v>
       </c>
       <c r="AM3">
-        <v>0.005403908895320487</v>
+        <v>0.004054399353611854</v>
       </c>
       <c r="AN3">
-        <v>0.005443215426490788</v>
+        <v>0.004054399353611854</v>
       </c>
       <c r="AO3">
-        <v>0.005470459572301948</v>
+        <v>0.004054399353611854</v>
       </c>
       <c r="AP3">
-        <v>0.005529338959055006</v>
+        <v>0.004064503822574324</v>
       </c>
       <c r="AQ3">
-        <v>0.005731894815085848</v>
+        <v>0.004219488363312459</v>
       </c>
       <c r="AR3">
-        <v>0.005833735178118015</v>
+        <v>0.004272913700042329</v>
       </c>
       <c r="AS3">
-        <v>0.005850827641626921</v>
+        <v>0.004272913700042329</v>
       </c>
       <c r="AT3">
-        <v>0.006108394569295648</v>
+        <v>0.004483370149628277</v>
       </c>
       <c r="AU3">
-        <v>0.006290985414732057</v>
+        <v>0.004618222429443916</v>
       </c>
       <c r="AV3">
-        <v>0.006296033721182363</v>
+        <v>0.004618222429443916</v>
       </c>
       <c r="AW3">
-        <v>0.006324155475019653</v>
+        <v>0.004618222429443916</v>
       </c>
       <c r="AX3">
-        <v>0.006362443616159633</v>
+        <v>0.004618222429443916</v>
       </c>
       <c r="AY3">
-        <v>0.006459361623045243</v>
+        <v>0.004666684174603063</v>
       </c>
       <c r="AZ3">
-        <v>0.006536088795329697</v>
+        <v>0.00469478594306644</v>
       </c>
       <c r="BA3">
-        <v>0.006597542927159415</v>
+        <v>0.004707486726187976</v>
       </c>
       <c r="BB3">
-        <v>0.006724071500926641</v>
+        <v>0.004785807091041016</v>
       </c>
       <c r="BC3">
-        <v>0.006788710052851171</v>
+        <v>0.004801718970692271</v>
       </c>
       <c r="BD3">
-        <v>0.006922778596842891</v>
+        <v>0.004887642469397375</v>
       </c>
       <c r="BE3">
-        <v>0.006987417148767421</v>
+        <v>0.00490355434904863</v>
       </c>
       <c r="BF3">
-        <v>0.007082716091604825</v>
+        <v>0.004950383466981533</v>
       </c>
       <c r="BG3">
-        <v>0.007115252617573559</v>
+        <v>0.004950383466981533</v>
       </c>
       <c r="BH3">
-        <v>0.00711543836961909</v>
+        <v>0.004950383466981533</v>
       </c>
       <c r="BI3">
-        <v>0.007133923692169466</v>
+        <v>0.004950383466981533</v>
       </c>
       <c r="BJ3">
-        <v>0.007135562979218274</v>
+        <v>0.004950383466981533</v>
       </c>
       <c r="BK3">
-        <v>0.007161960400004224</v>
+        <v>0.004950383466981533</v>
       </c>
       <c r="BL3">
-        <v>0.007195445791001208</v>
+        <v>0.004950383466981533</v>
       </c>
       <c r="BM3">
-        <v>0.007225734713903022</v>
+        <v>0.004950383466981533</v>
       </c>
       <c r="BN3">
-        <v>0.007320343946719891</v>
+        <v>0.004996517097074418</v>
       </c>
       <c r="BO3">
-        <v>0.007320351847716126</v>
+        <v>0.004996517097074418</v>
       </c>
       <c r="BP3">
-        <v>0.007326169574489341</v>
+        <v>0.004996517097074418</v>
       </c>
       <c r="BQ3">
-        <v>0.007327518783129512</v>
+        <v>0.004996517097074418</v>
       </c>
       <c r="BR3">
-        <v>0.007329278934881918</v>
+        <v>0.004996517097074418</v>
       </c>
       <c r="BS3">
-        <v>0.007395238706845786</v>
+        <v>0.005013761264852552</v>
       </c>
       <c r="BT3">
-        <v>0.007578787212310708</v>
+        <v>0.005149579227179495</v>
       </c>
       <c r="BU3">
-        <v>0.007706360936109053</v>
+        <v>0.005228953497465248</v>
       </c>
       <c r="BV3">
-        <v>0.007747160564323809</v>
+        <v>0.005228953497465248</v>
       </c>
       <c r="BW3">
-        <v>0.007883128968372096</v>
+        <v>0.005316792771681419</v>
       </c>
       <c r="BX3">
-        <v>0.008152180496382761</v>
+        <v>0.005538830030081913</v>
       </c>
       <c r="BY3">
-        <v>0.008402976883849904</v>
+        <v>0.005742459221486363</v>
       </c>
       <c r="BZ3">
-        <v>0.008410890312085516</v>
+        <v>0.005742459221486363</v>
       </c>
       <c r="CA3">
-        <v>0.008452751663331884</v>
+        <v>0.005742459221486363</v>
       </c>
       <c r="CB3">
-        <v>0.008525387179494514</v>
+        <v>0.005766435057320751</v>
       </c>
       <c r="CC3">
-        <v>0.008547490033152598</v>
+        <v>0.005766435057320751</v>
       </c>
       <c r="CD3">
-        <v>0.00856108295155731</v>
+        <v>0.005766435057320751</v>
       </c>
       <c r="CE3">
-        <v>0.008567908311760526</v>
+        <v>0.005766435057320751</v>
       </c>
       <c r="CF3">
-        <v>0.00859690379462383</v>
+        <v>0.005766435057320751</v>
       </c>
       <c r="CG3">
-        <v>0.008597033545767694</v>
+        <v>0.005766435057320751</v>
       </c>
       <c r="CH3">
-        <v>0.008629560653736146</v>
+        <v>0.005766435057320751</v>
       </c>
       <c r="CI3">
-        <v>0.008629576098612606</v>
+        <v>0.005766435057320751</v>
       </c>
       <c r="CJ3">
-        <v>0.008687207563328509</v>
+        <v>0.005775281150188496</v>
       </c>
       <c r="CK3">
-        <v>0.008762494915570095</v>
+        <v>0.005801931036988833</v>
       </c>
       <c r="CL3">
-        <v>0.008776703546993139</v>
+        <v>0.005801931036988833</v>
       </c>
       <c r="CM3">
-        <v>0.009372147764721729</v>
+        <v>0.00635309523281399</v>
       </c>
       <c r="CN3">
-        <v>0.05944767625565663</v>
+        <v>0.05679884687919932</v>
       </c>
       <c r="CO3">
-        <v>0.06221513303805411</v>
+        <v>0.05954021896256989</v>
       </c>
       <c r="CP3">
-        <v>0.1098867044574143</v>
+        <v>0.1075618751754713</v>
       </c>
       <c r="CQ3">
-        <v>0.1734709263505533</v>
+        <v>0.1716294848724109</v>
       </c>
       <c r="CR3">
-        <v>0.1796890279356893</v>
+        <v>0.1778504084036008</v>
       </c>
       <c r="CS3">
-        <v>0.1851641253987033</v>
+        <v>0.1833221035393286</v>
       </c>
       <c r="CT3">
-        <v>0.1856132705920761</v>
+        <v>0.183725743138705</v>
       </c>
       <c r="CU3">
-        <v>0.1885303962789297</v>
+        <v>0.1866180379286899</v>
       </c>
       <c r="CV3">
-        <v>0.2232331603121602</v>
+        <v>0.2215622448251376</v>
       </c>
       <c r="CW3">
-        <v>0.2283124134633885</v>
+        <v>0.226634779593188</v>
       </c>
       <c r="CX3">
-        <v>0.3211475822274371</v>
+        <v>0.320198376374624</v>
       </c>
       <c r="CY3">
-        <v>0.3221134624861949</v>
+        <v>0.3211230798179153</v>
       </c>
       <c r="CZ3">
-        <v>0.3243316468522385</v>
+        <v>0.3233105781354161</v>
       </c>
       <c r="DA3">
-        <v>0.3752022423668455</v>
+        <v>0.3745580572186956</v>
       </c>
       <c r="DB3">
-        <v>0.3757884708842997</v>
+        <v>0.3750999285127399</v>
       </c>
       <c r="DC3">
-        <v>0.4756609238578745</v>
+        <v>0.4757597620440552</v>
       </c>
       <c r="DD3">
-        <v>0.4832824440847955</v>
+        <v>0.4833958608964037</v>
       </c>
       <c r="DE3">
-        <v>0.5085448058369501</v>
+        <v>0.5088205816379606</v>
       </c>
       <c r="DF3">
-        <v>0.5085498541434004</v>
+        <v>0.5088205816379606</v>
       </c>
       <c r="DG3">
-        <v>0.5091892598624379</v>
+        <v>0.5094160756081533</v>
       </c>
       <c r="DH3">
-        <v>0.5167142810864858</v>
+        <v>0.5169548670688822</v>
       </c>
       <c r="DI3">
-        <v>0.5173195527045069</v>
+        <v>0.5175159409908227</v>
       </c>
       <c r="DJ3">
-        <v>0.518794380948418</v>
+        <v>0.5189538559640864</v>
       </c>
       <c r="DK3">
-        <v>0.520398851496189</v>
+        <v>0.52052249927709</v>
       </c>
       <c r="DL3">
-        <v>0.5561867705617286</v>
+        <v>0.5565609517362171</v>
       </c>
       <c r="DM3">
-        <v>0.5563421105163536</v>
+        <v>0.5566683248398214</v>
       </c>
       <c r="DN3">
-        <v>0.5785702981781695</v>
+        <v>0.5790334536927566</v>
       </c>
       <c r="DO3">
-        <v>0.578893281667786</v>
+        <v>0.5793098747100824</v>
       </c>
       <c r="DP3">
-        <v>0.5795107630861707</v>
+        <v>0.5798832607159844</v>
       </c>
       <c r="DQ3">
-        <v>0.5812462655378431</v>
+        <v>0.581584033609688</v>
       </c>
       <c r="DR3">
-        <v>0.5832816982984455</v>
+        <v>0.5835872493801126</v>
       </c>
       <c r="DS3">
-        <v>0.5834639928038731</v>
+        <v>0.5837218028374282</v>
       </c>
       <c r="DT3">
-        <v>0.5842315020267247</v>
+        <v>0.5844464734565223</v>
       </c>
       <c r="DU3">
-        <v>0.5883202321484614</v>
+        <v>0.5885201874132767</v>
       </c>
       <c r="DV3">
-        <v>0.5939642043165034</v>
+        <v>0.5941621719464859</v>
       </c>
       <c r="DW3">
-        <v>0.6093987177760464</v>
+        <v>0.6096767148197307</v>
       </c>
       <c r="DX3">
-        <v>0.6115628648404811</v>
+        <v>0.6118097231558518</v>
       </c>
       <c r="DY3">
-        <v>0.6142785247213364</v>
+        <v>0.614498864426126</v>
       </c>
       <c r="DZ3">
-        <v>0.6142839547674981</v>
+        <v>0.614498864426126</v>
       </c>
       <c r="EA3">
-        <v>0.6157588464114111</v>
+        <v>0.6159368433305044</v>
       </c>
       <c r="EB3">
-        <v>0.6228641868229635</v>
+        <v>0.6230524382403794</v>
       </c>
       <c r="EC3">
-        <v>0.6323737901060998</v>
+        <v>0.6325924369454867</v>
       </c>
       <c r="ED3">
-        <v>0.6325164413103471</v>
+        <v>0.6326870150028687</v>
       </c>
       <c r="EE3">
-        <v>0.6326333410338276</v>
+        <v>0.6327556258548999</v>
       </c>
       <c r="EF3">
-        <v>0.6376423361829641</v>
+        <v>0.6377573140574894</v>
       </c>
       <c r="EG3">
-        <v>0.6483664025022594</v>
+        <v>0.6485219495645176</v>
       </c>
       <c r="EH3">
-        <v>0.6538416226652771</v>
+        <v>0.6539937684281282</v>
       </c>
       <c r="EI3">
-        <v>0.6539681512390444</v>
+        <v>0.6540720887929812</v>
       </c>
       <c r="EJ3">
-        <v>0.6555089374849193</v>
+        <v>0.6555765143097371</v>
       </c>
       <c r="EK3">
-        <v>0.6562718782076349</v>
+        <v>0.6562965781575837</v>
       </c>
       <c r="EL3">
-        <v>0.6571405624934988</v>
+        <v>0.6571232714005968</v>
       </c>
       <c r="EM3">
-        <v>0.6573039222683627</v>
+        <v>0.6572387315078536</v>
       </c>
       <c r="EN3">
-        <v>0.6576328691981567</v>
+        <v>0.6575211659221212</v>
       </c>
       <c r="EO3">
-        <v>0.664278403396019</v>
+        <v>0.6641731027425597</v>
       </c>
       <c r="EP3">
-        <v>0.669118411540124</v>
+        <v>0.6690043883069081</v>
       </c>
       <c r="EQ3">
-        <v>0.670117517569871</v>
+        <v>0.6699625958591876</v>
       </c>
       <c r="ER3">
-        <v>0.6704362748793616</v>
+        <v>0.6702347552929497</v>
       </c>
       <c r="ES3">
-        <v>0.6715237605117401</v>
+        <v>0.6712820828189946</v>
       </c>
       <c r="ET3">
-        <v>0.677263852682644</v>
+        <v>0.6770209925688638</v>
       </c>
       <c r="EU3">
-        <v>0.6851847109184774</v>
+        <v>0.6849589370361165</v>
       </c>
       <c r="EV3">
-        <v>0.6962285762472944</v>
+        <v>0.6960460505639798</v>
       </c>
       <c r="EW3">
-        <v>0.7045039794936839</v>
+        <v>0.7043415101263297</v>
       </c>
       <c r="EX3">
-        <v>0.7049377235865981</v>
+        <v>0.7047296196075797</v>
       </c>
       <c r="EY3">
-        <v>0.7054070919605729</v>
+        <v>0.7051536518006208</v>
       </c>
       <c r="EZ3">
-        <v>0.729553587679504</v>
+        <v>0.7294531587072465</v>
       </c>
       <c r="FA3">
-        <v>0.7766141270806715</v>
+        <v>0.7768586641816311</v>
       </c>
       <c r="FB3">
-        <v>0.8030257688670444</v>
+        <v>0.8034422926739483</v>
       </c>
       <c r="FC3">
-        <v>0.8146677952136708</v>
+        <v>0.815132578117361</v>
       </c>
       <c r="FD3">
-        <v>0.8230899394644294</v>
+        <v>0.8235760079587153</v>
       </c>
       <c r="FE3">
-        <v>0.8314450962131935</v>
+        <v>0.831951889132248</v>
       </c>
       <c r="FF3">
-        <v>0.8328404486547384</v>
+        <v>0.8333096625206778</v>
       </c>
       <c r="FG3">
-        <v>0.8329252299632627</v>
+        <v>0.8333458858962658</v>
       </c>
       <c r="FH3">
-        <v>0.8346844016156397</v>
+        <v>0.8350705262716399</v>
       </c>
       <c r="FI3">
-        <v>0.8460328264535246</v>
+        <v>0.8464647506559678</v>
       </c>
       <c r="FJ3">
-        <v>0.8645536760049592</v>
+        <v>0.8650914843894473</v>
       </c>
       <c r="FK3">
-        <v>0.8849128666111281</v>
+        <v>0.8855719592769017</v>
       </c>
       <c r="FL3">
-        <v>0.8900308670635101</v>
+        <v>0.8906835659389127</v>
       </c>
       <c r="FM3">
-        <v>0.8932417509591101</v>
+        <v>0.8938720798006899</v>
       </c>
       <c r="FN3">
-        <v>0.8987168484221241</v>
+        <v>0.8993437749364178</v>
       </c>
       <c r="FO3">
-        <v>0.9072867156772809</v>
+        <v>0.9079361652831891</v>
       </c>
       <c r="FP3">
-        <v>0.9078341908935813</v>
+        <v>0.9084389586330096</v>
       </c>
       <c r="FQ3">
-        <v>0.9093272598380355</v>
+        <v>0.9098952671123025</v>
       </c>
       <c r="FR3">
-        <v>0.9183733021073699</v>
+        <v>0.9189678214732551</v>
       </c>
       <c r="FS3">
-        <v>0.9245412732910133</v>
+        <v>0.9251381946519559</v>
       </c>
       <c r="FT3">
-        <v>0.9277016492851095</v>
+        <v>0.9282757774988502</v>
       </c>
       <c r="FU3">
-        <v>0.9451004078031353</v>
+        <v>0.9457710202493156</v>
       </c>
       <c r="FV3">
-        <v>0.9611597942812831</v>
+        <v>0.9619156708099306</v>
       </c>
       <c r="FW3">
-        <v>0.9655512344120326</v>
+        <v>0.9662946306295145</v>
       </c>
       <c r="FX3">
-        <v>0.9655540616244168</v>
+        <v>0.9662946306295145</v>
       </c>
       <c r="FY3">
-        <v>0.9660046730378332</v>
+        <v>0.966699748731712</v>
       </c>
       <c r="FZ3">
-        <v>0.9667392092597031</v>
+        <v>0.9673911701293233</v>
       </c>
       <c r="GA3">
-        <v>0.9703978583686348</v>
+        <v>0.9710312002106473</v>
       </c>
       <c r="GB3">
-        <v>0.9754703879196629</v>
+        <v>0.9760969550537421</v>
       </c>
       <c r="GC3">
-        <v>0.9786041995129682</v>
+        <v>0.9792077509652904</v>
       </c>
       <c r="GD3">
-        <v>0.9812006211902733</v>
+        <v>0.9817766551530724</v>
       </c>
       <c r="GE3">
-        <v>0.9813538891148367</v>
+        <v>0.9818819388688629</v>
       </c>
       <c r="GF3">
-        <v>0.9835454851800887</v>
+        <v>0.9840426261508027</v>
       </c>
       <c r="GG3">
-        <v>0.9850421391246497</v>
+        <v>0.9855025496623649</v>
       </c>
       <c r="GH3">
-        <v>0.9856456301726179</v>
+        <v>0.9860618280981108</v>
       </c>
       <c r="GI3">
-        <v>0.9890079927727279</v>
+        <v>0.9894030896275626</v>
       </c>
       <c r="GJ3">
-        <v>0.9890513945340201</v>
+        <v>0.9894030896275626</v>
       </c>
       <c r="GK3">
-        <v>0.9895508774488916</v>
+        <v>0.9898574886361897</v>
       </c>
       <c r="GL3">
-        <v>0.9944866705958485</v>
+        <v>0.9947853616108355</v>
       </c>
       <c r="GM3">
-        <v>0.9976337968895501</v>
+        <v>0.997909583762316</v>
       </c>
       <c r="GN3">
-        <v>0.9982292411072787</v>
+        <v>0.9984607479581411</v>
       </c>
       <c r="GO3">
-        <v>0.9985172170858528</v>
+        <v>0.9987018682004828</v>
       </c>
       <c r="GP3">
-        <v>0.9986263427291019</v>
+        <v>0.9987626398474752</v>
       </c>
       <c r="GQ3">
-        <v>0.9993984798920913</v>
+        <v>0.9994919771757577</v>
       </c>
       <c r="GR3">
-        <v>0.9997465550224548</v>
+        <v>0.9997937000308212</v>
       </c>
       <c r="GS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GX3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GY3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GZ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HA3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HB3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HC3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HD3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HE3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HF3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HG3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HH3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HI3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HJ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HK3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HL3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HM3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HN3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HO3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HP3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HQ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HR3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HX3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HY3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HZ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IA3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IB3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IC3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="ID3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IE3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IF3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IG3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IH3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="II3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IJ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IK3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IL3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IM3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IN3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IO3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IP3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IQ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IR3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>8.138306101959955E-09</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.549425162540218E-05</v>
+        <v>1.415304402918992E-05</v>
       </c>
       <c r="D4">
-        <v>2.567619072768159E-05</v>
+        <v>1.415304402918992E-05</v>
       </c>
       <c r="E4">
-        <v>4.543267497519872E-05</v>
+        <v>2.256477281074992E-05</v>
       </c>
       <c r="F4">
-        <v>0.0001354125521025026</v>
+        <v>0.0001013431224031674</v>
       </c>
       <c r="G4">
-        <v>0.0002700050337887311</v>
+        <v>0.0002248250686126915</v>
       </c>
       <c r="H4">
-        <v>0.0004852659764856063</v>
+        <v>0.0004291400075693593</v>
       </c>
       <c r="I4">
-        <v>0.000740078539678</v>
+        <v>0.0006730872366750864</v>
       </c>
       <c r="J4">
-        <v>0.0009487058422917663</v>
+        <v>0.0008707550055480911</v>
       </c>
       <c r="K4">
-        <v>0.001127458694531253</v>
+        <v>0.001038487391990653</v>
       </c>
       <c r="L4">
-        <v>0.001143600501733484</v>
+        <v>0.001043277071216237</v>
       </c>
       <c r="M4">
-        <v>0.001198561099422053</v>
+        <v>0.001086964715898493</v>
       </c>
       <c r="N4">
-        <v>0.001205358944807219</v>
+        <v>0.001086964715898493</v>
       </c>
       <c r="O4">
-        <v>0.001279134820731513</v>
+        <v>0.001149506014538063</v>
       </c>
       <c r="P4">
-        <v>0.00127980908338996</v>
+        <v>0.001149506014538063</v>
       </c>
       <c r="Q4">
-        <v>0.001284819468852732</v>
+        <v>0.001149506014538063</v>
       </c>
       <c r="R4">
-        <v>0.001296181345995078</v>
+        <v>0.001149506014538063</v>
       </c>
       <c r="S4">
-        <v>0.001336696686502671</v>
+        <v>0.0011787189394313</v>
       </c>
       <c r="T4">
-        <v>0.00136469219285341</v>
+        <v>0.001195386494660639</v>
       </c>
       <c r="U4">
-        <v>0.001367793371992262</v>
+        <v>0.001195386494660639</v>
       </c>
       <c r="V4">
-        <v>0.001368348679169219</v>
+        <v>0.001195386494660639</v>
       </c>
       <c r="W4">
-        <v>0.001381298423331459</v>
+        <v>0.001196977600300866</v>
       </c>
       <c r="X4">
-        <v>0.001433558338986192</v>
+        <v>0.001237959054626713</v>
       </c>
       <c r="Y4">
-        <v>0.001580242420823909</v>
+        <v>0.00137355726306687</v>
       </c>
       <c r="Z4">
-        <v>0.001612972705233967</v>
+        <v>0.001394969253429014</v>
       </c>
       <c r="AA4">
-        <v>0.001618757422706441</v>
+        <v>0.001394969253429014</v>
       </c>
       <c r="AB4">
-        <v>0.001644503816029002</v>
+        <v>0.001409383108329668</v>
       </c>
       <c r="AC4">
-        <v>0.001694955339661079</v>
+        <v>0.00144855248222879</v>
       </c>
       <c r="AD4">
-        <v>0.00177004162060179</v>
+        <v>0.001512406858592428</v>
       </c>
       <c r="AE4">
-        <v>0.001903471122273448</v>
+        <v>0.001634723452768393</v>
       </c>
       <c r="AF4">
-        <v>0.002050778734118977</v>
+        <v>0.001770946462970821</v>
       </c>
       <c r="AG4">
-        <v>0.00212909544510016</v>
+        <v>0.001838037858173794</v>
       </c>
       <c r="AH4">
-        <v>0.002166895545573734</v>
+        <v>0.001864530005017881</v>
       </c>
       <c r="AI4">
-        <v>0.002170324804216698</v>
+        <v>0.001864530005017881</v>
       </c>
       <c r="AJ4">
-        <v>0.002177257392303552</v>
+        <v>0.001864530005017881</v>
       </c>
       <c r="AK4">
-        <v>0.002187618368433358</v>
+        <v>0.001864530005017881</v>
       </c>
       <c r="AL4">
-        <v>0.002193862240211584</v>
+        <v>0.001864530005017881</v>
       </c>
       <c r="AM4">
-        <v>0.002241522218808687</v>
+        <v>0.001900902140234893</v>
       </c>
       <c r="AN4">
-        <v>0.002251997355939924</v>
+        <v>0.001900902140234893</v>
       </c>
       <c r="AO4">
-        <v>0.002254196487567476</v>
+        <v>0.001900902140234893</v>
       </c>
       <c r="AP4">
-        <v>0.002256015587690266</v>
+        <v>0.001900902140234893</v>
       </c>
       <c r="AQ4">
-        <v>0.002257256735605815</v>
+        <v>0.001900902140234893</v>
       </c>
       <c r="AR4">
-        <v>0.002324120262443509</v>
+        <v>0.001956516991331239</v>
       </c>
       <c r="AS4">
-        <v>0.00232690043947834</v>
+        <v>0.001956516991331239</v>
       </c>
       <c r="AT4">
-        <v>0.002342182227669796</v>
+        <v>0.001960444897447612</v>
       </c>
       <c r="AU4">
-        <v>0.002355975312842601</v>
+        <v>0.00196288106418032</v>
       </c>
       <c r="AV4">
-        <v>0.002359593138887927</v>
+        <v>0.00196288106418032</v>
       </c>
       <c r="AW4">
-        <v>0.00240725311748503</v>
+        <v>0.001999253199397332</v>
       </c>
       <c r="AX4">
-        <v>0.002566001589473895</v>
+        <v>0.002146940404570149</v>
       </c>
       <c r="AY4">
-        <v>0.002704907591214165</v>
+        <v>0.002274744668707581</v>
       </c>
       <c r="AZ4">
-        <v>0.002766661511987842</v>
+        <v>0.002325239492165631</v>
       </c>
       <c r="BA4">
-        <v>0.00282841543276152</v>
+        <v>0.00237573431562368</v>
       </c>
       <c r="BB4">
-        <v>0.003053333085579378</v>
+        <v>0.002589725660568404</v>
       </c>
       <c r="BC4">
-        <v>0.003180234867169254</v>
+        <v>0.002705501220696919</v>
       </c>
       <c r="BD4">
-        <v>0.003185361025233477</v>
+        <v>0.002705501220696919</v>
       </c>
       <c r="BE4">
-        <v>0.003195626535362088</v>
+        <v>0.002705501220696919</v>
       </c>
       <c r="BF4">
-        <v>0.003238755832902429</v>
+        <v>0.002737333434060797</v>
       </c>
       <c r="BG4">
-        <v>0.003255994053118396</v>
+        <v>0.002743221762548768</v>
       </c>
       <c r="BH4">
-        <v>0.003338198394148285</v>
+        <v>0.002814208717027244</v>
       </c>
       <c r="BI4">
-        <v>0.003389268304788109</v>
+        <v>0.002853997739198888</v>
       </c>
       <c r="BJ4">
-        <v>0.003406506525004076</v>
+        <v>0.002859886067686859</v>
       </c>
       <c r="BK4">
-        <v>0.003509341316292432</v>
+        <v>0.002951545550377976</v>
       </c>
       <c r="BL4">
-        <v>0.003594924172364648</v>
+        <v>0.003025917910732443</v>
       </c>
       <c r="BM4">
-        <v>0.003653708461101122</v>
+        <v>0.003073437045279143</v>
       </c>
       <c r="BN4">
-        <v>0.003907956794286446</v>
+        <v>0.003316818893571877</v>
       </c>
       <c r="BO4">
-        <v>0.004088270946545495</v>
+        <v>0.003486115764468166</v>
       </c>
       <c r="BP4">
-        <v>0.004237427848414192</v>
+        <v>0.003624191836513566</v>
       </c>
       <c r="BQ4">
-        <v>0.004413974050626033</v>
+        <v>0.003789713072235691</v>
       </c>
       <c r="BR4">
-        <v>0.004523743242001266</v>
+        <v>0.003888321098445624</v>
       </c>
       <c r="BS4">
-        <v>0.00452820467645716</v>
+        <v>0.003888321098445624</v>
       </c>
       <c r="BT4">
-        <v>0.004528359908589105</v>
+        <v>0.003888321098445624</v>
       </c>
       <c r="BU4">
-        <v>0.004573269969151756</v>
+        <v>0.003921937706883654</v>
       </c>
       <c r="BV4">
-        <v>0.004580608251843693</v>
+        <v>0.003921937706883654</v>
       </c>
       <c r="BW4">
-        <v>0.004602505959118036</v>
+        <v>0.00393249502593964</v>
       </c>
       <c r="BX4">
-        <v>0.004613695154258218</v>
+        <v>0.00393249502593964</v>
       </c>
       <c r="BY4">
-        <v>0.00473647552579646</v>
+        <v>0.004044140769971034</v>
       </c>
       <c r="BZ4">
-        <v>0.005069613489970146</v>
+        <v>0.004366573152879339</v>
       </c>
       <c r="CA4">
-        <v>0.005527504435706787</v>
+        <v>0.004814012964062891</v>
       </c>
       <c r="CB4">
-        <v>0.005667178707456682</v>
+        <v>0.004942587065176729</v>
       </c>
       <c r="CC4">
-        <v>0.005710308004997023</v>
+        <v>0.004974419278540608</v>
       </c>
       <c r="CD4">
-        <v>0.005743038289407081</v>
+        <v>0.004995831268902753</v>
       </c>
       <c r="CE4">
-        <v>0.005761340187636374</v>
+        <v>0.005002785444886254</v>
       </c>
       <c r="CF4">
-        <v>0.005805906278194715</v>
+        <v>0.005036057381757289</v>
       </c>
       <c r="CG4">
-        <v>0.005831832450519528</v>
+        <v>0.005050651382338213</v>
       </c>
       <c r="CH4">
-        <v>0.005931313011765861</v>
+        <v>0.005138949793685434</v>
       </c>
       <c r="CI4">
-        <v>0.006131563914274684</v>
+        <v>0.005328224077912181</v>
       </c>
       <c r="CJ4">
-        <v>0.006220927355394265</v>
+        <v>0.005406384734211371</v>
       </c>
       <c r="CK4">
-        <v>0.006224712153941683</v>
+        <v>0.005406384734211371</v>
       </c>
       <c r="CL4">
-        <v>0.006224756067526233</v>
+        <v>0.005406384734211371</v>
       </c>
       <c r="CM4">
-        <v>0.006229109540580775</v>
+        <v>0.005406384734211371</v>
       </c>
       <c r="CN4">
-        <v>0.006374579402403279</v>
+        <v>0.005540766246108004</v>
       </c>
       <c r="CO4">
-        <v>0.1109702007128191</v>
+        <v>0.1103383361801549</v>
       </c>
       <c r="CP4">
-        <v>0.1298232149490172</v>
+        <v>0.1292184180535743</v>
       </c>
       <c r="CQ4">
-        <v>0.1867461206621701</v>
+        <v>0.1862460389166751</v>
       </c>
       <c r="CR4">
-        <v>0.2282548961822086</v>
+        <v>0.2278280908610991</v>
       </c>
       <c r="CS4">
-        <v>0.2283289761631367</v>
+        <v>0.2278909368849963</v>
       </c>
       <c r="CT4">
-        <v>0.2287438191983341</v>
+        <v>0.2282952409849389</v>
       </c>
       <c r="CU4">
-        <v>0.229089347732663</v>
+        <v>0.2286300892098621</v>
       </c>
       <c r="CV4">
-        <v>0.2291178043620195</v>
+        <v>0.2286472188286057</v>
       </c>
       <c r="CW4">
-        <v>0.2721657809013418</v>
+        <v>0.2717716111532649</v>
       </c>
       <c r="CX4">
-        <v>0.3271161915897825</v>
+        <v>0.3268227138824039</v>
       </c>
       <c r="CY4">
-        <v>0.3652806590679222</v>
+        <v>0.3650536367200094</v>
       </c>
       <c r="CZ4">
-        <v>0.3695630551215738</v>
+        <v>0.3693333821160076</v>
       </c>
       <c r="DA4">
-        <v>0.3935772264224329</v>
+        <v>0.3933851477720091</v>
       </c>
       <c r="DB4">
-        <v>0.4351551209433374</v>
+        <v>0.4350364596927074</v>
       </c>
       <c r="DC4">
-        <v>0.4676445063503774</v>
+        <v>0.4675807255376613</v>
       </c>
       <c r="DD4">
-        <v>0.5477595173540903</v>
+        <v>0.5478477544080055</v>
       </c>
       <c r="DE4">
-        <v>0.5557290234539355</v>
+        <v>0.5558221300955442</v>
       </c>
       <c r="DF4">
-        <v>0.5595109880013175</v>
+        <v>0.559600423303042</v>
       </c>
       <c r="DG4">
-        <v>0.5605950066148985</v>
+        <v>0.5606752678347269</v>
       </c>
       <c r="DH4">
-        <v>0.56059831638574</v>
+        <v>0.5606752678347269</v>
       </c>
       <c r="DI4">
-        <v>0.5690203149912542</v>
+        <v>0.5691030589335754</v>
       </c>
       <c r="DJ4">
-        <v>0.5690212123937254</v>
+        <v>0.5691030589335754</v>
       </c>
       <c r="DK4">
-        <v>0.5714949772247176</v>
+        <v>0.5715704842149729</v>
       </c>
       <c r="DL4">
-        <v>0.5808599943420464</v>
+        <v>0.5809432172102073</v>
       </c>
       <c r="DM4">
-        <v>0.6054708746503813</v>
+        <v>0.6055929089239165</v>
       </c>
       <c r="DN4">
-        <v>0.615251191772913</v>
+        <v>0.6153817889720125</v>
       </c>
       <c r="DO4">
-        <v>0.6282022069351685</v>
+        <v>0.6283478340290523</v>
       </c>
       <c r="DP4">
-        <v>0.6282406272406498</v>
+        <v>0.6283749476458769</v>
       </c>
       <c r="DQ4">
-        <v>0.6306118709703576</v>
+        <v>0.6307396427235153</v>
       </c>
       <c r="DR4">
-        <v>0.6321165301892087</v>
+        <v>0.6322359858008394</v>
       </c>
       <c r="DS4">
-        <v>0.632171872694902</v>
+        <v>0.6322800561324676</v>
       </c>
       <c r="DT4">
-        <v>0.6324759692187119</v>
+        <v>0.6325733878419667</v>
       </c>
       <c r="DU4">
-        <v>0.6344811092438331</v>
+        <v>0.634571232508344</v>
       </c>
       <c r="DV4">
-        <v>0.6359857684626841</v>
+        <v>0.6360675755856681</v>
       </c>
       <c r="DW4">
-        <v>0.6443970795680644</v>
+        <v>0.6444846573861119</v>
       </c>
       <c r="DX4">
-        <v>0.6462977090918762</v>
+        <v>0.6463777783911165</v>
       </c>
       <c r="DY4">
-        <v>0.6504211521435364</v>
+        <v>0.6504982465839038</v>
       </c>
       <c r="DZ4">
-        <v>0.6514550404564893</v>
+        <v>0.651522858568986</v>
       </c>
       <c r="EA4">
-        <v>0.6514989383830393</v>
+        <v>0.6515554609790585</v>
       </c>
       <c r="EB4">
-        <v>0.6537909426117544</v>
+        <v>0.6538407549384806</v>
       </c>
       <c r="EC4">
-        <v>0.6643353417438589</v>
+        <v>0.6643952754210689</v>
       </c>
       <c r="ED4">
-        <v>0.6679449995890822</v>
+        <v>0.6680009104889248</v>
       </c>
       <c r="EE4">
-        <v>0.6679667321013544</v>
+        <v>0.6680113022760463</v>
       </c>
       <c r="EF4">
-        <v>0.6684981041080116</v>
+        <v>0.6685323730204351</v>
       </c>
       <c r="EG4">
-        <v>0.6745151501833956</v>
+        <v>0.6745503064377347</v>
       </c>
       <c r="EH4">
-        <v>0.6827155972861341</v>
+        <v>0.6827560941564194</v>
       </c>
       <c r="EI4">
-        <v>0.6839403643014784</v>
+        <v>0.6839719741609069</v>
       </c>
       <c r="EJ4">
-        <v>0.6843355577664295</v>
+        <v>0.6843565886132562</v>
       </c>
       <c r="EK4">
-        <v>0.6867036325960977</v>
+        <v>0.686718108327553</v>
       </c>
       <c r="EL4">
-        <v>0.6875568530067871</v>
+        <v>0.6875616839193491</v>
       </c>
       <c r="EM4">
-        <v>0.6880751168132802</v>
+        <v>0.6880696197280328</v>
       </c>
       <c r="EN4">
-        <v>0.6880757495094881</v>
+        <v>0.6880696197280328</v>
       </c>
       <c r="EO4">
-        <v>0.6890563609217736</v>
+        <v>0.6890408461486541</v>
       </c>
       <c r="EP4">
-        <v>0.6964366790142371</v>
+        <v>0.6964248321184431</v>
       </c>
       <c r="EQ4">
-        <v>0.6999861386587062</v>
+        <v>0.6999701462050383</v>
       </c>
       <c r="ER4">
-        <v>0.7006768088673592</v>
+        <v>0.7006508400567139</v>
       </c>
       <c r="ES4">
-        <v>0.7006796483311948</v>
+        <v>0.7006508400567139</v>
       </c>
       <c r="ET4">
-        <v>0.702116080149191</v>
+        <v>0.7020788165762858</v>
       </c>
       <c r="EU4">
-        <v>0.7095599138424503</v>
+        <v>0.7095264476935602</v>
       </c>
       <c r="EV4">
-        <v>0.7181895409505658</v>
+        <v>0.7181622907749878</v>
       </c>
       <c r="EW4">
-        <v>0.7281379550752035</v>
+        <v>0.728119610676551</v>
       </c>
       <c r="EX4">
-        <v>0.73053462550523</v>
+        <v>0.7305097843149142</v>
       </c>
       <c r="EY4">
-        <v>0.7308364559490114</v>
+        <v>0.7308008453224784</v>
       </c>
       <c r="EZ4">
-        <v>0.7340189206888825</v>
+        <v>0.7339784159801059</v>
       </c>
       <c r="FA4">
-        <v>0.7628694410503334</v>
+        <v>0.7628763949348324</v>
       </c>
       <c r="FB4">
-        <v>0.806640761598718</v>
+        <v>0.8067256066040742</v>
       </c>
       <c r="FC4">
-        <v>0.8214528387842897</v>
+        <v>0.8215565095144558</v>
       </c>
       <c r="FD4">
-        <v>0.8290743925797756</v>
+        <v>0.8291822232126339</v>
       </c>
       <c r="FE4">
-        <v>0.836909587677938</v>
+        <v>0.837022013957199</v>
       </c>
       <c r="FF4">
-        <v>0.8417621627387329</v>
+        <v>0.8418731012998709</v>
       </c>
       <c r="FG4">
-        <v>0.8423674687463164</v>
+        <v>0.842468256841289</v>
       </c>
       <c r="FH4">
-        <v>0.8425197235482239</v>
+        <v>0.8426094371318633</v>
       </c>
       <c r="FI4">
-        <v>0.8474460833099433</v>
+        <v>0.8475344596670498</v>
       </c>
       <c r="FJ4">
-        <v>0.8642223625201233</v>
+        <v>0.864333570796851</v>
       </c>
       <c r="FK4">
-        <v>0.8875322758121592</v>
+        <v>0.8876796420363964</v>
       </c>
       <c r="FL4">
-        <v>0.9009491799802516</v>
+        <v>0.9011125263284727</v>
       </c>
       <c r="FM4">
-        <v>0.9043934250234025</v>
+        <v>0.904552411217601</v>
       </c>
       <c r="FN4">
-        <v>0.9059765162432361</v>
+        <v>0.9061273462661508</v>
       </c>
       <c r="FO4">
-        <v>0.9115454703130061</v>
+        <v>0.9116962737474742</v>
       </c>
       <c r="FP4">
-        <v>0.9165298738754527</v>
+        <v>0.9166794584697709</v>
       </c>
       <c r="FQ4">
-        <v>0.9166658216071559</v>
+        <v>0.9168042984301712</v>
       </c>
       <c r="FR4">
-        <v>0.9203818490537118</v>
+        <v>0.9205165200512515</v>
       </c>
       <c r="FS4">
-        <v>0.9327382357085175</v>
+        <v>0.9328867237940064</v>
       </c>
       <c r="FT4">
-        <v>0.9349285497359586</v>
+        <v>0.9350701201443871</v>
       </c>
       <c r="FU4">
-        <v>0.9413250595160967</v>
+        <v>0.9414682912222284</v>
       </c>
       <c r="FV4">
-        <v>0.9603123857539775</v>
+        <v>0.9604829590406611</v>
       </c>
       <c r="FW4">
-        <v>0.9704573438810776</v>
+        <v>0.9706372238166707</v>
       </c>
       <c r="FX4">
-        <v>0.9721585690023913</v>
+        <v>0.9723305337131088</v>
       </c>
       <c r="FY4">
-        <v>0.972347321624756</v>
+        <v>0.9725082862652504</v>
       </c>
       <c r="FZ4">
-        <v>0.9728760109313797</v>
+        <v>0.9730266688379592</v>
       </c>
       <c r="GA4">
-        <v>0.9749045383567938</v>
+        <v>0.9750479486056707</v>
       </c>
       <c r="GB4">
-        <v>0.9790735718090251</v>
+        <v>0.9792141001854041</v>
       </c>
       <c r="GC4">
-        <v>0.981896667644394</v>
+        <v>0.9820315689681819</v>
       </c>
       <c r="GD4">
-        <v>0.9853971726882497</v>
+        <v>0.985527828606152</v>
       </c>
       <c r="GE4">
-        <v>0.9858133426234637</v>
+        <v>0.9859334623124621</v>
       </c>
       <c r="GF4">
-        <v>0.9860588888765399</v>
+        <v>0.9861681243318462</v>
       </c>
       <c r="GG4">
-        <v>0.9879143823997862</v>
+        <v>0.9880160172767064</v>
       </c>
       <c r="GH4">
-        <v>0.9881283717824672</v>
+        <v>0.9882190580621679</v>
       </c>
       <c r="GI4">
-        <v>0.9897019804021819</v>
+        <v>0.9897844911698472</v>
       </c>
       <c r="GJ4">
-        <v>0.9911441747202503</v>
+        <v>0.9912182419427111</v>
       </c>
       <c r="GK4">
-        <v>0.9911762098306517</v>
+        <v>0.9912389573411847</v>
       </c>
       <c r="GL4">
-        <v>0.9933838218583095</v>
+        <v>0.993439686972857</v>
       </c>
       <c r="GM4">
-        <v>0.9974461844092044</v>
+        <v>0.9974989500848296</v>
       </c>
       <c r="GN4">
-        <v>0.999138471630406</v>
+        <v>0.9991833038513767</v>
       </c>
       <c r="GO4">
-        <v>0.9995464357355172</v>
+        <v>0.999580714990938</v>
       </c>
       <c r="GP4">
-        <v>0.9995474827943303</v>
+        <v>0.999580714990938</v>
       </c>
       <c r="GQ4">
-        <v>0.9996658246958129</v>
+        <v>0.9996879132121914</v>
       </c>
       <c r="GR4">
-        <v>0.9996923475661452</v>
+        <v>0.9997031051278076</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001723889543508735</v>
+        <v>0.0001683404869861321</v>
       </c>
       <c r="C5">
-        <v>0.0005949609005033367</v>
+        <v>0.0005870653056343773</v>
       </c>
       <c r="D5">
-        <v>0.0007888481541497184</v>
+        <v>0.0007769213931104372</v>
       </c>
       <c r="E5">
-        <v>0.0008073994295417995</v>
+        <v>0.0007913003971309508</v>
       </c>
       <c r="F5">
-        <v>0.0008382021845324038</v>
+        <v>0.0008179407403778378</v>
       </c>
       <c r="G5">
-        <v>0.0008726102964048618</v>
+        <v>0.0008481893419909939</v>
       </c>
       <c r="H5">
-        <v>0.000876794130267759</v>
+        <v>0.0008481893419909939</v>
       </c>
       <c r="I5">
-        <v>0.0008823432587859159</v>
+        <v>0.0008495557353949475</v>
       </c>
       <c r="J5">
-        <v>0.0008857144646754427</v>
+        <v>0.0008495557353949475</v>
       </c>
       <c r="K5">
-        <v>0.0008857192286999866</v>
+        <v>0.0008495557353949475</v>
       </c>
       <c r="L5">
-        <v>0.0009193489325979528</v>
+        <v>0.0008790253025939331</v>
       </c>
       <c r="M5">
-        <v>0.001042034658577584</v>
+        <v>0.0009976225615230098</v>
       </c>
       <c r="N5">
-        <v>0.001258818101473665</v>
+        <v>0.001210393264423614</v>
       </c>
       <c r="O5">
-        <v>0.001473506634438396</v>
+        <v>0.001421067371471413</v>
       </c>
       <c r="P5">
-        <v>0.0015840935908145</v>
+        <v>0.001527556124065593</v>
       </c>
       <c r="Q5">
-        <v>0.001662512278244747</v>
+        <v>0.001601850719644002</v>
       </c>
       <c r="R5">
-        <v>0.001903327130353327</v>
+        <v>0.001838672171523347</v>
       </c>
       <c r="S5">
-        <v>0.001959584088509806</v>
+        <v>0.001890787202724775</v>
       </c>
       <c r="T5">
-        <v>0.001989650588524537</v>
+        <v>0.001916690698479595</v>
       </c>
       <c r="U5">
-        <v>0.002077541345644387</v>
+        <v>0.002000464986588699</v>
       </c>
       <c r="V5">
-        <v>0.002358817936427051</v>
+        <v>0.002277780739550796</v>
       </c>
       <c r="W5">
-        <v>0.002488367632181752</v>
+        <v>0.002403247492174483</v>
       </c>
       <c r="X5">
-        <v>0.00249185200536757</v>
+        <v>0.002403247492174483</v>
       </c>
       <c r="Y5">
-        <v>0.002495767309039267</v>
+        <v>0.002403247492174483</v>
       </c>
       <c r="Z5">
-        <v>0.002550438583247708</v>
+        <v>0.002453775563316406</v>
       </c>
       <c r="AA5">
-        <v>0.002620358900956444</v>
+        <v>0.002519564949937103</v>
       </c>
       <c r="AB5">
-        <v>0.002680272468993097</v>
+        <v>0.002575339533750016</v>
       </c>
       <c r="AC5">
-        <v>0.002774688791899106</v>
+        <v>0.002665644639227315</v>
       </c>
       <c r="AD5">
-        <v>0.002824357736271472</v>
+        <v>0.002711166354806296</v>
       </c>
       <c r="AE5">
-        <v>0.002870225182768412</v>
+        <v>0.002752883513176975</v>
       </c>
       <c r="AF5">
-        <v>0.002870286091936416</v>
+        <v>0.002752883513176975</v>
       </c>
       <c r="AG5">
-        <v>0.002871361163601186</v>
+        <v>0.002752883513176975</v>
       </c>
       <c r="AH5">
-        <v>0.002924982931844019</v>
+        <v>0.002802361233741979</v>
       </c>
       <c r="AI5">
-        <v>0.002992705909624761</v>
+        <v>0.0028659515120806</v>
       </c>
       <c r="AJ5">
-        <v>0.003016002880861327</v>
+        <v>0.002885080031141031</v>
       </c>
       <c r="AK5">
-        <v>0.003047259633837054</v>
+        <v>0.00291217473773717</v>
       </c>
       <c r="AL5">
-        <v>0.00318904028919095</v>
+        <v>0.003049882293074015</v>
       </c>
       <c r="AM5">
-        <v>0.003391822442545849</v>
+        <v>0.00324864043861038</v>
       </c>
       <c r="AN5">
-        <v>0.003451736010582502</v>
+        <v>0.003304415022423293</v>
       </c>
       <c r="AO5">
-        <v>0.003525280012172491</v>
+        <v>0.003373831009158685</v>
       </c>
       <c r="AP5">
-        <v>0.003756563104593424</v>
+        <v>0.003601113030472549</v>
       </c>
       <c r="AQ5">
-        <v>0.003870072470873761</v>
+        <v>0.003710526544839882</v>
       </c>
       <c r="AR5">
-        <v>0.003871379647930925</v>
+        <v>0.003710526544839882</v>
       </c>
       <c r="AS5">
-        <v>0.003973356039589194</v>
+        <v>0.003808397803188816</v>
       </c>
       <c r="AT5">
-        <v>0.004141081904092875</v>
+        <v>0.003972071447611183</v>
       </c>
       <c r="AU5">
-        <v>0.004461933393578682</v>
+        <v>0.004288993947982556</v>
       </c>
       <c r="AV5">
-        <v>0.004896080949351816</v>
+        <v>0.004719303691959185</v>
       </c>
       <c r="AW5">
-        <v>0.005413248372404419</v>
+        <v>0.005232700115145136</v>
       </c>
       <c r="AX5">
-        <v>0.00582147295902704</v>
+        <v>0.005637066027933608</v>
       </c>
       <c r="AY5">
-        <v>0.00611101064953899</v>
+        <v>0.005922649528913332</v>
       </c>
       <c r="AZ5">
-        <v>0.006247849415054831</v>
+        <v>0.006055411217325575</v>
       </c>
       <c r="BA5">
-        <v>0.006349209467733297</v>
+        <v>0.006152665640683353</v>
       </c>
       <c r="BB5">
-        <v>0.006414021651609424</v>
+        <v>0.006213342782596654</v>
       </c>
       <c r="BC5">
-        <v>0.006432524691003086</v>
+        <v>0.006227673511799846</v>
       </c>
       <c r="BD5">
-        <v>0.006476076236575917</v>
+        <v>0.006267072905477957</v>
       </c>
       <c r="BE5">
-        <v>0.006573284678390429</v>
+        <v>0.006360172376878344</v>
       </c>
       <c r="BF5">
-        <v>0.00659900173854769</v>
+        <v>0.006381722932475341</v>
       </c>
       <c r="BG5">
-        <v>0.006604722565960221</v>
+        <v>0.006383261162951852</v>
       </c>
       <c r="BH5">
-        <v>0.00661059053146793</v>
+        <v>0.006384946649935922</v>
       </c>
       <c r="BI5">
-        <v>0.006629406018851353</v>
+        <v>0.006399590078577761</v>
       </c>
       <c r="BJ5">
-        <v>0.006632292821056754</v>
+        <v>0.006399590078577761</v>
       </c>
       <c r="BK5">
-        <v>0.006677609953571727</v>
+        <v>0.006440756480090083</v>
       </c>
       <c r="BL5">
-        <v>0.006709669192521157</v>
+        <v>0.006468654318476864</v>
       </c>
       <c r="BM5">
-        <v>0.006748641603244045</v>
+        <v>0.006503470892152954</v>
       </c>
       <c r="BN5">
-        <v>0.00680918769325997</v>
+        <v>0.006559878506980091</v>
       </c>
       <c r="BO5">
-        <v>0.007022847476258413</v>
+        <v>0.006769523036154104</v>
       </c>
       <c r="BP5">
-        <v>0.007402187563827569</v>
+        <v>0.00714498120449993</v>
       </c>
       <c r="BQ5">
-        <v>0.007526355979758613</v>
+        <v>0.00726506234660537</v>
       </c>
       <c r="BR5">
-        <v>0.007562825912563506</v>
+        <v>0.00729737442844337</v>
       </c>
       <c r="BS5">
-        <v>0.00771472822758572</v>
+        <v>0.007445211789060395</v>
       </c>
       <c r="BT5">
-        <v>0.007929581010545068</v>
+        <v>0.007656050278286342</v>
       </c>
       <c r="BU5">
-        <v>0.007944158959067353</v>
+        <v>0.007666452757821299</v>
       </c>
       <c r="BV5">
-        <v>0.007952661922788713</v>
+        <v>0.007670775363587526</v>
       </c>
       <c r="BW5">
-        <v>0.007957272903937614</v>
+        <v>0.007671202854629011</v>
       </c>
       <c r="BX5">
-        <v>0.007974315968379119</v>
+        <v>0.007684072433935454</v>
       </c>
       <c r="BY5">
-        <v>0.008140987952917336</v>
+        <v>0.007846691350260979</v>
       </c>
       <c r="BZ5">
-        <v>0.008302440457626592</v>
+        <v>0.008004086586274798</v>
       </c>
       <c r="CA5">
-        <v>0.008388999160790094</v>
+        <v>0.008086527748429989</v>
       </c>
       <c r="CB5">
-        <v>0.008549675885524773</v>
+        <v>0.008243146580144488</v>
       </c>
       <c r="CC5">
-        <v>0.008656018972039946</v>
+        <v>0.00834538804753699</v>
       </c>
       <c r="CD5">
-        <v>0.008684216146115935</v>
+        <v>0.008369420712974928</v>
       </c>
       <c r="CE5">
-        <v>0.008845668650825192</v>
+        <v>0.008526815948988747</v>
       </c>
       <c r="CF5">
-        <v>0.00929006517626247</v>
+        <v>0.008967382910696698</v>
       </c>
       <c r="CG5">
-        <v>0.009538528408120415</v>
+        <v>0.009211858897514859</v>
       </c>
       <c r="CH5">
-        <v>0.009623765225327234</v>
+        <v>0.009292977109898709</v>
       </c>
       <c r="CI5">
-        <v>0.00980439647940801</v>
+        <v>0.009469566529773401</v>
       </c>
       <c r="CJ5">
-        <v>0.009808433668975712</v>
+        <v>0.009469566529773401</v>
       </c>
       <c r="CK5">
-        <v>0.009833739078146463</v>
+        <v>0.009490705103099368</v>
       </c>
       <c r="CL5">
-        <v>0.009834044256866462</v>
+        <v>0.009490705103099368</v>
       </c>
       <c r="CM5">
-        <v>0.009860432102001741</v>
+        <v>0.009512926983502264</v>
       </c>
       <c r="CN5">
-        <v>0.0117601207397496</v>
+        <v>0.01140995723350204</v>
       </c>
       <c r="CO5">
-        <v>0.09922678287349729</v>
+        <v>0.09894282274498384</v>
       </c>
       <c r="CP5">
-        <v>0.09927066447805931</v>
+        <v>0.09898255246327282</v>
       </c>
       <c r="CQ5">
-        <v>0.1318392934107966</v>
+        <v>0.1315732044628922</v>
       </c>
       <c r="CR5">
-        <v>0.1779129079009801</v>
+        <v>0.1776797104322704</v>
       </c>
       <c r="CS5">
-        <v>0.178591100978756</v>
+        <v>0.1783542620988564</v>
       </c>
       <c r="CT5">
-        <v>0.1836997544113472</v>
+        <v>0.1834628396235058</v>
       </c>
       <c r="CU5">
-        <v>0.1853395143576128</v>
+        <v>0.1850997319991124</v>
       </c>
       <c r="CV5">
-        <v>0.1920917467363445</v>
+        <v>0.1918532111735498</v>
       </c>
       <c r="CW5">
-        <v>0.2537283377165347</v>
+        <v>0.2535352182553851</v>
       </c>
       <c r="CX5">
-        <v>0.2685740562300456</v>
+        <v>0.2683886969624861</v>
       </c>
       <c r="CY5">
-        <v>0.3501243235576715</v>
+        <v>0.35000040632857</v>
       </c>
       <c r="CZ5">
-        <v>0.3502770934926653</v>
+        <v>0.3501491120073935</v>
       </c>
       <c r="DA5">
-        <v>0.3557337173138536</v>
+        <v>0.3556059399569008</v>
       </c>
       <c r="DB5">
-        <v>0.4167876853131361</v>
+        <v>0.4167048551801126</v>
       </c>
       <c r="DC5">
-        <v>0.4181247627693206</v>
+        <v>0.4180388214757365</v>
       </c>
       <c r="DD5">
-        <v>0.5298625691077112</v>
+        <v>0.5298623638897226</v>
       </c>
       <c r="DE5">
-        <v>0.5304055355899184</v>
+        <v>0.5304015801343817</v>
       </c>
       <c r="DF5">
-        <v>0.5422457822019177</v>
+        <v>0.542247168225217</v>
       </c>
       <c r="DG5">
-        <v>0.5443468041330679</v>
+        <v>0.5443456937956895</v>
       </c>
       <c r="DH5">
-        <v>0.5443481821310228</v>
+        <v>0.5443456937956895</v>
       </c>
       <c r="DI5">
-        <v>0.5546261727942166</v>
+        <v>0.5546277686804113</v>
       </c>
       <c r="DJ5">
-        <v>0.5604274006041123</v>
+        <v>0.5604294779457077</v>
       </c>
       <c r="DK5">
-        <v>0.5607737586727624</v>
+        <v>0.5607719275521826</v>
       </c>
       <c r="DL5">
-        <v>0.5615226865482202</v>
+        <v>0.5615172709417204</v>
       </c>
       <c r="DM5">
-        <v>0.6056192651031906</v>
+        <v>0.6056451499159314</v>
       </c>
       <c r="DN5">
-        <v>0.6062515672824703</v>
+        <v>0.6062737737523856</v>
       </c>
       <c r="DO5">
-        <v>0.6211295757949231</v>
+        <v>0.6211595684444631</v>
       </c>
       <c r="DP5">
-        <v>0.6215105049324402</v>
+        <v>0.6215366169415771</v>
       </c>
       <c r="DQ5">
-        <v>0.6224068760030664</v>
+        <v>0.622429522184199</v>
       </c>
       <c r="DR5">
-        <v>0.624697425128006</v>
+        <v>0.6247177274743319</v>
       </c>
       <c r="DS5">
-        <v>0.6251838106820673</v>
+        <v>0.6252003172561902</v>
       </c>
       <c r="DT5">
-        <v>0.6252526194838125</v>
+        <v>0.6252649942323322</v>
       </c>
       <c r="DU5">
-        <v>0.6282297630862526</v>
+        <v>0.6282403465508618</v>
       </c>
       <c r="DV5">
-        <v>0.6303829861156922</v>
+        <v>0.6303911152295212</v>
       </c>
       <c r="DW5">
-        <v>0.6362317209240312</v>
+        <v>0.6362403697254859</v>
       </c>
       <c r="DX5">
-        <v>0.6475415045534135</v>
+        <v>0.6475550679328101</v>
       </c>
       <c r="DY5">
-        <v>0.6489610257068963</v>
+        <v>0.6489715442739777</v>
       </c>
       <c r="DZ5">
-        <v>0.649287007136214</v>
+        <v>0.6492936008426046</v>
       </c>
       <c r="EA5">
-        <v>0.6497112561223115</v>
+        <v>0.6497140040508299</v>
       </c>
       <c r="EB5">
-        <v>0.6497130707284521</v>
+        <v>0.6497140040508299</v>
       </c>
       <c r="EC5">
-        <v>0.6526629839317845</v>
+        <v>0.6526621040560333</v>
       </c>
       <c r="ED5">
-        <v>0.6567604977975103</v>
+        <v>0.6567587282786475</v>
       </c>
       <c r="EE5">
-        <v>0.6568413804248598</v>
+        <v>0.656835488797051</v>
       </c>
       <c r="EF5">
-        <v>0.6568590173892819</v>
+        <v>0.6568489527542911</v>
       </c>
       <c r="EG5">
-        <v>0.6594126475056002</v>
+        <v>0.6594004507555914</v>
       </c>
       <c r="EH5">
-        <v>0.6668081228632531</v>
+        <v>0.6667976905718442</v>
       </c>
       <c r="EI5">
-        <v>0.6701557212535535</v>
+        <v>0.6701437958092733</v>
       </c>
       <c r="EJ5">
-        <v>0.6701689658541194</v>
+        <v>0.670152863867813</v>
       </c>
       <c r="EK5">
-        <v>0.6713749784145988</v>
+        <v>0.6713556597905864</v>
       </c>
       <c r="EL5">
-        <v>0.671649310175609</v>
+        <v>0.6716260251247829</v>
       </c>
       <c r="EM5">
-        <v>0.6718345020095403</v>
+        <v>0.6718071787947276</v>
       </c>
       <c r="EN5">
-        <v>0.6720668553819261</v>
+        <v>0.672035531957336</v>
       </c>
       <c r="EO5">
-        <v>0.672304518704138</v>
+        <v>0.6722691993430607</v>
       </c>
       <c r="EP5">
-        <v>0.6745882466293011</v>
+        <v>0.6745505779439176</v>
       </c>
       <c r="EQ5">
-        <v>0.6767188380594823</v>
+        <v>0.676678696810078</v>
       </c>
       <c r="ER5">
-        <v>0.6769184411329414</v>
+        <v>0.6768742733172892</v>
       </c>
       <c r="ES5">
-        <v>0.6772896698507764</v>
+        <v>0.6772416135881107</v>
       </c>
       <c r="ET5">
-        <v>0.6772899316660979</v>
+        <v>0.6772416135881107</v>
       </c>
       <c r="EU5">
-        <v>0.6802216679700259</v>
+        <v>0.6801715220656797</v>
       </c>
       <c r="EV5">
-        <v>0.6857099451901769</v>
+        <v>0.6856600288878675</v>
       </c>
       <c r="EW5">
-        <v>0.6940978379153085</v>
+        <v>0.6940504847396977</v>
       </c>
       <c r="EX5">
-        <v>0.6985776124685079</v>
+        <v>0.6985296772818627</v>
       </c>
       <c r="EY5">
-        <v>0.6986963915846156</v>
+        <v>0.6986443647869959</v>
       </c>
       <c r="EZ5">
-        <v>0.699658244513096</v>
+        <v>0.6996028045853313</v>
       </c>
       <c r="FA5">
-        <v>0.7194848438633852</v>
+        <v>0.7194411725945572</v>
       </c>
       <c r="FB5">
-        <v>0.7522154627908141</v>
+        <v>0.7521939449536172</v>
       </c>
       <c r="FC5">
-        <v>0.7696972472179421</v>
+        <v>0.7696856110020933</v>
       </c>
       <c r="FD5">
-        <v>0.7767909769854831</v>
+        <v>0.7767808623923221</v>
       </c>
       <c r="FE5">
-        <v>0.7808390778528281</v>
+        <v>0.7808280338504382</v>
       </c>
       <c r="FF5">
-        <v>0.7852069820096934</v>
+        <v>0.7851952659662882</v>
       </c>
       <c r="FG5">
-        <v>0.7853040799815115</v>
+        <v>0.7852882548787892</v>
       </c>
       <c r="FH5">
-        <v>0.7857873250656757</v>
+        <v>0.7857677016633933</v>
       </c>
       <c r="FI5">
-        <v>0.7932118298223773</v>
+        <v>0.7931939942406953</v>
       </c>
       <c r="FJ5">
-        <v>0.8136296291532931</v>
+        <v>0.8136240380107788</v>
       </c>
       <c r="FK5">
-        <v>0.8379822983552645</v>
+        <v>0.8379921183186259</v>
       </c>
       <c r="FL5">
-        <v>0.8652571724614763</v>
+        <v>0.8652847552346545</v>
       </c>
       <c r="FM5">
-        <v>0.8725401492228156</v>
+        <v>0.8725694059190562</v>
       </c>
       <c r="FN5">
-        <v>0.8753929904293291</v>
+        <v>0.8754203558067731</v>
       </c>
       <c r="FO5">
-        <v>0.8790918776081178</v>
+        <v>0.8791180325395012</v>
       </c>
       <c r="FP5">
-        <v>0.8872591753404783</v>
+        <v>0.8872877158702448</v>
       </c>
       <c r="FQ5">
-        <v>0.887389549656206</v>
+        <v>0.8874140079064712</v>
       </c>
       <c r="FR5">
-        <v>0.8905237455534994</v>
+        <v>0.8905465389108888</v>
       </c>
       <c r="FS5">
-        <v>0.9065861890271387</v>
+        <v>0.9066177217623225</v>
       </c>
       <c r="FT5">
-        <v>0.9164046577053909</v>
+        <v>0.9164399048524217</v>
       </c>
       <c r="FU5">
-        <v>0.9235568548710159</v>
+        <v>0.9235936706935645</v>
       </c>
       <c r="FV5">
-        <v>0.9458727421397319</v>
+        <v>0.9459233299263928</v>
       </c>
       <c r="FW5">
-        <v>0.967734397423333</v>
+        <v>0.9677983916216605</v>
       </c>
       <c r="FX5">
-        <v>0.9764624051373192</v>
+        <v>0.9765292361768129</v>
       </c>
       <c r="FY5">
-        <v>0.9768324570451927</v>
+        <v>0.9768953986906111</v>
       </c>
       <c r="FZ5">
-        <v>0.9768413202329023</v>
+        <v>0.9769000818102632</v>
       </c>
       <c r="GA5">
-        <v>0.9770954520245745</v>
+        <v>0.9771502309187846</v>
       </c>
       <c r="GB5">
-        <v>0.979386001149514</v>
+        <v>0.9794384362089175</v>
       </c>
       <c r="GC5">
-        <v>0.9828675982354232</v>
+        <v>0.9829186479801362</v>
       </c>
       <c r="GD5">
-        <v>0.9852219711582713</v>
+        <v>0.9852707284316794</v>
       </c>
       <c r="GE5">
-        <v>0.9862647976240982</v>
+        <v>0.9863102069324655</v>
       </c>
       <c r="GF5">
-        <v>0.9865391293851085</v>
+        <v>0.986580572266662</v>
       </c>
       <c r="GG5">
-        <v>0.9885373520196274</v>
+        <v>0.9885762158106745</v>
       </c>
       <c r="GH5">
-        <v>0.9891745565587464</v>
+        <v>0.989209745952242</v>
       </c>
       <c r="GI5">
-        <v>0.9908826711027721</v>
+        <v>0.990915047935364</v>
       </c>
       <c r="GJ5">
-        <v>0.9964634123198931</v>
+        <v>0.9964960931668074</v>
       </c>
       <c r="GK5">
-        <v>0.9969529484538512</v>
+        <v>0.9969818360640559</v>
       </c>
       <c r="GL5">
-        <v>0.9970138835858544</v>
+        <v>0.9970386330339598</v>
       </c>
       <c r="GM5">
-        <v>0.9984311027394126</v>
+        <v>0.9984528055226214</v>
       </c>
       <c r="GN5">
-        <v>0.9991092958171884</v>
+        <v>0.9991273571892074</v>
       </c>
       <c r="GO5">
-        <v>0.9991757587350105</v>
+        <v>0.9991896863935285</v>
       </c>
       <c r="GP5">
-        <v>0.9994809481550095</v>
+        <v>0.9994909342200435</v>
       </c>
       <c r="GQ5">
-        <v>0.9999686827390266</v>
+        <v>0.9999748741175171</v>
       </c>
       <c r="GR5">
-        <v>0.9999707104879602</v>
+        <v>0.9999748741175171</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.782456244426784E-05</v>
+        <v>1.828469139648397E-05</v>
       </c>
       <c r="C6">
-        <v>2.978565767558016E-05</v>
+        <v>1.828469139648397E-05</v>
       </c>
       <c r="D6">
-        <v>2.984914102659378E-05</v>
+        <v>1.828469139648397E-05</v>
       </c>
       <c r="E6">
-        <v>4.288809223478346E-05</v>
+        <v>2.175687357489987E-05</v>
       </c>
       <c r="F6">
-        <v>5.246116638763434E-05</v>
+        <v>2.175687357489987E-05</v>
       </c>
       <c r="G6">
-        <v>0.0001420022678173147</v>
+        <v>0.0001018703786762925</v>
       </c>
       <c r="H6">
-        <v>0.000580290594815355</v>
+        <v>0.0005313655502523146</v>
       </c>
       <c r="I6">
-        <v>0.0007499129575236729</v>
+        <v>0.0006917060004521889</v>
       </c>
       <c r="J6">
-        <v>0.0009330910404484316</v>
+        <v>0.0008656268314329149</v>
       </c>
       <c r="K6">
-        <v>0.001213185374920628</v>
+        <v>0.001136640223992976</v>
       </c>
       <c r="L6">
-        <v>0.001621876731446101</v>
+        <v>0.001536484582291691</v>
       </c>
       <c r="M6">
-        <v>0.001739448563323341</v>
+        <v>0.001644679811341738</v>
       </c>
       <c r="N6">
-        <v>0.00177482391388817</v>
+        <v>0.001670529027251526</v>
       </c>
       <c r="O6">
-        <v>0.001968833736985877</v>
+        <v>0.001855301303505478</v>
       </c>
       <c r="P6">
-        <v>0.002083903364823165</v>
+        <v>0.001960989776506316</v>
       </c>
       <c r="Q6">
-        <v>0.002334530068824859</v>
+        <v>0.002202481931086451</v>
       </c>
       <c r="R6">
-        <v>0.002372719059434613</v>
+        <v>0.002231149905614758</v>
       </c>
       <c r="S6">
-        <v>0.002373889952753308</v>
+        <v>0.002231149905614758</v>
       </c>
       <c r="T6">
-        <v>0.00238211840588469</v>
+        <v>0.002231149905614758</v>
       </c>
       <c r="U6">
-        <v>0.002469599067281472</v>
+        <v>0.002309199222331019</v>
       </c>
       <c r="V6">
-        <v>0.002525111348167823</v>
+        <v>0.002355222001663286</v>
       </c>
       <c r="W6">
-        <v>0.002744307131667667</v>
+        <v>0.002565226056615182</v>
       </c>
       <c r="X6">
-        <v>0.003434839442693224</v>
+        <v>0.003247424094440843</v>
       </c>
       <c r="Y6">
-        <v>0.004044946152434645</v>
+        <v>0.003849050220739231</v>
       </c>
       <c r="Z6">
-        <v>0.004480112079382832</v>
+        <v>0.004275417311995645</v>
       </c>
       <c r="AA6">
-        <v>0.005099999759280423</v>
+        <v>0.004886842201989807</v>
       </c>
       <c r="AB6">
-        <v>0.005845858301189361</v>
+        <v>0.005624467120170696</v>
       </c>
       <c r="AC6">
-        <v>0.006242242707518332</v>
+        <v>0.006011982139470753</v>
       </c>
       <c r="AD6">
-        <v>0.006328857528901288</v>
+        <v>0.006089164041037152</v>
       </c>
       <c r="AE6">
-        <v>0.006450888360849724</v>
+        <v>0.006201826381970729</v>
       </c>
       <c r="AF6">
-        <v>0.006566097412689239</v>
+        <v>0.006307654532613919</v>
       </c>
       <c r="AG6">
-        <v>0.006641332113890492</v>
+        <v>0.006373435611285496</v>
       </c>
       <c r="AH6">
-        <v>0.006943189248710169</v>
+        <v>0.006666251395076529</v>
       </c>
       <c r="AI6">
-        <v>0.007052363390453326</v>
+        <v>0.006766033656915719</v>
       </c>
       <c r="AJ6">
-        <v>0.007063972722638689</v>
+        <v>0.006768073619308573</v>
       </c>
       <c r="AK6">
-        <v>0.007108266239345913</v>
+        <v>0.006802857225287413</v>
       </c>
       <c r="AL6">
-        <v>0.00713821016982402</v>
+        <v>0.006823265140271781</v>
       </c>
       <c r="AM6">
-        <v>0.007167648429294054</v>
+        <v>0.006843166464331444</v>
       </c>
       <c r="AN6">
-        <v>0.007216209062069409</v>
+        <v>0.006882224949115398</v>
       </c>
       <c r="AO6">
-        <v>0.007240028226449723</v>
+        <v>0.006896496955828305</v>
       </c>
       <c r="AP6">
-        <v>0.007333340377939615</v>
+        <v>0.006980388371283675</v>
       </c>
       <c r="AQ6">
-        <v>0.007526381941021862</v>
+        <v>0.007164190626063677</v>
       </c>
       <c r="AR6">
-        <v>0.007773349164965125</v>
+        <v>0.007402016643259747</v>
       </c>
       <c r="AS6">
-        <v>0.007916311487247769</v>
+        <v>0.007535648553091957</v>
       </c>
       <c r="AT6">
-        <v>0.007992151118458682</v>
+        <v>0.007602035662261786</v>
       </c>
       <c r="AU6">
-        <v>0.00819963653177155</v>
+        <v>0.007800308043522823</v>
       </c>
       <c r="AV6">
-        <v>0.008530791337059015</v>
+        <v>0.008122474796099855</v>
       </c>
       <c r="AW6">
-        <v>0.008700413699767333</v>
+        <v>0.00828281524629973</v>
       </c>
       <c r="AX6">
-        <v>0.008743632954457405</v>
+        <v>0.008316522635964099</v>
       </c>
       <c r="AY6">
-        <v>0.008743873507111246</v>
+        <v>0.008316522635964099</v>
       </c>
       <c r="AZ6">
-        <v>0.008776484542631939</v>
+        <v>0.008339602507988189</v>
       </c>
       <c r="BA6">
-        <v>0.008967455775681128</v>
+        <v>0.008521330666391014</v>
       </c>
       <c r="BB6">
-        <v>0.009014026012424703</v>
+        <v>0.008558395134214991</v>
       </c>
       <c r="BC6">
-        <v>0.009062677243201506</v>
+        <v>0.008597544381816265</v>
       </c>
       <c r="BD6">
-        <v>0.009241969936064227</v>
+        <v>0.008767572754433871</v>
       </c>
       <c r="BE6">
-        <v>0.009747530604136388</v>
+        <v>0.009264462648917929</v>
       </c>
       <c r="BF6">
-        <v>0.01001365448838552</v>
+        <v>0.009521480176213744</v>
       </c>
       <c r="BG6">
-        <v>0.01009391276966698</v>
+        <v>0.009592293973861743</v>
       </c>
       <c r="BH6">
-        <v>0.01024950337215126</v>
+        <v>0.009738577137261246</v>
       </c>
       <c r="BI6">
-        <v>0.01055563219703914</v>
+        <v>0.01003567238217849</v>
       </c>
       <c r="BJ6">
-        <v>0.01068759644914618</v>
+        <v>0.0101582862141473</v>
       </c>
       <c r="BK6">
-        <v>0.01069507354756557</v>
+        <v>0.0101582862141473</v>
       </c>
       <c r="BL6">
-        <v>0.0107007685416565</v>
+        <v>0.0101582862141473</v>
       </c>
       <c r="BM6">
-        <v>0.01074781496840768</v>
+        <v>0.01019582773826368</v>
       </c>
       <c r="BN6">
-        <v>0.01074873575992238</v>
+        <v>0.01019582773826368</v>
       </c>
       <c r="BO6">
-        <v>0.01074879924327339</v>
+        <v>0.01019582773826368</v>
       </c>
       <c r="BP6">
-        <v>0.01078607049686849</v>
+        <v>0.01022357630623028</v>
       </c>
       <c r="BQ6">
-        <v>0.01078732934348859</v>
+        <v>0.01022357630623028</v>
       </c>
       <c r="BR6">
-        <v>0.01088679067507667</v>
+        <v>0.01031362808837145</v>
       </c>
       <c r="BS6">
-        <v>0.01113230162899668</v>
+        <v>0.01054999518629803</v>
       </c>
       <c r="BT6">
-        <v>0.01127805143132383</v>
+        <v>0.01068641964715808</v>
       </c>
       <c r="BU6">
-        <v>0.01158111908616283</v>
+        <v>0.01098044815314629</v>
       </c>
       <c r="BV6">
-        <v>0.01170739971817913</v>
+        <v>0.01109736802538344</v>
       </c>
       <c r="BW6">
-        <v>0.01174558870878888</v>
+        <v>0.01112603599991175</v>
       </c>
       <c r="BX6">
-        <v>0.01182782105010186</v>
+        <v>0.01119882744880102</v>
       </c>
       <c r="BY6">
-        <v>0.01194970839204801</v>
+        <v>0.01131134603869531</v>
       </c>
       <c r="BZ6">
-        <v>0.01195349377590845</v>
+        <v>0.01131134603869531</v>
       </c>
       <c r="CA6">
-        <v>0.01200484177372831</v>
+        <v>0.01135319695929789</v>
       </c>
       <c r="CB6">
-        <v>0.01223956805747612</v>
+        <v>0.01157875976758174</v>
       </c>
       <c r="CC6">
-        <v>0.01226900631694616</v>
+        <v>0.0115986610916414</v>
       </c>
       <c r="CD6">
-        <v>0.01237116040857723</v>
+        <v>0.01169141053249427</v>
       </c>
       <c r="CE6">
-        <v>0.01238150652374242</v>
+        <v>0.01169218497982272</v>
       </c>
       <c r="CF6">
-        <v>0.01238666131012472</v>
+        <v>0.01169218497982272</v>
       </c>
       <c r="CG6">
-        <v>0.01249022719777833</v>
+        <v>0.01178634878503728</v>
       </c>
       <c r="CH6">
-        <v>0.01261149036971451</v>
+        <v>0.0118982420694316</v>
       </c>
       <c r="CI6">
-        <v>0.01262060673686007</v>
+        <v>0.0118982420694316</v>
       </c>
       <c r="CJ6">
-        <v>0.01262558191293951</v>
+        <v>0.0118982420694316</v>
       </c>
       <c r="CK6">
-        <v>0.01281751620600408</v>
+        <v>0.01208093503984846</v>
       </c>
       <c r="CL6">
-        <v>0.01306724753999147</v>
+        <v>0.01232153019555728</v>
       </c>
       <c r="CM6">
-        <v>0.01324313929279989</v>
+        <v>0.01248815144113089</v>
       </c>
       <c r="CN6">
-        <v>0.01456846811396109</v>
+        <v>0.01380630081081882</v>
       </c>
       <c r="CO6">
-        <v>0.02547987128818074</v>
+        <v>0.02472796351875056</v>
       </c>
       <c r="CP6">
-        <v>0.05131800270073172</v>
+        <v>0.05060350916703524</v>
       </c>
       <c r="CQ6">
-        <v>0.08376175021875294</v>
+        <v>0.08309668785672876</v>
       </c>
       <c r="CR6">
-        <v>0.1470773212296969</v>
+        <v>0.1465178520565284</v>
       </c>
       <c r="CS6">
-        <v>0.1680237735641436</v>
+        <v>0.167492819684782</v>
       </c>
       <c r="CT6">
-        <v>0.1791592777419415</v>
+        <v>0.1786389910808077</v>
       </c>
       <c r="CU6">
-        <v>0.1816912753823692</v>
+        <v>0.1811660044415174</v>
       </c>
       <c r="CV6">
-        <v>0.1828793054013382</v>
+        <v>0.1823466052350504</v>
       </c>
       <c r="CW6">
-        <v>0.1894623415064479</v>
+        <v>0.188932026709077</v>
       </c>
       <c r="CX6">
-        <v>0.189610216538809</v>
+        <v>0.1890705802661892</v>
       </c>
       <c r="CY6">
-        <v>0.2941766882083957</v>
+        <v>0.2938176887576116</v>
       </c>
       <c r="CZ6">
-        <v>0.2956162389313807</v>
+        <v>0.2952502678215918</v>
       </c>
       <c r="DA6">
-        <v>0.2983300039747107</v>
+        <v>0.2979593792564388</v>
       </c>
       <c r="DB6">
-        <v>0.3604570209666772</v>
+        <v>0.3601898272199482</v>
       </c>
       <c r="DC6">
-        <v>0.3695511251118805</v>
+        <v>0.3692908848687123</v>
       </c>
       <c r="DD6">
-        <v>0.4347723021532507</v>
+        <v>0.4346211217771748</v>
       </c>
       <c r="DE6">
-        <v>0.455420977482943</v>
+        <v>0.4552977706847865</v>
       </c>
       <c r="DF6">
-        <v>0.4740083057797222</v>
+        <v>0.4739093225572377</v>
       </c>
       <c r="DG6">
-        <v>0.4744235898863529</v>
+        <v>0.4743157716591718</v>
       </c>
       <c r="DH6">
-        <v>0.4747256728411762</v>
+        <v>0.4746088136737781</v>
       </c>
       <c r="DI6">
-        <v>0.4769310421763888</v>
+        <v>0.4768086045271033</v>
       </c>
       <c r="DJ6">
-        <v>0.4876796193480086</v>
+        <v>0.487567145019393</v>
       </c>
       <c r="DK6">
-        <v>0.4880167112933909</v>
+        <v>0.4878952597129093</v>
       </c>
       <c r="DL6">
-        <v>0.4880270156615554</v>
+        <v>0.4878959923372909</v>
       </c>
       <c r="DM6">
-        <v>0.5299538993309915</v>
+        <v>0.5298895588984219</v>
       </c>
       <c r="DN6">
-        <v>0.5443559640609457</v>
+        <v>0.5443082333731251</v>
       </c>
       <c r="DO6">
-        <v>0.5624843523503971</v>
+        <v>0.5624600103346483</v>
       </c>
       <c r="DP6">
-        <v>0.5647263060861938</v>
+        <v>0.5646964521428943</v>
       </c>
       <c r="DQ6">
-        <v>0.5654402000675923</v>
+        <v>0.5654020543506406</v>
       </c>
       <c r="DR6">
-        <v>0.566513159984724</v>
+        <v>0.5664673757068225</v>
       </c>
       <c r="DS6">
-        <v>0.5674198438492007</v>
+        <v>0.5673661185209766</v>
       </c>
       <c r="DT6">
-        <v>0.5677810178749675</v>
+        <v>0.5677183591049949</v>
       </c>
       <c r="DU6">
-        <v>0.567795207087194</v>
+        <v>0.5677229836407464</v>
       </c>
       <c r="DV6">
-        <v>0.5704440994294881</v>
+        <v>0.5703671043581485</v>
       </c>
       <c r="DW6">
-        <v>0.5753626408080212</v>
+        <v>0.5752850030570138</v>
       </c>
       <c r="DX6">
-        <v>0.5867418399897101</v>
+        <v>0.5866753127868491</v>
       </c>
       <c r="DY6">
-        <v>0.5867713487821813</v>
+        <v>0.5866952847722235</v>
       </c>
       <c r="DZ6">
-        <v>0.5890370492183572</v>
+        <v>0.5889555164808429</v>
       </c>
       <c r="EA6">
-        <v>0.5890608683827375</v>
+        <v>0.5889697884875558</v>
       </c>
       <c r="EB6">
-        <v>0.5891224134677202</v>
+        <v>0.5890218550458608</v>
       </c>
       <c r="EC6">
-        <v>0.5926105555234145</v>
+        <v>0.5925067522396298</v>
       </c>
       <c r="ED6">
-        <v>0.5999581380407315</v>
+        <v>0.5998581109885949</v>
       </c>
       <c r="EE6">
-        <v>0.5999752194270043</v>
+        <v>0.5998656329598352</v>
       </c>
       <c r="EF6">
-        <v>0.6010459005440996</v>
+        <v>0.600928671370388</v>
       </c>
       <c r="EG6">
-        <v>0.6034019352817178</v>
+        <v>0.6032794017165988</v>
       </c>
       <c r="EH6">
-        <v>0.6105539539959123</v>
+        <v>0.6104348408927968</v>
       </c>
       <c r="EI6">
-        <v>0.6139915813508</v>
+        <v>0.6138691314894222</v>
       </c>
       <c r="EJ6">
-        <v>0.6148127504639114</v>
+        <v>0.6146822039837867</v>
       </c>
       <c r="EK6">
-        <v>0.6153211528720289</v>
+        <v>0.6151819407880093</v>
       </c>
       <c r="EL6">
-        <v>0.616433220889785</v>
+        <v>0.616286441390267</v>
       </c>
       <c r="EM6">
-        <v>0.6180106022149707</v>
+        <v>0.6178571017978611</v>
       </c>
       <c r="EN6">
-        <v>0.6184537610920465</v>
+        <v>0.618291476380019</v>
       </c>
       <c r="EO6">
-        <v>0.6184959192677196</v>
+        <v>0.6183241207603516</v>
       </c>
       <c r="EP6">
-        <v>0.6234928723475047</v>
+        <v>0.6233205738070253</v>
       </c>
       <c r="EQ6">
-        <v>0.6277881784160868</v>
+        <v>0.6276141034063468</v>
       </c>
       <c r="ER6">
-        <v>0.6286500218998476</v>
+        <v>0.6284679242661704</v>
       </c>
       <c r="ES6">
-        <v>0.6288773430334772</v>
+        <v>0.6286860684528879</v>
       </c>
       <c r="ET6">
-        <v>0.6288817867435481</v>
+        <v>0.6286860684528879</v>
       </c>
       <c r="EU6">
-        <v>0.6312563717814625</v>
+        <v>0.6310553828460986</v>
       </c>
       <c r="EV6">
-        <v>0.6364053468636749</v>
+        <v>0.6362041344536062</v>
       </c>
       <c r="EW6">
-        <v>0.6441080079866613</v>
+        <v>0.6439112177671928</v>
       </c>
       <c r="EX6">
-        <v>0.6540183551448974</v>
+        <v>0.6538300033381701</v>
       </c>
       <c r="EY6">
-        <v>0.6550203331608957</v>
+        <v>0.6548242136629535</v>
       </c>
       <c r="EZ6">
-        <v>0.6550453630462953</v>
+        <v>0.6548396985932292</v>
       </c>
       <c r="FA6">
-        <v>0.6729512783321946</v>
+        <v>0.6727685978283419</v>
       </c>
       <c r="FB6">
-        <v>0.7231557291337966</v>
+        <v>0.7230547900706623</v>
       </c>
       <c r="FC6">
-        <v>0.7626902097650338</v>
+        <v>0.7626516013343062</v>
       </c>
       <c r="FD6">
-        <v>0.775723180973128</v>
+        <v>0.7756986916323969</v>
       </c>
       <c r="FE6">
-        <v>0.7835393880979274</v>
+        <v>0.7835195275106679</v>
       </c>
       <c r="FF6">
-        <v>0.7915890932264551</v>
+        <v>0.7915742861722044</v>
       </c>
       <c r="FG6">
-        <v>0.7938503784625605</v>
+        <v>0.7938300946486218</v>
       </c>
       <c r="FH6">
-        <v>0.7938537259101139</v>
+        <v>0.7938300946486218</v>
       </c>
       <c r="FI6">
-        <v>0.7966466189547073</v>
+        <v>0.7966184780343816</v>
       </c>
       <c r="FJ6">
-        <v>0.8051553030905634</v>
+        <v>0.8051330506777954</v>
       </c>
       <c r="FK6">
-        <v>0.8252721594117642</v>
+        <v>0.8252769130918463</v>
       </c>
       <c r="FL6">
-        <v>0.8560961599039234</v>
+        <v>0.8561473981121042</v>
       </c>
       <c r="FM6">
-        <v>0.8678672340918692</v>
+        <v>0.8679302957471556</v>
       </c>
       <c r="FN6">
-        <v>0.8727516651698577</v>
+        <v>0.8728140220920221</v>
       </c>
       <c r="FO6">
-        <v>0.8813117893065351</v>
+        <v>0.8813801283158998</v>
       </c>
       <c r="FP6">
-        <v>0.8974931295648985</v>
+        <v>0.8975813151768164</v>
       </c>
       <c r="FQ6">
-        <v>0.9011035089225445</v>
+        <v>0.9011886720466206</v>
       </c>
       <c r="FR6">
-        <v>0.901473555168453</v>
+        <v>0.9015498009911221</v>
       </c>
       <c r="FS6">
-        <v>0.907720284268193</v>
+        <v>0.9077983036501197</v>
       </c>
       <c r="FT6">
-        <v>0.9178059184292278</v>
+        <v>0.9178926951059879</v>
       </c>
       <c r="FU6">
-        <v>0.9225768009054033</v>
+        <v>0.9226626662814401</v>
       </c>
       <c r="FV6">
-        <v>0.9411026942012016</v>
+        <v>0.9412126713903648</v>
       </c>
       <c r="FW6">
-        <v>0.9650579265836888</v>
+        <v>0.9652018926389212</v>
       </c>
       <c r="FX6">
-        <v>0.9761532187608446</v>
+        <v>0.9763077788806387</v>
       </c>
       <c r="FY6">
-        <v>0.9776935571854388</v>
+        <v>0.9778413289992015</v>
       </c>
       <c r="FZ6">
-        <v>0.9777514170023627</v>
+        <v>0.9778897035852085</v>
       </c>
       <c r="GA6">
-        <v>0.9777575382578604</v>
+        <v>0.9778897035852085</v>
       </c>
       <c r="GB6">
-        <v>0.9796576933881996</v>
+        <v>0.9797837249880196</v>
       </c>
       <c r="GC6">
-        <v>0.9847551888695901</v>
+        <v>0.9848809033430223</v>
       </c>
       <c r="GD6">
-        <v>0.9869015137038599</v>
+        <v>0.9870215422816564</v>
       </c>
       <c r="GE6">
-        <v>0.9889997427373618</v>
+        <v>0.9891139979236483</v>
       </c>
       <c r="GF6">
-        <v>0.989030068748846</v>
+        <v>0.9891347886147205</v>
       </c>
       <c r="GG6">
-        <v>0.9896455971586741</v>
+        <v>0.9897418463042615</v>
       </c>
       <c r="GH6">
-        <v>0.9910702221814207</v>
+        <v>0.9911594725151716</v>
       </c>
       <c r="GI6">
-        <v>0.9911113324740771</v>
+        <v>0.9911910671061788</v>
       </c>
       <c r="GJ6">
-        <v>0.9941779114230405</v>
+        <v>0.9942536342856692</v>
       </c>
       <c r="GK6">
-        <v>0.9944580057575126</v>
+        <v>0.9945246476782292</v>
       </c>
       <c r="GL6">
-        <v>0.9950698328372816</v>
+        <v>0.9951279973042521</v>
       </c>
       <c r="GM6">
-        <v>0.9971612236706743</v>
+        <v>0.997213602306082</v>
       </c>
       <c r="GN6">
-        <v>0.9991988530032085</v>
+        <v>0.9992453480041384</v>
       </c>
       <c r="GO6">
-        <v>0.9995970871795671</v>
+        <v>0.9996347161585695</v>
       </c>
       <c r="GP6">
-        <v>0.9996822913309276</v>
+        <v>0.9997104848238226</v>
       </c>
       <c r="GQ6">
-        <v>0.9999482032851733</v>
+        <v>0.9999672900355721</v>
       </c>
       <c r="GR6">
-        <v>0.9999795028796731</v>
+        <v>0.9999890560808019</v>
       </c>
       <c r="GS6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GT6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GU6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GV6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GW6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GX6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GY6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GZ6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HA6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HB6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HC6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HD6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HE6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HF6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HG6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HH6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HI6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HJ6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HK6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HL6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HM6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HN6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HO6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HP6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HQ6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HR6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HS6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HT6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HU6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HV6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HW6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HX6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HY6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HZ6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IA6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IB6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IC6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ID6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IE6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IF6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IG6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IH6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="II6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IJ6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IK6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IL6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IM6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IN6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IO6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IP6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IQ6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IR6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IS6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IT6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IU6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IV6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IW6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>107</v>
       </c>
       <c r="E2">
-        <v>0.01399221542688753</v>
+        <v>0.07442180286611524</v>
       </c>
       <c r="F2">
-        <v>0.5767359721248492</v>
+        <v>0.5769062127522007</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>32</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>108</v>
       </c>
       <c r="E3">
-        <v>0.008776703546993139</v>
+        <v>0.05679884687919932</v>
       </c>
       <c r="F3">
-        <v>0.5085448058369501</v>
+        <v>0.5088205816379606</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>32</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>107</v>
       </c>
       <c r="E4">
-        <v>0.006224712153941683</v>
+        <v>0.005406384734211371</v>
       </c>
       <c r="F4">
-        <v>0.5477595173540903</v>
+        <v>0.5478477544080055</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>107</v>
       </c>
       <c r="E5">
-        <v>0.009833739078146463</v>
+        <v>0.009512926983502264</v>
       </c>
       <c r="F5">
-        <v>0.5298625691077112</v>
+        <v>0.5298623638897226</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>32</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D6">
         <v>116</v>
       </c>
       <c r="E6">
-        <v>0.01324313929279989</v>
+        <v>0.05060350916703524</v>
       </c>
       <c r="F6">
-        <v>0.5299538993309915</v>
+        <v>0.5298895588984219</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>136</v>
       </c>
       <c r="E2">
-        <v>0.01399221542688753</v>
+        <v>0.07442180286611524</v>
       </c>
       <c r="F2">
-        <v>0.7035428491893491</v>
+        <v>0.7036409456541161</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>32</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>152</v>
       </c>
       <c r="E3">
-        <v>0.008776703546993139</v>
+        <v>0.05679884687919932</v>
       </c>
       <c r="F3">
-        <v>0.7045039794936839</v>
+        <v>0.7043415101263297</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>32</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>147</v>
       </c>
       <c r="E4">
-        <v>0.006224712153941683</v>
+        <v>0.005406384734211371</v>
       </c>
       <c r="F4">
-        <v>0.7006768088673592</v>
+        <v>0.7006508400567139</v>
       </c>
       <c r="G4">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>156</v>
       </c>
       <c r="E5">
-        <v>0.009833739078146463</v>
+        <v>0.009512926983502264</v>
       </c>
       <c r="F5">
-        <v>0.7194848438633852</v>
+        <v>0.7194411725945572</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H5">
         <v>32</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D6">
         <v>157</v>
       </c>
       <c r="E6">
-        <v>0.01324313929279989</v>
+        <v>0.05060350916703524</v>
       </c>
       <c r="F6">
-        <v>0.7231557291337966</v>
+        <v>0.7230547900706623</v>
       </c>
       <c r="G6">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>158</v>
       </c>
       <c r="E2">
-        <v>0.01399221542688753</v>
+        <v>0.07442180286611524</v>
       </c>
       <c r="F2">
-        <v>0.8056640111354562</v>
+        <v>0.8057248163222684</v>
       </c>
       <c r="G2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>32</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>157</v>
       </c>
       <c r="E3">
-        <v>0.008776703546993139</v>
+        <v>0.05679884687919932</v>
       </c>
       <c r="F3">
-        <v>0.8030257688670444</v>
+        <v>0.8034422926739483</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <v>32</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>157</v>
       </c>
       <c r="E4">
-        <v>0.006224712153941683</v>
+        <v>0.005406384734211371</v>
       </c>
       <c r="F4">
-        <v>0.806640761598718</v>
+        <v>0.8067256066040742</v>
       </c>
       <c r="G4">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>165</v>
       </c>
       <c r="E5">
-        <v>0.009833739078146463</v>
+        <v>0.009512926983502264</v>
       </c>
       <c r="F5">
-        <v>0.8136296291532931</v>
+        <v>0.8136240380107788</v>
       </c>
       <c r="G5">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5">
         <v>32</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D6">
         <v>165</v>
       </c>
       <c r="E6">
-        <v>0.01324313929279989</v>
+        <v>0.05060350916703524</v>
       </c>
       <c r="F6">
-        <v>0.8051553030905634</v>
+        <v>0.8051330506777954</v>
       </c>
       <c r="G6">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>174</v>
       </c>
       <c r="E2">
-        <v>0.01399221542688753</v>
+        <v>0.07442180286611524</v>
       </c>
       <c r="F2">
-        <v>0.9125657425407719</v>
+        <v>0.9127077258142108</v>
       </c>
       <c r="G2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H2">
         <v>32</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>170</v>
       </c>
       <c r="E3">
-        <v>0.008776703546993139</v>
+        <v>0.05679884687919932</v>
       </c>
       <c r="F3">
-        <v>0.9072867156772809</v>
+        <v>0.9079361652831891</v>
       </c>
       <c r="G3">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H3">
         <v>32</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>167</v>
       </c>
       <c r="E4">
-        <v>0.006224712153941683</v>
+        <v>0.005406384734211371</v>
       </c>
       <c r="F4">
-        <v>0.9009491799802516</v>
+        <v>0.9011125263284727</v>
       </c>
       <c r="G4">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>174</v>
       </c>
       <c r="E5">
-        <v>0.009833739078146463</v>
+        <v>0.009512926983502264</v>
       </c>
       <c r="F5">
-        <v>0.9065861890271387</v>
+        <v>0.9066177217623225</v>
       </c>
       <c r="G5">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H5">
         <v>32</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D6">
         <v>172</v>
       </c>
       <c r="E6">
-        <v>0.01324313929279989</v>
+        <v>0.05060350916703524</v>
       </c>
       <c r="F6">
-        <v>0.9011035089225445</v>
+        <v>0.9011886720466206</v>
       </c>
       <c r="G6">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H6">
         <v>32</v>

--- a/on_trucks/Processed_Stand_Alone/32_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/32_11R22.xlsx
@@ -1994,37 +1994,37 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001160277901851753</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002202786861908481</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0001709263995346799</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0002921774740488584</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0003065758542922259</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0001663097561602252</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>9.919768095991325E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0001555346128847542</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.949287812368789E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.423846276342035E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.32497260660253E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -2036,94 +2036,94 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.000125433894285006</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0001948025843735971</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0001530791341792811</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0002660353770270008</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0002453484551106916</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0002660353770270008</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0002453484551106916</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.000253872038337699</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0002629693258249004</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0001769783265629151</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>9.251638124212495E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>5.123934661847702E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.363023515081861E-06</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>8.302534279511325E-06</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>2.879421300793904E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>6.425554409973899E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0001431051128084901</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0001511140250831513</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0002967861239563823</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0003427731108874717</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0002283854758102741</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0002441660739188013</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0002678830012151919</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0002513860701222265</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.000177414276408687</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0002259390336339159</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0001709263995346799</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>7.486661068480332E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>3.368575341514874E-06</v>
+        <v>0</v>
       </c>
       <c r="AT2">
         <v>0</v>
@@ -2132,43 +2132,43 @@
         <v>0</v>
       </c>
       <c r="AV2">
-        <v>2.895676020812368E-06</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>5.646619140012816E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0002525847491607448</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0003078926200053276</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0002934644723719343</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0003357718267710723</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0003240957786517818</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0003221689519437006</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0003060124101533247</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0002555931912360569</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0002324078545641734</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0001517226719265156</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>1.129558717582888E-05</v>
+        <v>0</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -2177,40 +2177,40 @@
         <v>0</v>
       </c>
       <c r="BK2">
-        <v>2.758474228759197E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0001142332819328254</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0001362592850753116</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0001759629456443804</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0001785064126627566</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0002174736713297858</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0002921774740488584</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0003343994177022216</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0003547634316369706</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.000148757697461841</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>8.378110152422489E-05</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>4.082705358560983E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -2228,370 +2228,370 @@
         <v>0</v>
       </c>
       <c r="CB2">
-        <v>2.353281879732534E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>5.937982514056356E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0001483554666070619</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0001100354280253239</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>9.830268345865604E-05</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0002051757375009469</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0001599437972084395</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0001394352188667391</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0001349082788401249</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0001088654131379827</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>9.960908875602442E-06</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>1.322172185226856E-05</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.0002040883652328148</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.06145100148508056</v>
+        <v>0.09627488232313396</v>
       </c>
       <c r="CP2">
-        <v>0.0002146061128554482</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.04283529717442137</v>
+        <v>0.0391577045820729</v>
       </c>
       <c r="CR2">
-        <v>0.04217125069079922</v>
+        <v>0.03712026026084699</v>
       </c>
       <c r="CS2">
-        <v>0.00501460124476067</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.0002673544996594611</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.0008860231647249865</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.01286502954791692</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.08190545793769874</v>
+        <v>0.1590337661829311</v>
       </c>
       <c r="CX2">
-        <v>0.005083166837144098</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.08698625395467482</v>
+        <v>0.1746227938299556</v>
       </c>
       <c r="CZ2">
-        <v>0.001353878026086414</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.00124268569165716</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.07697461213914435</v>
+        <v>0.1439048196123449</v>
       </c>
       <c r="DC2">
-        <v>0.0005760023969805846</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.1441081904675612</v>
+        <v>0.3498857732087146</v>
       </c>
       <c r="DE2">
-        <v>0.001237305396381104</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.02392561280775849</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.003641930507713883</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>6.660888294671391E-05</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.002478365154681991</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.001924709753201633</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.0003912851307187206</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.0004095423295419509</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.02745903209215204</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.0002271607202171509</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.01433081524850206</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.000352650899742327</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.003932162159287575</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.003743647123671956</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.0007178335497433011</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>2.585243363858538E-05</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.002225957746151446</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.002196307700621378</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.003999895608695787</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.01049260767769334</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.001952485897400024</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.001850474215197154</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0002870564900494586</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.0001060220155944309</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.005192553269872528</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.007722799174180722</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.0003772584617318004</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.0008077775039472726</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.004659022950880632</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.008552322458602919</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.00255079408892456</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>5.496519482874346E-05</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.001162291172338349</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.0009321917046527899</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.0003981778160146351</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.0003649061382277225</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.0004004170197879936</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.00252275306710805</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.003909165546664922</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.0006153471338344066</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.0001708549397456186</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.0003046058508273857</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.004465591180894278</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.00584836227018947</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.007713128784199971</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.007112996938858592</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.0004960095568971283</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>4.421300594193559E-05</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.01376328310819431</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.02681191731602366</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.01388957637539521</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.00664821514931012</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.006036707707905718</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.006091827326084942</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.0005213001240283662</v>
+        <v>0</v>
       </c>
       <c r="FH2">
         <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.003006853170663286</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.01632091721780393</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.01958498775790684</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.02011266288744555</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.003887871733057963</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.000912947658679429</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.001389762674939169</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.005936909925188796</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>7.481689473050484E-05</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.003008581143583617</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.01344854812061401</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.008528105362930321</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.006926775235926024</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.02087075045347229</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.01376328310819431</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.00607751330349572</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.0004908125697704999</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>8.268920998859088E-05</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.000945942323220886</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.00308070608537616</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.004701723008162674</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.002682146709190992</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.001853641914814993</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.0006588110736952642</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.003016937074623404</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.00230220679534918</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.002064131462407198</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.005518323755067139</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0008076271024038673</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>4.769801009092769E-05</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.001389959252043113</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.0007137274953374525</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0002830629860650621</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>7.732035830822842E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0001672992209952604</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0001474187767067692</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>9.366153815231691E-05</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2770,43 +2770,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.532600745498384E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001335686156374419</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>7.670115307709303E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0002275280941085856</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007472423360600285</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0005551941753131087</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001482687284050057</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0001836930497639789</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0004458907251471269</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0001482687284050057</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.103194118838019E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3.039629045153039E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.657397871304827E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2818,37 +2818,37 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>4.682911793290312E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0001413608706337483</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0001023728534888184</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0001012080870665142</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0001228605572912614</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0001259828964596574</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0002354955647275183</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0002550092164878791</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.603186249697791E-05</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>5.756450330125892E-05</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -2887,22 +2887,22 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.010446896246958E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0001549845407381346</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>5.342533672987011E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0002104564495859486</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0001348522798156386</v>
+        <v>0</v>
       </c>
       <c r="AV3">
         <v>0</v>
@@ -2914,28 +2914,28 @@
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>4.846174515914643E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>2.810176846337696E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>1.270078312153545E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>7.832036485304041E-05</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>1.591187965125495E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>8.592349870510421E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>1.591187965125495E-05</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>4.682911793290312E-05</v>
+        <v>0</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="BN3">
-        <v>4.613363009288427E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
         <v>0</v>
@@ -2974,25 +2974,25 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>1.724416777813394E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.000135817962326944</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>7.937427028575224E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
         <v>0</v>
       </c>
       <c r="BW3">
-        <v>8.783927421617148E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.0002220372584004945</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0002036291914044502</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="CB3">
-        <v>2.397583583438773E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
         <v>0</v>
@@ -3025,346 +3025,346 @@
         <v>0</v>
       </c>
       <c r="CJ3">
-        <v>8.846092867745699E-06</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>2.664988680033606E-05</v>
+        <v>0</v>
       </c>
       <c r="CL3">
         <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0005511641958251567</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.05044575164638533</v>
+        <v>0.07951940082583278</v>
       </c>
       <c r="CO3">
-        <v>0.002741372083370564</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.04802165621290142</v>
+        <v>0.0699972990276676</v>
       </c>
       <c r="CQ3">
-        <v>0.06406760969693957</v>
+        <v>0.133027491821704</v>
       </c>
       <c r="CR3">
-        <v>0.006220923531189928</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.005471695135727849</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.0004036395993763963</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.002892294789984934</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.03494420689644762</v>
+        <v>0.01862770279331007</v>
       </c>
       <c r="CW3">
-        <v>0.005072534768050458</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.09356359678143598</v>
+        <v>0.2488908311013305</v>
       </c>
       <c r="CY3">
-        <v>0.0009247034432912772</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.002187498317500894</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.05124747908327949</v>
+        <v>0.08266867051341945</v>
       </c>
       <c r="DB3">
-        <v>0.0005418712940443187</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.1006598335313152</v>
+        <v>0.2767655953465308</v>
       </c>
       <c r="DD3">
-        <v>0.007636098852348499</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.02542472074155697</v>
+        <v>0</v>
       </c>
       <c r="DF3">
         <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.0005954939701926282</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.007538791460728864</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.0005610739219404823</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.001437914973263698</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.001568643313003699</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.0360384524591271</v>
+        <v>0.02292601444230712</v>
       </c>
       <c r="DM3">
-        <v>0.000107373103604345</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.02236512885293515</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.0002764210173258154</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.0005733860059019475</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.001700772893703654</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.002003215770424603</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.0001345534573155861</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0007246706190941298</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.004073713956754418</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.005641984533209155</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.01551454287324481</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.002133008336121111</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.00268914127027423</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
         <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.001437978904378308</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.007115594909875051</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.009539998705107355</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>9.457805738196288E-05</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>6.861085203117975E-05</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.005001688202589547</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.01076463550702818</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.005471818863610541</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>7.832036485304041E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.001504425516755838</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.000720063847846611</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.0008266932430131357</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.0001154601072568076</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.0002824344142675474</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.006651936820438512</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.004831285564348453</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.0009582075522794941</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.0002721594337620989</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.001047327526044888</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.005738909749869217</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.00793794446725268</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.0110871135278633</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.008295459562349871</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.0003881094812500616</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.0004240321930411429</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.02429950690662566</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.04740550547438465</v>
+        <v>0.06757699412789755</v>
       </c>
       <c r="FB3">
-        <v>0.02658362849231724</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.01169028544341261</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.008443429841354389</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.008375881173532751</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.001357773388429826</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>3.622337558790475E-05</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.001724640375374174</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.01139422438432793</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.01862673373347943</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.02048047488745443</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.005111606662011054</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.003188513861777174</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.005471695135727849</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.00859239034677131</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.000502793349820511</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.001456308479292945</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.009072554360952598</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.006170373178700794</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.003137582846894269</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.01749524275046543</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.01614465056061501</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.004378959819583877</v>
+        <v>0</v>
       </c>
       <c r="FX3">
         <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.000405118102197571</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.0006914213976112725</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.003640030081323952</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.005065754843094824</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.003110795911548404</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.002568904187781971</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0001052837157904025</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0021606872819399</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.001459923511562258</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0005592784357458464</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.003341261529451796</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
         <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0004543990086270577</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.004927872974645833</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.003124222151480403</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0005511641958251567</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.0002411202423416361</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>6.077164699234641E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0007293373282825378</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0003017228550636045</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.0002062999691780008</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3543,43 +3543,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.415304402918992E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.411728781559998E-06</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>7.877834959241751E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001234819462095241</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0002043149389566678</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0002439472291057271</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0001976677688730048</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0001677323864425617</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>4.789679225584009E-06</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>4.36876446822556E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>6.254129863957041E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -3591,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>2.921292489323735E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1.666755522933844E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -3603,40 +3603,40 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1.591105640227033E-06</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>4.098145432584688E-05</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0001355982084401575</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>2.141199036214419E-05</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>1.441385490065352E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>3.916937389912259E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>6.385437636363779E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.000122316594175965</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0001362230102024278</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>6.709139520297297E-05</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>2.649214684408711E-05</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>3.637213521701157E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -3666,40 +3666,40 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>5.561485109634563E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>3.92790611637372E-06</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>2.436166732708148E-06</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <v>0</v>
       </c>
       <c r="AW4">
-        <v>3.637213521701157E-05</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0001476872051728175</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0001278042641374312</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>5.049482345804981E-05</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>5.049482345804981E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0002139913449447239</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0001157755601285147</v>
+        <v>0</v>
       </c>
       <c r="BD4">
         <v>0</v>
@@ -3708,43 +3708,43 @@
         <v>0</v>
       </c>
       <c r="BF4">
-        <v>3.183221336387812E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>5.888328487970743E-06</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>7.09869544784764E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>3.978902217164356E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>5.888328487970743E-06</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>9.16594826911175E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>7.437236035446704E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>4.751913454669975E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0002433818482927337</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0001692968708962888</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0001380760720454004</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0001655212357221253</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>9.860802620993258E-05</v>
+        <v>0</v>
       </c>
       <c r="BS4">
         <v>0</v>
@@ -3753,52 +3753,52 @@
         <v>0</v>
       </c>
       <c r="BU4">
-        <v>3.361660843802955E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
         <v>0</v>
       </c>
       <c r="BW4">
-        <v>1.055731905598717E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
         <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.0001116457440313932</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0003224323829083052</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.0004474398111835514</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0001285741011138387</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>3.183221336387812E-05</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>2.141199036214419E-05</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>6.954175983501173E-06</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>3.327193687103502E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>1.45940005809242E-05</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>8.829841134722112E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0001892742842267481</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>7.816065629918894E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
         <v>0</v>
@@ -3810,334 +3810,334 @@
         <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.0001343815118966331</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.1047975699340469</v>
+        <v>0.3145586397232623</v>
       </c>
       <c r="CP4">
-        <v>0.01888008187341947</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.05702762086310083</v>
+        <v>0.1135298888829622</v>
       </c>
       <c r="CR4">
-        <v>0.04158205194442393</v>
+        <v>0.04853079455426718</v>
       </c>
       <c r="CS4">
-        <v>6.284602389724075E-05</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.0004043040999426315</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.0003348482249231767</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>1.712961874356124E-05</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.04312439232465923</v>
+        <v>0.05502137631203243</v>
       </c>
       <c r="CX4">
-        <v>0.05505110272913896</v>
+        <v>0.1052121707523976</v>
       </c>
       <c r="CY4">
-        <v>0.03823092283760555</v>
+        <v>0.0344283449735118</v>
       </c>
       <c r="CZ4">
-        <v>0.004279745395998166</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.02405176565600153</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.0416513119206983</v>
+        <v>0.04882225910016794</v>
       </c>
       <c r="DC4">
-        <v>0.03254426584495382</v>
+        <v>0.01049736799063444</v>
       </c>
       <c r="DD4">
-        <v>0.08026702887034423</v>
+        <v>0.211327547302607</v>
       </c>
       <c r="DE4">
-        <v>0.007974375687538638</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.003778293207497948</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.001074844531684799</v>
+        <v>0</v>
       </c>
       <c r="DH4">
         <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.008427791098848546</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
         <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.002467425281397518</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.00937273299523435</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.02464969171370928</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.009788880048096011</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.01296604505703982</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>2.711361682463146E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.002364695077638462</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.001496343077324001</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>4.40703316282327E-05</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0002933317094990619</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.001997844666377327</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.001496343077324001</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.008417081800443878</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.001893121005004588</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.004120468192787187</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.001024611985082172</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>3.260241007250804E-05</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.002285293959422157</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.01055452048258829</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.003605635067855959</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>1.039178712148806E-05</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.0005210707443888267</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.006017933417299587</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.008205787718684616</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.001215880004487578</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.0003846144523493281</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.002361519714296749</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.000843575591796101</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.0005079358086837432</v>
+        <v>0</v>
       </c>
       <c r="EN4">
         <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.0009712264206212873</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.007383985969788925</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.003545314086595239</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.0006806938516755288</v>
+        <v>0</v>
       </c>
       <c r="ES4">
         <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.001427976519571982</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.007447631117274453</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.008635843081427615</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.00995731990156311</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.002390173638363234</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.0002910610075641985</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.003177570657627601</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.02889797895472641</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.04384921166924186</v>
+        <v>0.05807161040815693</v>
       </c>
       <c r="FC4">
-        <v>0.01483090291038157</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.007625713698178088</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.007839790744565117</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.004851087342671916</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.0005951555414181406</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.0001411802905743196</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.004925022535186441</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.01679911112980121</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.02334607123954536</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.01343288429207634</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.003439884889128303</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.001574935048549731</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.005568927481323455</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.004983184722296702</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.0001248399604002073</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.003712221621080311</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.01237020374275484</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.00218339635038071</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.006398171077841319</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.01901466781843261</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.01015426477600964</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.001693309896438135</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.000177752552141561</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.0005183825727088076</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.002021279767711535</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.004166151579733452</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.002817468782777765</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.003496259637970097</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.0004056337063101782</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.0002346620193840739</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.001847892944860201</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0002030407854615154</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.001565433107679358</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.001433750772863856</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>2.071539847356714E-05</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.002200729631672309</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.004059263111972554</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.001684353766547039</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0003974111395613609</v>
+        <v>0</v>
       </c>
       <c r="GP4">
         <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0001071982212533655</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>1.519191561619617E-05</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.0002968948721928768</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,28 +4313,28 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001683404869861321</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0004187248186482452</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001898560874760599</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.437900402051367E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2.664034324688694E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>3.024860161315611E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.366393403953606E-06</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4343,40 +4343,40 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.946956719898551E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0001185972589290768</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0002127707029006042</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0002106741070477993</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0001064887525941794</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>7.429459557840938E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0002368214518793446</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>5.211503120142854E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2.590349575481957E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>8.37742881091039E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0002773157529620967</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0001254667526236875</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -4385,22 +4385,22 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>5.052807114192288E-05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>6.578938662069702E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>5.577458381291294E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>9.030510547729843E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>4.552171557898161E-05</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>4.171715837067865E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -4409,508 +4409,508 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>4.947772056500368E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>6.35902783386218E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1.91285190604307E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>2.709470659613903E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0001377075553368456</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0001987581455363651</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>5.577458381291294E-05</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>6.941598673539183E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0002272820213138639</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0001094135143673322</v>
+        <v>0</v>
       </c>
       <c r="AR5">
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>9.787125834893422E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0001636736444223677</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.000316922500371373</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0004303097439766298</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0005133964231859506</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.0004043659127884715</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0002855835009797234</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0001327616884122437</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>9.725442335777856E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>6.067714191330078E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>1.433072920319174E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>3.939939367811113E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>9.309947140038708E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>2.155055559699726E-05</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>1.538230476510974E-06</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>1.685486984069574E-06</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>1.46434286418393E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
         <v>0</v>
       </c>
       <c r="BK5">
-        <v>4.116640151232174E-05</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>2.789783838678109E-05</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>3.481657367609025E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>5.640761482713685E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0002096445291740134</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.0003754581683458263</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0001200811421054401</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>3.231208183799916E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0001478373606170251</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0002108384892259469</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>1.040247953495699E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>4.322605766226249E-06</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>4.274910414847378E-07</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>1.286957930644258E-05</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.0001626189163255263</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0001573952360138194</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>8.244116215519081E-05</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.0001566188317144992</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.0001022414673925035</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>2.403266543793709E-05</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0001573952360138194</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.0004405669617079507</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.000244475986818161</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>8.11182123838494E-05</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.0001765894198746923</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
         <v>0</v>
       </c>
       <c r="CK5">
-        <v>2.113857332596749E-05</v>
+        <v>0</v>
       </c>
       <c r="CL5">
         <v>0</v>
       </c>
       <c r="CM5">
-        <v>2.222188040289523E-05</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.001897030249999772</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.0875328655114818</v>
+        <v>0.1989052652423064</v>
       </c>
       <c r="CP5">
-        <v>3.972971828899222E-05</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0.03259065199961934</v>
+        <v>0.008890612403867669</v>
       </c>
       <c r="CR5">
-        <v>0.04610650596937824</v>
+        <v>0.05563445717678123</v>
       </c>
       <c r="CS5">
-        <v>0.0006745516665859843</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.005108577524649444</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.00163689237560662</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.006753479174437335</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.06168200708183527</v>
+        <v>0.1095014794078612</v>
       </c>
       <c r="CX5">
-        <v>0.01485347870710103</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.08161170936608396</v>
+        <v>0.178427269226965</v>
       </c>
       <c r="CZ5">
-        <v>0.0001487056788234447</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.005456827949507241</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.06109891522321188</v>
+        <v>0.107484887974658</v>
       </c>
       <c r="DC5">
-        <v>0.001333966295623898</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.1118235424139861</v>
+        <v>0.2829132482450935</v>
       </c>
       <c r="DE5">
-        <v>0.0005392162446590754</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.01184558809083536</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.002098525570472497</v>
+        <v>0</v>
       </c>
       <c r="DH5">
         <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.01028207488472173</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.005801709265296447</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.0003424496064748501</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.0007453433895377965</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.04412787897421096</v>
+        <v>0.04879148348584501</v>
       </c>
       <c r="DN5">
-        <v>0.0006286238364541495</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.0148857946920775</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.0003770484971140787</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.000892905242621832</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.002288205290132871</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.0004825897818583622</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>6.467697614200044E-05</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.002975352318529616</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.002150768678659412</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.005849254495964685</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.01131469820732417</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.001416476341167567</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.000322056568626877</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.0004204032082253572</v>
+        <v>0</v>
       </c>
       <c r="EB5">
         <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.002948100005203402</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.004096624222614149</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>7.676051840352359E-05</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>1.346395724009167E-05</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.002551498001300299</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.007397239816252856</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.003346105237429068</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>9.068058539713442E-06</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.001202795922773378</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.0002703653341964053</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.0001811536699448073</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0002283531626084016</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.0002336673857247174</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.002281378600856887</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.002128118866160385</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.0001955765072112175</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.0003673402708215576</v>
+        <v>0</v>
       </c>
       <c r="ET5">
         <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.002929908477568875</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.005488506822187772</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.008390455851830222</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.004479192542165005</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.0001146875051331972</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.0009584397983354178</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.01983836800922594</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.03275277235906002</v>
+        <v>0.009451296836621954</v>
       </c>
       <c r="FC5">
-        <v>0.01749166604847602</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.007095251390228773</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.004047171458116082</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.004367232115849973</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>9.298891250102656E-05</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.0004794467846041327</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.007426292577301976</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.02043004377008356</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.02436808030784711</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.02729263691602866</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.007284650684401679</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.002850949887716984</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.003697676732728052</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.008169683330743643</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.0001262920362263912</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.003132531004417537</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.01607118285143372</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.009822183090099244</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.00715376584114279</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.02232965923282833</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.02187506169526765</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.008730844555152429</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0003661625137983255</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>4.683119652016464E-06</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.0002501491085214204</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.002288205290132871</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.003480211771218702</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.002352080451543264</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.001039478500786085</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0002703653341964053</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.001995643544012533</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.0006335301415674747</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.001705301983122043</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.005581045231443421</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.0004857428972484887</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>5.679696990385466E-05</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.001414172488661656</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.0006745516665859843</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>6.232920432098605E-05</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0003012478265150549</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0004839398974735005</v>
+        <v>0</v>
       </c>
       <c r="GR5">
         <v>0</v>
       </c>
       <c r="GS5">
-        <v>2.512588248337634E-05</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,7 +5086,7 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.828469139648397E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -5095,46 +5095,46 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.472182178415898E-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>8.011350510139262E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0004294951715760222</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0001603404501998742</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.000173920830980726</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0002710133925600607</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0003998443582987159</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0001081952290500463</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.5849215909788E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0001847722762539525</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0001056884730008383</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0002414921545801343</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>2.866797452830739E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -5143,130 +5143,130 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>7.804931671626088E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>4.602277933226621E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.000210004054951897</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0006821980378256602</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0006016261262983885</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.000426367091256413</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0006114248899941632</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0007376249181808889</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0003875150193000568</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>7.718190156639849E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0001126623409335772</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0001058281506431907</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>6.578107867157724E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0002928157837910333</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>9.978226183918987E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>2.039962392853757E-06</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>3.478360597883968E-05</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>2.040791498436806E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1.990132405966365E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>3.905848478395404E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.427200671290671E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>8.389141545537094E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0001838022547800015</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0002378260171960697</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0001336319098322112</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>6.638710916982894E-05</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0001982723812610372</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0003221667525770318</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0001603404501998742</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>3.370738966436879E-05</v>
+        <v>0</v>
       </c>
       <c r="AY6">
         <v>0</v>
       </c>
       <c r="AZ6">
-        <v>2.307987202409104E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0001817281584028249</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>3.706446782397817E-05</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>3.914924760127275E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0001700283726176059</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0004968898944840581</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0002570175272958144</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>7.081379764799982E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0001462831633995034</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.000297095244917241</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0001226138319688102</v>
+        <v>0</v>
       </c>
       <c r="BK6">
         <v>0</v>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="BM6">
-        <v>3.754152411637974E-05</v>
+        <v>0</v>
       </c>
       <c r="BN6">
         <v>0</v>
@@ -5284,61 +5284,61 @@
         <v>0</v>
       </c>
       <c r="BP6">
-        <v>2.774856796659938E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
         <v>0</v>
       </c>
       <c r="BR6">
-        <v>9.005178214116834E-05</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0002363670979265856</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0001364244608600436</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0002940285059882192</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0001169198722371497</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>2.866797452830739E-05</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>7.279144888926536E-05</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.0001125185898942931</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
         <v>0</v>
       </c>
       <c r="CA6">
-        <v>4.185092060257665E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.0002255628082838497</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>1.990132405966365E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>9.274944085287428E-05</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>7.74447328449568E-07</v>
+        <v>0</v>
       </c>
       <c r="CF6">
         <v>0</v>
       </c>
       <c r="CG6">
-        <v>9.41638052145521E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0001118932843943282</v>
+        <v>0</v>
       </c>
       <c r="CI6">
         <v>0</v>
@@ -5347,343 +5347,343 @@
         <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0001826929704168534</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.0002405951557088274</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0001666212455736105</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.001318149369687925</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.01092166270793174</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.02587554564828468</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>0.03249317868969352</v>
+        <v>0.01109967905690662</v>
       </c>
       <c r="CR6">
-        <v>0.06342116419979965</v>
+        <v>0.1513217478860059</v>
       </c>
       <c r="CS6">
-        <v>0.02097496762825359</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.01114617139602575</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.002527013360709678</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.001180600793533061</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.006585421474026586</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.000138553557112171</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.1047471084914224</v>
+        <v>0.3386863404810816</v>
       </c>
       <c r="CZ6">
-        <v>0.00143257906398025</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.002709111434847044</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.0622304479635094</v>
+        <v>0.1459232490414413</v>
       </c>
       <c r="DC6">
-        <v>0.009101057648764023</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.06533023690846254</v>
+        <v>0.1599771491460203</v>
       </c>
       <c r="DE6">
-        <v>0.02067664890761169</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.01861155187245116</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.0004064491019340935</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.0002930420146063594</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.002199790853325174</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.01075854049228971</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.0003281146935162977</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>7.326243816449556E-07</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.04199356656113103</v>
+        <v>0.05417277353881358</v>
       </c>
       <c r="DN6">
-        <v>0.01441867447470319</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.01815177696152322</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.002236441808245974</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.0007056022077462988</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.001065321356181841</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.0008987428141541259</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.0003522405840182359</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>4.624535751473124E-06</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.00264412071740216</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.004917898698865285</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.01139030972983536</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>1.997198537441608E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.002260231708619296</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>1.427200671290671E-05</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>5.206655830499841E-05</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.003484897193769005</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.007351358748965088</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>7.521971240291056E-06</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.001063038410552734</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.002350730346210785</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.007155439176197997</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.003434290596625476</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0008130724943644475</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0004997368042225432</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.001104500602257714</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.001570660407594109</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.0004343745821578413</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>3.264438033262061E-05</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.004996453046673732</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.00429352959932145</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.000853820859823549</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.0002181441867175054</v>
+        <v>0</v>
       </c>
       <c r="ET6">
         <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.002369314393210799</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.005148751607507582</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.007707083313586646</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.009918785570977282</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.0009942103247834099</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>1.548493027575498E-05</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.01792889923511264</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.05028619224232041</v>
+        <v>0.09177008580675063</v>
       </c>
       <c r="FC6">
-        <v>0.03959681126364392</v>
+        <v>0.0433063048455672</v>
       </c>
       <c r="FD6">
-        <v>0.01304709029809073</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.007820835878270972</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.008054758661536435</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.00225580847641742</v>
+        <v>0</v>
       </c>
       <c r="FH6">
         <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.002788383385759813</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.008514572643413792</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.02014386241405091</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.03087048502025787</v>
+        <v>0.003742670197412729</v>
       </c>
       <c r="FM6">
-        <v>0.01178289763505148</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.004883726344866451</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.008566106223877759</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.01620118686091656</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.003607356869804156</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.0003611289445015956</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.006248502658997514</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.01009439145586817</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.004769971175452165</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.01855000510892465</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.02398922124855638</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.01110588624171748</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.001533550118562836</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>4.837458600699522E-05</v>
+        <v>0</v>
       </c>
       <c r="GA6">
         <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.001894021402811071</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.005097178355002666</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.00214063893863418</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.0020924556419919</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>2.079069107218403E-05</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.0006070576895410302</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.001417626210910051</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>3.159459100724497E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.003062567179490438</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0002710133925600607</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0006033496260227819</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.002085605001829989</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.002031745698056397</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0003893681544309828</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>7.576866525315772E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0002568052117493966</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>2.176604522982109E-05</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>1.094391919776596E-05</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001160277901851753</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0003363064763760235</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0005072328759107034</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0007994103499595617</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.001105986204251788</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.001272295960412013</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.001371493641371926</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.00152702825425668</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.001556521132380368</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.001570759595143788</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.001584009321209814</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.001584009321209814</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.001584009321209814</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001584009321209814</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.00170944321549482</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.001904245799868417</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.002057324934047698</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.002323360311074699</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.00256870876618539</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.002834744143212391</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.003080092598323082</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.003333964636660781</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.003596933962485682</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.003773912289048597</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.003866428670290722</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.003917668016909199</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.003919031040424281</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.003919031040424281</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.003927333574703792</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.003956127787711731</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.00402038333181147</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.004163488444619961</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.004314602469703112</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.004611388593659494</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.004954161704546966</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.00518254718035724</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.005426713254276042</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.005694596255491234</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.005945982325613461</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.006123396602022147</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.006349335635656063</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.006520262035190742</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.006595128645875545</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.00659849722121706</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.00659849722121706</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.00659849722121706</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.006601392897237873</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.006657859088638001</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.006910443837798746</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.007218336457804073</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.007511800930176007</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.00784757275694708</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.008171668535598862</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.008493837487542562</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.008799849897695887</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.009055443088931943</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.009287850943496117</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.009439573615422633</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.009450869202598461</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.009450869202598461</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.009450869202598461</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.009478453944886053</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.009592687226818879</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.009728946511894191</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.009904909457538571</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.01008341587020133</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.01030088954153111</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.01059306701557997</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.01092746643328219</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.01128222986491916</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.011430987562381</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.01151476866390523</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.01155559571749084</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.01155559571749084</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.01155559571749084</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.01155559571749084</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.01155559571749084</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.01155559571749084</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.01157912853628816</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.01163850836142873</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.01178686382803579</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.01189689925606111</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.01199520193951977</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.01220037767702072</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.01236032147422915</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.01249975669309589</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.01263466497193602</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.012743530385074</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0127534912939496</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.01276671301580187</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.01297080138103469</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.07442180286611524</v>
+        <v>0.09627488232313396</v>
       </c>
       <c r="CP2">
-        <v>0.0746364089789707</v>
+        <v>0.09627488232313396</v>
       </c>
       <c r="CQ2">
-        <v>0.1174717061533921</v>
+        <v>0.1354325869052068</v>
       </c>
       <c r="CR2">
-        <v>0.1596429568441913</v>
+        <v>0.1725528471660538</v>
       </c>
       <c r="CS2">
-        <v>0.164657558088952</v>
+        <v>0.1725528471660538</v>
       </c>
       <c r="CT2">
-        <v>0.1649249125886114</v>
+        <v>0.1725528471660538</v>
       </c>
       <c r="CU2">
-        <v>0.1658109357533364</v>
+        <v>0.1725528471660538</v>
       </c>
       <c r="CV2">
-        <v>0.1786759653012533</v>
+        <v>0.1725528471660538</v>
       </c>
       <c r="CW2">
-        <v>0.2605814232389521</v>
+        <v>0.331586613348985</v>
       </c>
       <c r="CX2">
-        <v>0.2656645900760962</v>
+        <v>0.331586613348985</v>
       </c>
       <c r="CY2">
-        <v>0.352650844030771</v>
+        <v>0.5062094071789406</v>
       </c>
       <c r="CZ2">
-        <v>0.3540047220568574</v>
+        <v>0.5062094071789406</v>
       </c>
       <c r="DA2">
-        <v>0.3552474077485145</v>
+        <v>0.5062094071789406</v>
       </c>
       <c r="DB2">
-        <v>0.4322220198876589</v>
+        <v>0.6501142267912855</v>
       </c>
       <c r="DC2">
-        <v>0.4327980222846395</v>
+        <v>0.6501142267912855</v>
       </c>
       <c r="DD2">
-        <v>0.5769062127522007</v>
+        <v>1</v>
       </c>
       <c r="DE2">
-        <v>0.5781435181485818</v>
+        <v>1</v>
       </c>
       <c r="DF2">
-        <v>0.6020691309563403</v>
+        <v>1</v>
       </c>
       <c r="DG2">
-        <v>0.6057110614640542</v>
+        <v>1</v>
       </c>
       <c r="DH2">
-        <v>0.6057776703470009</v>
+        <v>1</v>
       </c>
       <c r="DI2">
-        <v>0.6082560355016829</v>
+        <v>1</v>
       </c>
       <c r="DJ2">
-        <v>0.6101807452548845</v>
+        <v>1</v>
       </c>
       <c r="DK2">
-        <v>0.6105720303856033</v>
+        <v>1</v>
       </c>
       <c r="DL2">
-        <v>0.6109815727151452</v>
+        <v>1</v>
       </c>
       <c r="DM2">
-        <v>0.6384406048072973</v>
+        <v>1</v>
       </c>
       <c r="DN2">
-        <v>0.6386677655275144</v>
+        <v>1</v>
       </c>
       <c r="DO2">
-        <v>0.6529985807760165</v>
+        <v>1</v>
       </c>
       <c r="DP2">
-        <v>0.6533512316757588</v>
+        <v>1</v>
       </c>
       <c r="DQ2">
-        <v>0.6572833938350464</v>
+        <v>1</v>
       </c>
       <c r="DR2">
-        <v>0.6610270409587183</v>
+        <v>1</v>
       </c>
       <c r="DS2">
-        <v>0.6617448745084616</v>
+        <v>1</v>
       </c>
       <c r="DT2">
-        <v>0.6617707269421003</v>
+        <v>1</v>
       </c>
       <c r="DU2">
-        <v>0.6639966846882517</v>
+        <v>1</v>
       </c>
       <c r="DV2">
-        <v>0.6661929923888731</v>
+        <v>1</v>
       </c>
       <c r="DW2">
-        <v>0.6701928879975688</v>
+        <v>1</v>
       </c>
       <c r="DX2">
-        <v>0.6806854956752622</v>
+        <v>1</v>
       </c>
       <c r="DY2">
-        <v>0.6826379815726622</v>
+        <v>1</v>
       </c>
       <c r="DZ2">
-        <v>0.6844884557878593</v>
+        <v>1</v>
       </c>
       <c r="EA2">
-        <v>0.6847755122779088</v>
+        <v>1</v>
       </c>
       <c r="EB2">
-        <v>0.6848815342935032</v>
+        <v>1</v>
       </c>
       <c r="EC2">
-        <v>0.6900740875633757</v>
+        <v>1</v>
       </c>
       <c r="ED2">
-        <v>0.6977968867375565</v>
+        <v>1</v>
       </c>
       <c r="EE2">
-        <v>0.6981741451992882</v>
+        <v>1</v>
       </c>
       <c r="EF2">
-        <v>0.6989819227032354</v>
+        <v>1</v>
       </c>
       <c r="EG2">
-        <v>0.7036409456541161</v>
+        <v>1</v>
       </c>
       <c r="EH2">
-        <v>0.712193268112719</v>
+        <v>1</v>
       </c>
       <c r="EI2">
-        <v>0.7147440622016435</v>
+        <v>1</v>
       </c>
       <c r="EJ2">
-        <v>0.7147990273964723</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.7159613185688106</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.7168935102734634</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.717291688089478</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.7176565942277057</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.7180570112474937</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.7205797643146017</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.7244889298612666</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.7251042769951009</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.7252751319348466</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.725579737785674</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.7300453289665683</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.7358936912367577</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.7436068200209577</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.7507198169598163</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.7512158265167134</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.7512600395226553</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.7650233226308496</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.7918352399468732</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8057248163222684</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8123730314715786</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8184097391794843</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8245015665055693</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8250228666295977</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8250228666295977</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.828029719800261</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.8443506370180649</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.8639356247759717</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.8840482876634173</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.8879361593964752</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.8888491070551546</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.8902388697300938</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.8961757796552826</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.8962505965500132</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.8992591776935968</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9127077258142108</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9212358311771411</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9281626064130671</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9490333568665394</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9627966399747337</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9688741532782295</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9693649658479999</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9694476550579885</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9703935973812093</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9734743034665855</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9781760264747481</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9808581731839391</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.982711815098754</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9833706261724493</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9863875632470727</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9886897700424219</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9907539015048291</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9962722252598962</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9970798523623001</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9971275503723911</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9985175096244342</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9992312371197717</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9995143001058368</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.999591620464145</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9997589196851402</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.999906338461847</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7421,769 +7421,769 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.532600745498384E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001488946230924258</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0002255957761695188</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0004531238702781044</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001200366206338133</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.001755560381651242</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001903829110056247</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.002087522159820226</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.002533412884967353</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.002681681613372359</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.002712713554560739</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.002743109845012269</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.002839683823725317</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.002839683823725317</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.002839683823725317</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.002839683823725317</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.00288651294165822</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.003027873812291968</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.003027873812291968</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.003130246665780787</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.003231454752847301</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.003354315310138563</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.00348029820659822</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.003715793771325739</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.003970802987813618</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.003996834850310596</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.004054399353611854</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.004054399353611854</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.004054399353611854</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.004054399353611854</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.004054399353611854</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.004054399353611854</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.004054399353611854</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.004054399353611854</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.004054399353611854</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.004054399353611854</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.004054399353611854</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.004054399353611854</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.004054399353611854</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.004064503822574324</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.004219488363312459</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.004272913700042329</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.004272913700042329</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.004483370149628277</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.004618222429443916</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.004618222429443916</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.004618222429443916</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.004618222429443916</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.004666684174603063</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.00469478594306644</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.004707486726187976</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.004785807091041016</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.004801718970692271</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.004887642469397375</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.00490355434904863</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.004950383466981533</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.004950383466981533</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.004950383466981533</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.004950383466981533</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.004950383466981533</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.004950383466981533</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.004950383466981533</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.004950383466981533</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.004996517097074418</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.004996517097074418</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.004996517097074418</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.004996517097074418</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.004996517097074418</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.005013761264852552</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.005149579227179495</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.005228953497465248</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.005228953497465248</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.005316792771681419</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.005538830030081913</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.005742459221486363</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.005742459221486363</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.005742459221486363</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.005766435057320751</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.005766435057320751</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.005766435057320751</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.005766435057320751</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.005766435057320751</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.005766435057320751</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.005766435057320751</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.005766435057320751</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.005775281150188496</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.005801931036988833</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.005801931036988833</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.00635309523281399</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.05679884687919932</v>
+        <v>0.07951940082583278</v>
       </c>
       <c r="CO3">
-        <v>0.05954021896256989</v>
+        <v>0.07951940082583278</v>
       </c>
       <c r="CP3">
-        <v>0.1075618751754713</v>
+        <v>0.1495166998535004</v>
       </c>
       <c r="CQ3">
-        <v>0.1716294848724109</v>
+        <v>0.2825441916752044</v>
       </c>
       <c r="CR3">
-        <v>0.1778504084036008</v>
+        <v>0.2825441916752044</v>
       </c>
       <c r="CS3">
-        <v>0.1833221035393286</v>
+        <v>0.2825441916752044</v>
       </c>
       <c r="CT3">
-        <v>0.183725743138705</v>
+        <v>0.2825441916752044</v>
       </c>
       <c r="CU3">
-        <v>0.1866180379286899</v>
+        <v>0.2825441916752044</v>
       </c>
       <c r="CV3">
-        <v>0.2215622448251376</v>
+        <v>0.3011718944685144</v>
       </c>
       <c r="CW3">
-        <v>0.226634779593188</v>
+        <v>0.3011718944685144</v>
       </c>
       <c r="CX3">
-        <v>0.320198376374624</v>
+        <v>0.5500627255698449</v>
       </c>
       <c r="CY3">
-        <v>0.3211230798179153</v>
+        <v>0.5500627255698449</v>
       </c>
       <c r="CZ3">
-        <v>0.3233105781354161</v>
+        <v>0.5500627255698449</v>
       </c>
       <c r="DA3">
-        <v>0.3745580572186956</v>
+        <v>0.6327313960832643</v>
       </c>
       <c r="DB3">
-        <v>0.3750999285127399</v>
+        <v>0.6327313960832643</v>
       </c>
       <c r="DC3">
-        <v>0.4757597620440552</v>
+        <v>0.9094969914297952</v>
       </c>
       <c r="DD3">
-        <v>0.4833958608964037</v>
+        <v>0.9094969914297952</v>
       </c>
       <c r="DE3">
-        <v>0.5088205816379606</v>
+        <v>0.9094969914297952</v>
       </c>
       <c r="DF3">
-        <v>0.5088205816379606</v>
+        <v>0.9094969914297952</v>
       </c>
       <c r="DG3">
-        <v>0.5094160756081533</v>
+        <v>0.9094969914297952</v>
       </c>
       <c r="DH3">
-        <v>0.5169548670688822</v>
+        <v>0.9094969914297952</v>
       </c>
       <c r="DI3">
-        <v>0.5175159409908227</v>
+        <v>0.9094969914297952</v>
       </c>
       <c r="DJ3">
-        <v>0.5189538559640864</v>
+        <v>0.9094969914297952</v>
       </c>
       <c r="DK3">
-        <v>0.52052249927709</v>
+        <v>0.9094969914297952</v>
       </c>
       <c r="DL3">
-        <v>0.5565609517362171</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="DM3">
-        <v>0.5566683248398214</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="DN3">
-        <v>0.5790334536927566</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="DO3">
-        <v>0.5793098747100824</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="DP3">
-        <v>0.5798832607159844</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="DQ3">
-        <v>0.581584033609688</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="DR3">
-        <v>0.5835872493801126</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="DS3">
-        <v>0.5837218028374282</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="DT3">
-        <v>0.5844464734565223</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="DU3">
-        <v>0.5885201874132767</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="DV3">
-        <v>0.5941621719464859</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="DW3">
-        <v>0.6096767148197307</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="DX3">
-        <v>0.6118097231558518</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="DY3">
-        <v>0.614498864426126</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="DZ3">
-        <v>0.614498864426126</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EA3">
-        <v>0.6159368433305044</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EB3">
-        <v>0.6230524382403794</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EC3">
-        <v>0.6325924369454867</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="ED3">
-        <v>0.6326870150028687</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EE3">
-        <v>0.6327556258548999</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EF3">
-        <v>0.6377573140574894</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EG3">
-        <v>0.6485219495645176</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EH3">
-        <v>0.6539937684281282</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EI3">
-        <v>0.6540720887929812</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EJ3">
-        <v>0.6555765143097371</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EK3">
-        <v>0.6562965781575837</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EL3">
-        <v>0.6571232714005968</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EM3">
-        <v>0.6572387315078536</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EN3">
-        <v>0.6575211659221212</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EO3">
-        <v>0.6641731027425597</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EP3">
-        <v>0.6690043883069081</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EQ3">
-        <v>0.6699625958591876</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="ER3">
-        <v>0.6702347552929497</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="ES3">
-        <v>0.6712820828189946</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="ET3">
-        <v>0.6770209925688638</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EU3">
-        <v>0.6849589370361165</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EV3">
-        <v>0.6960460505639798</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EW3">
-        <v>0.7043415101263297</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EX3">
-        <v>0.7047296196075797</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EY3">
-        <v>0.7051536518006208</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="EZ3">
-        <v>0.7294531587072465</v>
+        <v>0.9324230058721024</v>
       </c>
       <c r="FA3">
-        <v>0.7768586641816311</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB3">
-        <v>0.8034422926739483</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC3">
-        <v>0.815132578117361</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD3">
-        <v>0.8235760079587153</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE3">
-        <v>0.831951889132248</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF3">
-        <v>0.8333096625206778</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG3">
-        <v>0.8333458858962658</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH3">
-        <v>0.8350705262716399</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI3">
-        <v>0.8464647506559678</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ3">
-        <v>0.8650914843894473</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK3">
-        <v>0.8855719592769017</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL3">
-        <v>0.8906835659389127</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM3">
-        <v>0.8938720798006899</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN3">
-        <v>0.8993437749364178</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO3">
-        <v>0.9079361652831891</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP3">
-        <v>0.9084389586330096</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ3">
-        <v>0.9098952671123025</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR3">
-        <v>0.9189678214732551</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS3">
-        <v>0.9251381946519559</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT3">
-        <v>0.9282757774988502</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU3">
-        <v>0.9457710202493156</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV3">
-        <v>0.9619156708099306</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW3">
-        <v>0.9662946306295145</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX3">
-        <v>0.9662946306295145</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY3">
-        <v>0.966699748731712</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ3">
-        <v>0.9673911701293233</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA3">
-        <v>0.9710312002106473</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB3">
-        <v>0.9760969550537421</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC3">
-        <v>0.9792077509652904</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD3">
-        <v>0.9817766551530724</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE3">
-        <v>0.9818819388688629</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF3">
-        <v>0.9840426261508027</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG3">
-        <v>0.9855025496623649</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH3">
-        <v>0.9860618280981108</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI3">
-        <v>0.9894030896275626</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ3">
-        <v>0.9894030896275626</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK3">
-        <v>0.9898574886361897</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL3">
-        <v>0.9947853616108355</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM3">
-        <v>0.997909583762316</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN3">
-        <v>0.9984607479581411</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO3">
-        <v>0.9987018682004828</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP3">
-        <v>0.9987626398474752</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ3">
-        <v>0.9994919771757577</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR3">
-        <v>0.9997937000308212</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8194,769 +8194,769 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.415304402918992E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.415304402918992E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2.256477281074992E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001013431224031674</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0002248250686126915</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0004291400075693593</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0006730872366750864</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0008707550055480911</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001038487391990653</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.001043277071216237</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001086964715898493</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.001086964715898493</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.001149506014538063</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.001149506014538063</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.001149506014538063</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.001149506014538063</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0011787189394313</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001195386494660639</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001195386494660639</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.001195386494660639</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.001196977600300866</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001237959054626713</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.00137355726306687</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001394969253429014</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001394969253429014</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.001409383108329668</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.00144855248222879</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.001512406858592428</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.001634723452768393</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.001770946462970821</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.001838037858173794</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.001864530005017881</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.001864530005017881</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.001864530005017881</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.001864530005017881</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.001864530005017881</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.001900902140234893</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.001900902140234893</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.001900902140234893</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.001900902140234893</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.001900902140234893</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.001956516991331239</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.001956516991331239</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.001960444897447612</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.00196288106418032</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.00196288106418032</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.001999253199397332</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.002146940404570149</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.002274744668707581</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.002325239492165631</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.00237573431562368</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.002589725660568404</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.002705501220696919</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.002705501220696919</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.002705501220696919</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.002737333434060797</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.002743221762548768</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.002814208717027244</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.002853997739198888</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.002859886067686859</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.002951545550377976</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.003025917910732443</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.003073437045279143</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.003316818893571877</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.003486115764468166</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.003624191836513566</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.003789713072235691</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.003888321098445624</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.003888321098445624</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.003888321098445624</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.003921937706883654</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.003921937706883654</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.00393249502593964</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.00393249502593964</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.004044140769971034</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.004366573152879339</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.004814012964062891</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.004942587065176729</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.004974419278540608</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.004995831268902753</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.005002785444886254</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.005036057381757289</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.005050651382338213</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.005138949793685434</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.005328224077912181</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.005406384734211371</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.005406384734211371</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.005406384734211371</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.005406384734211371</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.005540766246108004</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.1103383361801549</v>
+        <v>0.3145586397232623</v>
       </c>
       <c r="CP4">
-        <v>0.1292184180535743</v>
+        <v>0.3145586397232623</v>
       </c>
       <c r="CQ4">
-        <v>0.1862460389166751</v>
+        <v>0.4280885286062245</v>
       </c>
       <c r="CR4">
-        <v>0.2278280908610991</v>
+        <v>0.4766193231604917</v>
       </c>
       <c r="CS4">
-        <v>0.2278909368849963</v>
+        <v>0.4766193231604917</v>
       </c>
       <c r="CT4">
-        <v>0.2282952409849389</v>
+        <v>0.4766193231604917</v>
       </c>
       <c r="CU4">
-        <v>0.2286300892098621</v>
+        <v>0.4766193231604917</v>
       </c>
       <c r="CV4">
-        <v>0.2286472188286057</v>
+        <v>0.4766193231604917</v>
       </c>
       <c r="CW4">
-        <v>0.2717716111532649</v>
+        <v>0.5316406994725241</v>
       </c>
       <c r="CX4">
-        <v>0.3268227138824039</v>
+        <v>0.6368528702249218</v>
       </c>
       <c r="CY4">
-        <v>0.3650536367200094</v>
+        <v>0.6712812151984335</v>
       </c>
       <c r="CZ4">
-        <v>0.3693333821160076</v>
+        <v>0.6712812151984335</v>
       </c>
       <c r="DA4">
-        <v>0.3933851477720091</v>
+        <v>0.6712812151984335</v>
       </c>
       <c r="DB4">
-        <v>0.4350364596927074</v>
+        <v>0.7201034742986014</v>
       </c>
       <c r="DC4">
-        <v>0.4675807255376613</v>
+        <v>0.7306008422892358</v>
       </c>
       <c r="DD4">
-        <v>0.5478477544080055</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DE4">
-        <v>0.5558221300955442</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DF4">
-        <v>0.559600423303042</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DG4">
-        <v>0.5606752678347269</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DH4">
-        <v>0.5606752678347269</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DI4">
-        <v>0.5691030589335754</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DJ4">
-        <v>0.5691030589335754</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DK4">
-        <v>0.5715704842149729</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DL4">
-        <v>0.5809432172102073</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DM4">
-        <v>0.6055929089239165</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DN4">
-        <v>0.6153817889720125</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DO4">
-        <v>0.6283478340290523</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DP4">
-        <v>0.6283749476458769</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DQ4">
-        <v>0.6307396427235153</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DR4">
-        <v>0.6322359858008394</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DS4">
-        <v>0.6322800561324676</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DT4">
-        <v>0.6325733878419667</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DU4">
-        <v>0.634571232508344</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DV4">
-        <v>0.6360675755856681</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DW4">
-        <v>0.6444846573861119</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DX4">
-        <v>0.6463777783911165</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DY4">
-        <v>0.6504982465839038</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="DZ4">
-        <v>0.651522858568986</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EA4">
-        <v>0.6515554609790585</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EB4">
-        <v>0.6538407549384806</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EC4">
-        <v>0.6643952754210689</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="ED4">
-        <v>0.6680009104889248</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EE4">
-        <v>0.6680113022760463</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EF4">
-        <v>0.6685323730204351</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EG4">
-        <v>0.6745503064377347</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EH4">
-        <v>0.6827560941564194</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EI4">
-        <v>0.6839719741609069</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EJ4">
-        <v>0.6843565886132562</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EK4">
-        <v>0.686718108327553</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EL4">
-        <v>0.6875616839193491</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EM4">
-        <v>0.6880696197280328</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EN4">
-        <v>0.6880696197280328</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EO4">
-        <v>0.6890408461486541</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EP4">
-        <v>0.6964248321184431</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EQ4">
-        <v>0.6999701462050383</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="ER4">
-        <v>0.7006508400567139</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="ES4">
-        <v>0.7006508400567139</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="ET4">
-        <v>0.7020788165762858</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EU4">
-        <v>0.7095264476935602</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EV4">
-        <v>0.7181622907749878</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EW4">
-        <v>0.728119610676551</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EX4">
-        <v>0.7305097843149142</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EY4">
-        <v>0.7308008453224784</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="EZ4">
-        <v>0.7339784159801059</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="FA4">
-        <v>0.7628763949348324</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="FB4">
-        <v>0.8067256066040742</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC4">
-        <v>0.8215565095144558</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD4">
-        <v>0.8291822232126339</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE4">
-        <v>0.837022013957199</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF4">
-        <v>0.8418731012998709</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG4">
-        <v>0.842468256841289</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH4">
-        <v>0.8426094371318633</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI4">
-        <v>0.8475344596670498</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ4">
-        <v>0.864333570796851</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK4">
-        <v>0.8876796420363964</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL4">
-        <v>0.9011125263284727</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM4">
-        <v>0.904552411217601</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN4">
-        <v>0.9061273462661508</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO4">
-        <v>0.9116962737474742</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP4">
-        <v>0.9166794584697709</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ4">
-        <v>0.9168042984301712</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR4">
-        <v>0.9205165200512515</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS4">
-        <v>0.9328867237940064</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT4">
-        <v>0.9350701201443871</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU4">
-        <v>0.9414682912222284</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV4">
-        <v>0.9604829590406611</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW4">
-        <v>0.9706372238166707</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX4">
-        <v>0.9723305337131088</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY4">
-        <v>0.9725082862652504</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ4">
-        <v>0.9730266688379592</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA4">
-        <v>0.9750479486056707</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB4">
-        <v>0.9792141001854041</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC4">
-        <v>0.9820315689681819</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD4">
-        <v>0.985527828606152</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE4">
-        <v>0.9859334623124621</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF4">
-        <v>0.9861681243318462</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG4">
-        <v>0.9880160172767064</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH4">
-        <v>0.9882190580621679</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI4">
-        <v>0.9897844911698472</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ4">
-        <v>0.9912182419427111</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK4">
-        <v>0.9912389573411847</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL4">
-        <v>0.993439686972857</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM4">
-        <v>0.9974989500848296</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN4">
-        <v>0.9991833038513767</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO4">
-        <v>0.999580714990938</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP4">
-        <v>0.999580714990938</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ4">
-        <v>0.9996879132121914</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR4">
-        <v>0.9997031051278076</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001683404869861321</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0005870653056343773</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0007769213931104372</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0007913003971309508</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0008179407403778378</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008481893419909939</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0008481893419909939</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0008495557353949475</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0008495557353949475</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0008495557353949475</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0008790253025939331</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0009976225615230098</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.001210393264423614</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.001421067371471413</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.001527556124065593</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.001601850719644002</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.001838672171523347</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.001890787202724775</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.001916690698479595</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.002000464986588699</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.002277780739550796</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.002403247492174483</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.002403247492174483</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.002403247492174483</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.002453775563316406</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.002519564949937103</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.002575339533750016</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.002665644639227315</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.002711166354806296</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.002752883513176975</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.002752883513176975</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.002752883513176975</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.002802361233741979</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0028659515120806</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.002885080031141031</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.00291217473773717</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.003049882293074015</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.00324864043861038</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.003304415022423293</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.003373831009158685</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.003601113030472549</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.003710526544839882</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.003710526544839882</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.003808397803188816</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.003972071447611183</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.004288993947982556</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.004719303691959185</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.005232700115145136</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.005637066027933608</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.005922649528913332</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.006055411217325575</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.006152665640683353</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.006213342782596654</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.006227673511799846</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.006267072905477957</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.006360172376878344</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.006381722932475341</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.006383261162951852</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.006384946649935922</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.006399590078577761</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.006399590078577761</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.006440756480090083</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.006468654318476864</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.006503470892152954</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.006559878506980091</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.006769523036154104</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.00714498120449993</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.00726506234660537</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.00729737442844337</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.007445211789060395</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.007656050278286342</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.007666452757821299</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.007670775363587526</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.007671202854629011</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.007684072433935454</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.007846691350260979</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.008004086586274798</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.008086527748429989</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.008243146580144488</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.00834538804753699</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.008369420712974928</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.008526815948988747</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.008967382910696698</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.009211858897514859</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.009292977109898709</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.009469566529773401</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.009469566529773401</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.009490705103099368</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.009490705103099368</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.009512926983502264</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.01140995723350204</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.09894282274498384</v>
+        <v>0.1989052652423064</v>
       </c>
       <c r="CP5">
-        <v>0.09898255246327282</v>
+        <v>0.1989052652423064</v>
       </c>
       <c r="CQ5">
-        <v>0.1315732044628922</v>
+        <v>0.2077958776461741</v>
       </c>
       <c r="CR5">
-        <v>0.1776797104322704</v>
+        <v>0.2634303348229553</v>
       </c>
       <c r="CS5">
-        <v>0.1783542620988564</v>
+        <v>0.2634303348229553</v>
       </c>
       <c r="CT5">
-        <v>0.1834628396235058</v>
+        <v>0.2634303348229553</v>
       </c>
       <c r="CU5">
-        <v>0.1850997319991124</v>
+        <v>0.2634303348229553</v>
       </c>
       <c r="CV5">
-        <v>0.1918532111735498</v>
+        <v>0.2634303348229553</v>
       </c>
       <c r="CW5">
-        <v>0.2535352182553851</v>
+        <v>0.3729318142308166</v>
       </c>
       <c r="CX5">
-        <v>0.2683886969624861</v>
+        <v>0.3729318142308166</v>
       </c>
       <c r="CY5">
-        <v>0.35000040632857</v>
+        <v>0.5513590834577815</v>
       </c>
       <c r="CZ5">
-        <v>0.3501491120073935</v>
+        <v>0.5513590834577815</v>
       </c>
       <c r="DA5">
-        <v>0.3556059399569008</v>
+        <v>0.5513590834577815</v>
       </c>
       <c r="DB5">
-        <v>0.4167048551801126</v>
+        <v>0.6588439714324394</v>
       </c>
       <c r="DC5">
-        <v>0.4180388214757365</v>
+        <v>0.6588439714324394</v>
       </c>
       <c r="DD5">
-        <v>0.5298623638897226</v>
+        <v>0.9417572196775329</v>
       </c>
       <c r="DE5">
-        <v>0.5304015801343817</v>
+        <v>0.9417572196775329</v>
       </c>
       <c r="DF5">
-        <v>0.542247168225217</v>
+        <v>0.9417572196775329</v>
       </c>
       <c r="DG5">
-        <v>0.5443456937956895</v>
+        <v>0.9417572196775329</v>
       </c>
       <c r="DH5">
-        <v>0.5443456937956895</v>
+        <v>0.9417572196775329</v>
       </c>
       <c r="DI5">
-        <v>0.5546277686804113</v>
+        <v>0.9417572196775329</v>
       </c>
       <c r="DJ5">
-        <v>0.5604294779457077</v>
+        <v>0.9417572196775329</v>
       </c>
       <c r="DK5">
-        <v>0.5607719275521826</v>
+        <v>0.9417572196775329</v>
       </c>
       <c r="DL5">
-        <v>0.5615172709417204</v>
+        <v>0.9417572196775329</v>
       </c>
       <c r="DM5">
-        <v>0.6056451499159314</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="DN5">
-        <v>0.6062737737523856</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="DO5">
-        <v>0.6211595684444631</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="DP5">
-        <v>0.6215366169415771</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="DQ5">
-        <v>0.622429522184199</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="DR5">
-        <v>0.6247177274743319</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="DS5">
-        <v>0.6252003172561902</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="DT5">
-        <v>0.6252649942323322</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="DU5">
-        <v>0.6282403465508618</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="DV5">
-        <v>0.6303911152295212</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="DW5">
-        <v>0.6362403697254859</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="DX5">
-        <v>0.6475550679328101</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="DY5">
-        <v>0.6489715442739777</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="DZ5">
-        <v>0.6492936008426046</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EA5">
-        <v>0.6497140040508299</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EB5">
-        <v>0.6497140040508299</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EC5">
-        <v>0.6526621040560333</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="ED5">
-        <v>0.6567587282786475</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EE5">
-        <v>0.656835488797051</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EF5">
-        <v>0.6568489527542911</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EG5">
-        <v>0.6594004507555914</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EH5">
-        <v>0.6667976905718442</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EI5">
-        <v>0.6701437958092733</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EJ5">
-        <v>0.670152863867813</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EK5">
-        <v>0.6713556597905864</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EL5">
-        <v>0.6716260251247829</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EM5">
-        <v>0.6718071787947276</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EN5">
-        <v>0.672035531957336</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EO5">
-        <v>0.6722691993430607</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EP5">
-        <v>0.6745505779439176</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EQ5">
-        <v>0.676678696810078</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="ER5">
-        <v>0.6768742733172892</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="ES5">
-        <v>0.6772416135881107</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="ET5">
-        <v>0.6772416135881107</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EU5">
-        <v>0.6801715220656797</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EV5">
-        <v>0.6856600288878675</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EW5">
-        <v>0.6940504847396977</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EX5">
-        <v>0.6985296772818627</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EY5">
-        <v>0.6986443647869959</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="EZ5">
-        <v>0.6996028045853313</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="FA5">
-        <v>0.7194411725945572</v>
+        <v>0.990548703163378</v>
       </c>
       <c r="FB5">
-        <v>0.7521939449536172</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC5">
-        <v>0.7696856110020933</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD5">
-        <v>0.7767808623923221</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE5">
-        <v>0.7808280338504382</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF5">
-        <v>0.7851952659662882</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG5">
-        <v>0.7852882548787892</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH5">
-        <v>0.7857677016633933</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI5">
-        <v>0.7931939942406953</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ5">
-        <v>0.8136240380107788</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK5">
-        <v>0.8379921183186259</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL5">
-        <v>0.8652847552346545</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM5">
-        <v>0.8725694059190562</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN5">
-        <v>0.8754203558067731</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO5">
-        <v>0.8791180325395012</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP5">
-        <v>0.8872877158702448</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ5">
-        <v>0.8874140079064712</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR5">
-        <v>0.8905465389108888</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS5">
-        <v>0.9066177217623225</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT5">
-        <v>0.9164399048524217</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU5">
-        <v>0.9235936706935645</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV5">
-        <v>0.9459233299263928</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW5">
-        <v>0.9677983916216605</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX5">
-        <v>0.9765292361768129</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY5">
-        <v>0.9768953986906111</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ5">
-        <v>0.9769000818102632</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA5">
-        <v>0.9771502309187846</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB5">
-        <v>0.9794384362089175</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC5">
-        <v>0.9829186479801362</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD5">
-        <v>0.9852707284316794</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE5">
-        <v>0.9863102069324655</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF5">
-        <v>0.986580572266662</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG5">
-        <v>0.9885762158106745</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH5">
-        <v>0.989209745952242</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI5">
-        <v>0.990915047935364</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ5">
-        <v>0.9964960931668074</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK5">
-        <v>0.9969818360640559</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL5">
-        <v>0.9970386330339598</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM5">
-        <v>0.9984528055226214</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN5">
-        <v>0.9991273571892074</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO5">
-        <v>0.9991896863935285</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP5">
-        <v>0.9994909342200435</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ5">
-        <v>0.9999748741175171</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR5">
-        <v>0.9999748741175171</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.828469139648397E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.828469139648397E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.828469139648397E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2.175687357489987E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2.175687357489987E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0001018703786762925</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0005313655502523146</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0006917060004521889</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0008656268314329149</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.001136640223992976</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.001536484582291691</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.001644679811341738</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.001670529027251526</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.001855301303505478</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.001960989776506316</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.002202481931086451</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.002231149905614758</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.002231149905614758</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.002231149905614758</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.002309199222331019</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.002355222001663286</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.002565226056615182</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.003247424094440843</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.003849050220739231</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.004275417311995645</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.004886842201989807</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.005624467120170696</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.006011982139470753</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.006089164041037152</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.006201826381970729</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.006307654532613919</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.006373435611285496</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.006666251395076529</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.006766033656915719</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.006768073619308573</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.006802857225287413</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.006823265140271781</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.006843166464331444</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.006882224949115398</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.006896496955828305</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.006980388371283675</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.007164190626063677</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.007402016643259747</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.007535648553091957</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.007602035662261786</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.007800308043522823</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.008122474796099855</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.00828281524629973</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.008316522635964099</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.008316522635964099</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.008339602507988189</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.008521330666391014</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.008558395134214991</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.008597544381816265</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.008767572754433871</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.009264462648917929</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.009521480176213744</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.009592293973861743</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.009738577137261246</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.01003567238217849</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0101582862141473</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0101582862141473</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0101582862141473</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.01019582773826368</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.01019582773826368</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.01019582773826368</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.01022357630623028</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.01022357630623028</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.01031362808837145</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.01054999518629803</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.01068641964715808</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.01098044815314629</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.01109736802538344</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.01112603599991175</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.01119882744880102</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.01131134603869531</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.01131134603869531</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.01135319695929789</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.01157875976758174</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0115986610916414</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.01169141053249427</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.01169218497982272</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.01169218497982272</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.01178634878503728</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0118982420694316</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.0118982420694316</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0118982420694316</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.01208093503984846</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.01232153019555728</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.01248815144113089</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.01380630081081882</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.02472796351875056</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.05060350916703524</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>0.08309668785672876</v>
+        <v>0.01109967905690662</v>
       </c>
       <c r="CR6">
-        <v>0.1465178520565284</v>
+        <v>0.1624214269429125</v>
       </c>
       <c r="CS6">
-        <v>0.167492819684782</v>
+        <v>0.1624214269429125</v>
       </c>
       <c r="CT6">
-        <v>0.1786389910808077</v>
+        <v>0.1624214269429125</v>
       </c>
       <c r="CU6">
-        <v>0.1811660044415174</v>
+        <v>0.1624214269429125</v>
       </c>
       <c r="CV6">
-        <v>0.1823466052350504</v>
+        <v>0.1624214269429125</v>
       </c>
       <c r="CW6">
-        <v>0.188932026709077</v>
+        <v>0.1624214269429125</v>
       </c>
       <c r="CX6">
-        <v>0.1890705802661892</v>
+        <v>0.1624214269429125</v>
       </c>
       <c r="CY6">
-        <v>0.2938176887576116</v>
+        <v>0.5011077674239941</v>
       </c>
       <c r="CZ6">
-        <v>0.2952502678215918</v>
+        <v>0.5011077674239941</v>
       </c>
       <c r="DA6">
-        <v>0.2979593792564388</v>
+        <v>0.5011077674239941</v>
       </c>
       <c r="DB6">
-        <v>0.3601898272199482</v>
+        <v>0.6470310164654354</v>
       </c>
       <c r="DC6">
-        <v>0.3692908848687123</v>
+        <v>0.6470310164654354</v>
       </c>
       <c r="DD6">
-        <v>0.4346211217771748</v>
+        <v>0.8070081656114557</v>
       </c>
       <c r="DE6">
-        <v>0.4552977706847865</v>
+        <v>0.8070081656114557</v>
       </c>
       <c r="DF6">
-        <v>0.4739093225572377</v>
+        <v>0.8070081656114557</v>
       </c>
       <c r="DG6">
-        <v>0.4743157716591718</v>
+        <v>0.8070081656114557</v>
       </c>
       <c r="DH6">
-        <v>0.4746088136737781</v>
+        <v>0.8070081656114557</v>
       </c>
       <c r="DI6">
-        <v>0.4768086045271033</v>
+        <v>0.8070081656114557</v>
       </c>
       <c r="DJ6">
-        <v>0.487567145019393</v>
+        <v>0.8070081656114557</v>
       </c>
       <c r="DK6">
-        <v>0.4878952597129093</v>
+        <v>0.8070081656114557</v>
       </c>
       <c r="DL6">
-        <v>0.4878959923372909</v>
+        <v>0.8070081656114557</v>
       </c>
       <c r="DM6">
-        <v>0.5298895588984219</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="DN6">
-        <v>0.5443082333731251</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="DO6">
-        <v>0.5624600103346483</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="DP6">
-        <v>0.5646964521428943</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="DQ6">
-        <v>0.5654020543506406</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="DR6">
-        <v>0.5664673757068225</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="DS6">
-        <v>0.5673661185209766</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="DT6">
-        <v>0.5677183591049949</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="DU6">
-        <v>0.5677229836407464</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="DV6">
-        <v>0.5703671043581485</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="DW6">
-        <v>0.5752850030570138</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="DX6">
-        <v>0.5866753127868491</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="DY6">
-        <v>0.5866952847722235</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="DZ6">
-        <v>0.5889555164808429</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EA6">
-        <v>0.5889697884875558</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EB6">
-        <v>0.5890218550458608</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EC6">
-        <v>0.5925067522396298</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="ED6">
-        <v>0.5998581109885949</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EE6">
-        <v>0.5998656329598352</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EF6">
-        <v>0.600928671370388</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EG6">
-        <v>0.6032794017165988</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EH6">
-        <v>0.6104348408927968</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EI6">
-        <v>0.6138691314894222</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EJ6">
-        <v>0.6146822039837867</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EK6">
-        <v>0.6151819407880093</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EL6">
-        <v>0.616286441390267</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EM6">
-        <v>0.6178571017978611</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EN6">
-        <v>0.618291476380019</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EO6">
-        <v>0.6183241207603516</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EP6">
-        <v>0.6233205738070253</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EQ6">
-        <v>0.6276141034063468</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="ER6">
-        <v>0.6284679242661704</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="ES6">
-        <v>0.6286860684528879</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="ET6">
-        <v>0.6286860684528879</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EU6">
-        <v>0.6310553828460986</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EV6">
-        <v>0.6362041344536062</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EW6">
-        <v>0.6439112177671928</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EX6">
-        <v>0.6538300033381701</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EY6">
-        <v>0.6548242136629535</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="EZ6">
-        <v>0.6548396985932292</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="FA6">
-        <v>0.6727685978283419</v>
+        <v>0.8611809391502693</v>
       </c>
       <c r="FB6">
-        <v>0.7230547900706623</v>
+        <v>0.9529510249570199</v>
       </c>
       <c r="FC6">
-        <v>0.7626516013343062</v>
+        <v>0.9962573298025871</v>
       </c>
       <c r="FD6">
-        <v>0.7756986916323969</v>
+        <v>0.9962573298025871</v>
       </c>
       <c r="FE6">
-        <v>0.7835195275106679</v>
+        <v>0.9962573298025871</v>
       </c>
       <c r="FF6">
-        <v>0.7915742861722044</v>
+        <v>0.9962573298025871</v>
       </c>
       <c r="FG6">
-        <v>0.7938300946486218</v>
+        <v>0.9962573298025871</v>
       </c>
       <c r="FH6">
-        <v>0.7938300946486218</v>
+        <v>0.9962573298025871</v>
       </c>
       <c r="FI6">
-        <v>0.7966184780343816</v>
+        <v>0.9962573298025871</v>
       </c>
       <c r="FJ6">
-        <v>0.8051330506777954</v>
+        <v>0.9962573298025871</v>
       </c>
       <c r="FK6">
-        <v>0.8252769130918463</v>
+        <v>0.9962573298025871</v>
       </c>
       <c r="FL6">
-        <v>0.8561473981121042</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM6">
-        <v>0.8679302957471556</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN6">
-        <v>0.8728140220920221</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO6">
-        <v>0.8813801283158998</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP6">
-        <v>0.8975813151768164</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ6">
-        <v>0.9011886720466206</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR6">
-        <v>0.9015498009911221</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS6">
-        <v>0.9077983036501197</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT6">
-        <v>0.9178926951059879</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU6">
-        <v>0.9226626662814401</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV6">
-        <v>0.9412126713903648</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW6">
-        <v>0.9652018926389212</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX6">
-        <v>0.9763077788806387</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY6">
-        <v>0.9778413289992015</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ6">
-        <v>0.9778897035852085</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA6">
-        <v>0.9778897035852085</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB6">
-        <v>0.9797837249880196</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC6">
-        <v>0.9848809033430223</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD6">
-        <v>0.9870215422816564</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE6">
-        <v>0.9891139979236483</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF6">
-        <v>0.9891347886147205</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG6">
-        <v>0.9897418463042615</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH6">
-        <v>0.9911594725151716</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI6">
-        <v>0.9911910671061788</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ6">
-        <v>0.9942536342856692</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK6">
-        <v>0.9945246476782292</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL6">
-        <v>0.9951279973042521</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM6">
-        <v>0.997213602306082</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN6">
-        <v>0.9992453480041384</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO6">
-        <v>0.9996347161585695</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP6">
-        <v>0.9997104848238226</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ6">
-        <v>0.9999672900355721</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR6">
-        <v>0.9999890560808019</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E2">
-        <v>0.07442180286611524</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5769062127522007</v>
+        <v>0.5062094071789406</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>32</v>
@@ -10611,16 +10611,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>0.05679884687919932</v>
+        <v>0.07951940082583278</v>
       </c>
       <c r="F3">
-        <v>0.5088205816379606</v>
+        <v>0.5500627255698449</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>32</v>
@@ -10652,16 +10652,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0.005406384734211371</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5478477544080055</v>
+        <v>0.5316406994725241</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -10693,16 +10693,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E5">
-        <v>0.009512926983502264</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5298623638897226</v>
+        <v>0.5513590834577815</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>32</v>
@@ -10734,16 +10734,16 @@
         <v>93</v>
       </c>
       <c r="D6">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>0.05060350916703524</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5298895588984219</v>
+        <v>0.5011077674239941</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E2">
-        <v>0.07442180286611524</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7036409456541161</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>32</v>
@@ -10870,16 +10870,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.05679884687919932</v>
+        <v>0.07951940082583278</v>
       </c>
       <c r="F3">
-        <v>0.7043415101263297</v>
+        <v>0.9094969914297952</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>32</v>
@@ -10911,16 +10911,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="E4">
-        <v>0.005406384734211371</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7006508400567139</v>
+        <v>0.7201034742986014</v>
       </c>
       <c r="G4">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -10952,16 +10952,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.009512926983502264</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7194411725945572</v>
+        <v>0.9417572196775329</v>
       </c>
       <c r="G5">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>32</v>
@@ -10993,16 +10993,16 @@
         <v>93</v>
       </c>
       <c r="D6">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.05060350916703524</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7230547900706623</v>
+        <v>0.8070081656114557</v>
       </c>
       <c r="G6">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="E2">
-        <v>0.07442180286611524</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8057248163222684</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>32</v>
@@ -11129,16 +11129,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.05679884687919932</v>
+        <v>0.07951940082583278</v>
       </c>
       <c r="F3">
-        <v>0.8034422926739483</v>
+        <v>0.9094969914297952</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>32</v>
@@ -11170,16 +11170,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>0.005406384734211371</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8067256066040742</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -11211,16 +11211,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.009512926983502264</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8136240380107788</v>
+        <v>0.9417572196775329</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>32</v>
@@ -11252,16 +11252,16 @@
         <v>93</v>
       </c>
       <c r="D6">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.05060350916703524</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8051330506777954</v>
+        <v>0.8070081656114557</v>
       </c>
       <c r="G6">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="E2">
-        <v>0.07442180286611524</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9127077258142108</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>32</v>
@@ -11388,16 +11388,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.05679884687919932</v>
+        <v>0.07951940082583278</v>
       </c>
       <c r="F3">
-        <v>0.9079361652831891</v>
+        <v>0.9094969914297952</v>
       </c>
       <c r="G3">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>32</v>
@@ -11429,16 +11429,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>0.005406384734211371</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9011125263284727</v>
+        <v>0.9419283895918429</v>
       </c>
       <c r="G4">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -11470,16 +11470,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.009512926983502264</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9066177217623225</v>
+        <v>0.9417572196775329</v>
       </c>
       <c r="G5">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>32</v>
@@ -11511,16 +11511,16 @@
         <v>93</v>
       </c>
       <c r="D6">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E6">
-        <v>0.05060350916703524</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9011886720466206</v>
+        <v>0.9529510249570199</v>
       </c>
       <c r="G6">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>32</v>

--- a/on_trucks/Processed_Stand_Alone/32_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/32_11R22.xlsx
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.101752087329556</v>
+        <v>0.1010988340531174</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.05663910279819057</v>
+        <v>0.0668636523347244</v>
       </c>
       <c r="H2">
-        <v>0.05502986372542549</v>
+        <v>0.06564243869397875</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -698,16 +698,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.01174687881814288</v>
       </c>
       <c r="M2">
-        <v>0.1513210728562592</v>
+        <v>0.1387155700046751</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.163633788415972</v>
+        <v>0.1480593999244309</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.1393717441322656</v>
+        <v>0.1296475057981424</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.3020621280212561</v>
+        <v>0.2531094073799869</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.01081369194667611</v>
+        <v>0.03208782705695191</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.01937652077439881</v>
+        <v>0.03858595623164139</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.01444252970420799</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -784,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0936875367819504</v>
+        <v>0.09440458670469844</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.08683207847384143</v>
+        <v>0.08928568358160086</v>
       </c>
       <c r="G3">
-        <v>0.1322108055669342</v>
+        <v>0.1231695316628098</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001016097278780906</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -808,13 +808,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.04984842373525344</v>
+        <v>0.06167035325117064</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.2156268736479135</v>
+        <v>0.1854554872073387</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.09595486047811186</v>
+        <v>0.09609757495256303</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2356953719880761</v>
+        <v>0.2004404370403535</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.00400448844158176</v>
       </c>
       <c r="U3">
-        <v>0.0229268596961344</v>
+        <v>0.04156828683272107</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.003799006799241321</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05294300273992616</v>
+        <v>0.06398104488107292</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.01427418689185871</v>
+        <v>0.03510742136606692</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2558102634435609</v>
+        <v>0.1955346710943545</v>
       </c>
       <c r="F4">
-        <v>0.0002085905633937447</v>
+        <v>0.02503871942250605</v>
       </c>
       <c r="G4">
-        <v>0.1136962518314175</v>
+        <v>0.10073926783001</v>
       </c>
       <c r="H4">
-        <v>0.06774619738599542</v>
+        <v>0.07008884925579976</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -921,31 +921,31 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.07233460878206179</v>
+        <v>0.0731494926343001</v>
       </c>
       <c r="N4">
-        <v>0.1078161760410016</v>
+        <v>0.09681703560635958</v>
       </c>
       <c r="O4">
-        <v>0.05777669961464794</v>
+        <v>0.06343881840481565</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.01559417801798061</v>
+        <v>0.03530148627196269</v>
       </c>
       <c r="R4">
-        <v>0.06795224351465876</v>
+        <v>0.07022628979129746</v>
       </c>
       <c r="S4">
-        <v>0.04085908396704184</v>
+        <v>0.05215413099508406</v>
       </c>
       <c r="T4">
-        <v>0.1828327186611344</v>
+        <v>0.1468558975630559</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.003397272532168043</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.004297036873502315</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -966,16 +966,16 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.006172193742441649</v>
       </c>
       <c r="AC4">
-        <v>0.01737298817710561</v>
+        <v>0.03648801970699914</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.006998002194418473</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.01330281608092464</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1007,16 +1007,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.182247344706856</v>
+        <v>0.1610451991759126</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.03737698001962338</v>
+        <v>0.05234145078162396</v>
       </c>
       <c r="H5">
-        <v>0.07301527284587792</v>
+        <v>0.07908271028594668</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00122233208426858</v>
       </c>
       <c r="M5">
-        <v>0.1140843958774949</v>
+        <v>0.1098990033659103</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.01724826651449359</v>
       </c>
       <c r="O5">
-        <v>0.1666345763940426</v>
+        <v>0.1493301293472525</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1046,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.1125469126782297</v>
+        <v>0.108745349979214</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.2462964427761531</v>
+        <v>0.2091045593938385</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.01129712323415433</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.008203695880124847</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.06779807470172236</v>
+        <v>0.07516797592595637</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.01731220403130365</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1117,22 +1117,22 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.01215440627324932</v>
       </c>
       <c r="F6">
-        <v>0.03173791810528614</v>
+        <v>0.04588114994516361</v>
       </c>
       <c r="G6">
-        <v>0.05442284156533252</v>
+        <v>0.06080645156699901</v>
       </c>
       <c r="H6">
-        <v>0.1604424681720107</v>
+        <v>0.1305609256222446</v>
       </c>
       <c r="I6">
-        <v>0.0149389755530524</v>
+        <v>0.03482846621177704</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.01266075950643073</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.002374518522432611</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3021057905870627</v>
+        <v>0.2237667863129311</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1156,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.1563607509607571</v>
+        <v>0.1278754036446064</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.008048243318566534</v>
       </c>
       <c r="T6">
-        <v>0.1669866763510821</v>
+        <v>0.1348666170706091</v>
       </c>
       <c r="U6">
-        <v>0.01391635352156247</v>
+        <v>0.03415564303509747</v>
       </c>
       <c r="V6">
-        <v>0.006837301557355639</v>
+        <v>0.02949805686565234</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.01178650308876554</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.08698970805003434</v>
+        <v>0.08223347141206504</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.02004150957250685</v>
       </c>
       <c r="AE6">
-        <v>0.00526121557646396</v>
+        <v>0.02846108803090245</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1350,100 +1350,100 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.101752087329556</v>
+        <v>0.1010988340531174</v>
       </c>
       <c r="F2">
-        <v>0.101752087329556</v>
+        <v>0.1010988340531174</v>
       </c>
       <c r="G2">
-        <v>0.1583911901277466</v>
+        <v>0.1679624863878418</v>
       </c>
       <c r="H2">
-        <v>0.2134210538531721</v>
+        <v>0.2336049250818206</v>
       </c>
       <c r="I2">
-        <v>0.2134210538531721</v>
+        <v>0.2336049250818206</v>
       </c>
       <c r="J2">
-        <v>0.2134210538531721</v>
+        <v>0.2336049250818206</v>
       </c>
       <c r="K2">
-        <v>0.2134210538531721</v>
+        <v>0.2336049250818206</v>
       </c>
       <c r="L2">
-        <v>0.2134210538531721</v>
+        <v>0.2453518038999634</v>
       </c>
       <c r="M2">
-        <v>0.3647421267094313</v>
+        <v>0.3840673739046385</v>
       </c>
       <c r="N2">
-        <v>0.3647421267094313</v>
+        <v>0.3840673739046385</v>
       </c>
       <c r="O2">
-        <v>0.5283759151254033</v>
+        <v>0.5321267738290694</v>
       </c>
       <c r="P2">
-        <v>0.5283759151254033</v>
+        <v>0.5321267738290694</v>
       </c>
       <c r="Q2">
-        <v>0.5283759151254033</v>
+        <v>0.5321267738290694</v>
       </c>
       <c r="R2">
-        <v>0.6677476592576688</v>
+        <v>0.6617742796272118</v>
       </c>
       <c r="S2">
-        <v>0.6677476592576688</v>
+        <v>0.6617742796272118</v>
       </c>
       <c r="T2">
-        <v>0.9698097872789249</v>
+        <v>0.9148836870071987</v>
       </c>
       <c r="U2">
-        <v>0.9698097872789249</v>
+        <v>0.9148836870071987</v>
       </c>
       <c r="V2">
-        <v>0.980623479225601</v>
+        <v>0.9469715140641506</v>
       </c>
       <c r="W2">
-        <v>0.980623479225601</v>
+        <v>0.9469715140641506</v>
       </c>
       <c r="X2">
-        <v>0.980623479225601</v>
+        <v>0.9469715140641506</v>
       </c>
       <c r="Y2">
-        <v>0.980623479225601</v>
+        <v>0.9469715140641506</v>
       </c>
       <c r="Z2">
-        <v>0.980623479225601</v>
+        <v>0.9469715140641506</v>
       </c>
       <c r="AA2">
-        <v>0.980623479225601</v>
+        <v>0.9469715140641506</v>
       </c>
       <c r="AB2">
-        <v>0.980623479225601</v>
+        <v>0.9469715140641506</v>
       </c>
       <c r="AC2">
-        <v>0.9999999999999998</v>
+        <v>0.985557470295792</v>
       </c>
       <c r="AD2">
-        <v>0.9999999999999998</v>
+        <v>0.985557470295792</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1457,103 +1457,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0936875367819504</v>
+        <v>0.09440458670469844</v>
       </c>
       <c r="E3">
-        <v>0.0936875367819504</v>
+        <v>0.09440458670469844</v>
       </c>
       <c r="F3">
-        <v>0.1805196152557918</v>
+        <v>0.1836902702862993</v>
       </c>
       <c r="G3">
-        <v>0.3127304208227261</v>
+        <v>0.3068598019491091</v>
       </c>
       <c r="H3">
-        <v>0.3127304208227261</v>
+        <v>0.30787589922789</v>
       </c>
       <c r="I3">
-        <v>0.3127304208227261</v>
+        <v>0.30787589922789</v>
       </c>
       <c r="J3">
-        <v>0.3127304208227261</v>
+        <v>0.30787589922789</v>
       </c>
       <c r="K3">
-        <v>0.3127304208227261</v>
+        <v>0.30787589922789</v>
       </c>
       <c r="L3">
-        <v>0.3625788445579795</v>
+        <v>0.3695462524790606</v>
       </c>
       <c r="M3">
-        <v>0.3625788445579795</v>
+        <v>0.3695462524790606</v>
       </c>
       <c r="N3">
-        <v>0.5782057182058931</v>
+        <v>0.5550017396863993</v>
       </c>
       <c r="O3">
-        <v>0.5782057182058931</v>
+        <v>0.5550017396863993</v>
       </c>
       <c r="P3">
-        <v>0.5782057182058931</v>
+        <v>0.5550017396863993</v>
       </c>
       <c r="Q3">
-        <v>0.6741605786840049</v>
+        <v>0.6510993146389623</v>
       </c>
       <c r="R3">
-        <v>0.6741605786840049</v>
+        <v>0.6510993146389623</v>
       </c>
       <c r="S3">
-        <v>0.909855950672081</v>
+        <v>0.8515397516793158</v>
       </c>
       <c r="T3">
-        <v>0.909855950672081</v>
+        <v>0.8555442401208976</v>
       </c>
       <c r="U3">
-        <v>0.9327828103682154</v>
+        <v>0.8971125269536186</v>
       </c>
       <c r="V3">
-        <v>0.9327828103682154</v>
+        <v>0.8971125269536186</v>
       </c>
       <c r="W3">
-        <v>0.9327828103682154</v>
+        <v>0.8971125269536186</v>
       </c>
       <c r="X3">
-        <v>0.9327828103682154</v>
+        <v>0.9009115337528599</v>
       </c>
       <c r="Y3">
-        <v>0.9327828103682154</v>
+        <v>0.9009115337528599</v>
       </c>
       <c r="Z3">
-        <v>0.9327828103682154</v>
+        <v>0.9009115337528599</v>
       </c>
       <c r="AA3">
-        <v>0.9327828103682154</v>
+        <v>0.9009115337528599</v>
       </c>
       <c r="AB3">
-        <v>0.9857258131081416</v>
+        <v>0.9648925786339329</v>
       </c>
       <c r="AC3">
-        <v>0.9857258131081416</v>
+        <v>0.9648925786339329</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1570,82 +1570,82 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2558102634435609</v>
+        <v>0.1955346710943545</v>
       </c>
       <c r="F4">
-        <v>0.2560188540069546</v>
+        <v>0.2205733905168606</v>
       </c>
       <c r="G4">
-        <v>0.3697151058383721</v>
+        <v>0.3213126583468706</v>
       </c>
       <c r="H4">
-        <v>0.4374613032243675</v>
+        <v>0.3914015076026704</v>
       </c>
       <c r="I4">
-        <v>0.4374613032243675</v>
+        <v>0.3914015076026704</v>
       </c>
       <c r="J4">
-        <v>0.4374613032243675</v>
+        <v>0.3914015076026704</v>
       </c>
       <c r="K4">
-        <v>0.4374613032243675</v>
+        <v>0.3914015076026704</v>
       </c>
       <c r="L4">
-        <v>0.4374613032243675</v>
+        <v>0.3914015076026704</v>
       </c>
       <c r="M4">
-        <v>0.5097959120064294</v>
+        <v>0.4645510002369705</v>
       </c>
       <c r="N4">
-        <v>0.617612088047431</v>
+        <v>0.5613680358433301</v>
       </c>
       <c r="O4">
-        <v>0.6753887876620789</v>
+        <v>0.6248068542481457</v>
       </c>
       <c r="P4">
-        <v>0.6753887876620789</v>
+        <v>0.6248068542481457</v>
       </c>
       <c r="Q4">
-        <v>0.6909829656800595</v>
+        <v>0.6601083405201085</v>
       </c>
       <c r="R4">
-        <v>0.7589352091947182</v>
+        <v>0.7303346303114059</v>
       </c>
       <c r="S4">
-        <v>0.7997942931617601</v>
+        <v>0.7824887613064899</v>
       </c>
       <c r="T4">
-        <v>0.9826270118228945</v>
+        <v>0.9293446588695458</v>
       </c>
       <c r="U4">
-        <v>0.9826270118228945</v>
+        <v>0.9327419314017138</v>
       </c>
       <c r="V4">
-        <v>0.9826270118228945</v>
+        <v>0.9327419314017138</v>
       </c>
       <c r="W4">
-        <v>0.9826270118228945</v>
+        <v>0.9327419314017138</v>
       </c>
       <c r="X4">
-        <v>0.9826270118228945</v>
+        <v>0.9327419314017138</v>
       </c>
       <c r="Y4">
-        <v>0.9826270118228945</v>
+        <v>0.9370389682752162</v>
       </c>
       <c r="Z4">
-        <v>0.9826270118228945</v>
+        <v>0.9370389682752162</v>
       </c>
       <c r="AA4">
-        <v>0.9826270118228945</v>
+        <v>0.9370389682752162</v>
       </c>
       <c r="AB4">
-        <v>0.9826270118228945</v>
+        <v>0.9432111620176578</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9796991817246569</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9866971839190753</v>
       </c>
       <c r="AE4">
         <v>1</v>
@@ -1680,100 +1680,100 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.182247344706856</v>
+        <v>0.1610451991759126</v>
       </c>
       <c r="F5">
-        <v>0.182247344706856</v>
+        <v>0.1610451991759126</v>
       </c>
       <c r="G5">
-        <v>0.2196243247264794</v>
+        <v>0.2133866499575366</v>
       </c>
       <c r="H5">
-        <v>0.2926395975723574</v>
+        <v>0.2924693602434832</v>
       </c>
       <c r="I5">
-        <v>0.2926395975723574</v>
+        <v>0.2924693602434832</v>
       </c>
       <c r="J5">
-        <v>0.2926395975723574</v>
+        <v>0.2924693602434832</v>
       </c>
       <c r="K5">
-        <v>0.2926395975723574</v>
+        <v>0.2924693602434832</v>
       </c>
       <c r="L5">
-        <v>0.2926395975723574</v>
+        <v>0.2936916923277518</v>
       </c>
       <c r="M5">
-        <v>0.4067239934498522</v>
+        <v>0.4035906956936622</v>
       </c>
       <c r="N5">
-        <v>0.4067239934498522</v>
+        <v>0.4208389622081558</v>
       </c>
       <c r="O5">
-        <v>0.5733585698438949</v>
+        <v>0.5701690915554083</v>
       </c>
       <c r="P5">
-        <v>0.5733585698438949</v>
+        <v>0.5701690915554083</v>
       </c>
       <c r="Q5">
-        <v>0.5733585698438949</v>
+        <v>0.5701690915554083</v>
       </c>
       <c r="R5">
-        <v>0.6859054825221247</v>
+        <v>0.6789144415346222</v>
       </c>
       <c r="S5">
-        <v>0.6859054825221247</v>
+        <v>0.6789144415346222</v>
       </c>
       <c r="T5">
-        <v>0.9322019252982778</v>
+        <v>0.8880190009284608</v>
       </c>
       <c r="U5">
-        <v>0.9322019252982778</v>
+        <v>0.8880190009284608</v>
       </c>
       <c r="V5">
-        <v>0.9322019252982778</v>
+        <v>0.8993161241626151</v>
       </c>
       <c r="W5">
-        <v>0.9322019252982778</v>
+        <v>0.8993161241626151</v>
       </c>
       <c r="X5">
-        <v>0.9322019252982778</v>
+        <v>0.8993161241626151</v>
       </c>
       <c r="Y5">
-        <v>0.9322019252982778</v>
+        <v>0.9075198200427399</v>
       </c>
       <c r="Z5">
-        <v>0.9322019252982778</v>
+        <v>0.9075198200427399</v>
       </c>
       <c r="AA5">
-        <v>0.9322019252982778</v>
+        <v>0.9075198200427399</v>
       </c>
       <c r="AB5">
-        <v>0.9322019252982778</v>
+        <v>0.9075198200427399</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9826877959686963</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9826877959686963</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1790,100 +1790,100 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.01215440627324932</v>
       </c>
       <c r="F6">
-        <v>0.03173791810528614</v>
+        <v>0.05803555621841293</v>
       </c>
       <c r="G6">
-        <v>0.08616075967061866</v>
+        <v>0.1188420077854119</v>
       </c>
       <c r="H6">
-        <v>0.2466032278426293</v>
+        <v>0.2494029334076566</v>
       </c>
       <c r="I6">
-        <v>0.2615422033956817</v>
+        <v>0.2842313996194336</v>
       </c>
       <c r="J6">
-        <v>0.2615422033956817</v>
+        <v>0.2968921591258644</v>
       </c>
       <c r="K6">
-        <v>0.2615422033956817</v>
+        <v>0.2968921591258644</v>
       </c>
       <c r="L6">
-        <v>0.2615422033956817</v>
+        <v>0.2968921591258644</v>
       </c>
       <c r="M6">
-        <v>0.2615422033956817</v>
+        <v>0.299266677648297</v>
       </c>
       <c r="N6">
-        <v>0.2615422033956817</v>
+        <v>0.299266677648297</v>
       </c>
       <c r="O6">
-        <v>0.5636479939827445</v>
+        <v>0.5230334639612281</v>
       </c>
       <c r="P6">
-        <v>0.5636479939827445</v>
+        <v>0.5230334639612281</v>
       </c>
       <c r="Q6">
-        <v>0.5636479939827445</v>
+        <v>0.5230334639612281</v>
       </c>
       <c r="R6">
-        <v>0.7200087449435015</v>
+        <v>0.6509088676058344</v>
       </c>
       <c r="S6">
-        <v>0.7200087449435015</v>
+        <v>0.658957110924401</v>
       </c>
       <c r="T6">
-        <v>0.8869954212945836</v>
+        <v>0.7938237279950101</v>
       </c>
       <c r="U6">
-        <v>0.9009117748161461</v>
+        <v>0.8279793710301075</v>
       </c>
       <c r="V6">
-        <v>0.9077490763735018</v>
+        <v>0.8574774278957599</v>
       </c>
       <c r="W6">
-        <v>0.9077490763735018</v>
+        <v>0.8574774278957599</v>
       </c>
       <c r="X6">
-        <v>0.9077490763735018</v>
+        <v>0.8574774278957599</v>
       </c>
       <c r="Y6">
-        <v>0.9077490763735018</v>
+        <v>0.8574774278957599</v>
       </c>
       <c r="Z6">
-        <v>0.9077490763735018</v>
+        <v>0.8692639309845254</v>
       </c>
       <c r="AA6">
-        <v>0.9077490763735018</v>
+        <v>0.8692639309845254</v>
       </c>
       <c r="AB6">
-        <v>0.9077490763735018</v>
+        <v>0.8692639309845254</v>
       </c>
       <c r="AC6">
-        <v>0.9947387844235361</v>
+        <v>0.9514974023965904</v>
       </c>
       <c r="AD6">
-        <v>0.9947387844235361</v>
+        <v>0.9715389119690973</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5283759151254033</v>
+        <v>0.5321267738290694</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5782057182058931</v>
+        <v>0.5550017396863993</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -2033,16 +2033,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5097959120064294</v>
+        <v>0.5613680358433301</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5733585698438949</v>
+        <v>0.5701690915554083</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -2112,7 +2112,7 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>14</v>
@@ -2121,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5636479939827445</v>
+        <v>0.5230334639612281</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9698097872789249</v>
+        <v>0.9148836870071987</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.909855950672081</v>
+        <v>0.8515397516793158</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7589352091947182</v>
+        <v>0.7303346303114059</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9322019252982778</v>
+        <v>0.8880190009284608</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2371,19 +2371,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7200087449435015</v>
+        <v>0.7938237279950101</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9698097872789249</v>
+        <v>0.9148836870071987</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.909855950672081</v>
+        <v>0.8515397516793158</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9826270118228945</v>
+        <v>0.9293446588695458</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9322019252982778</v>
+        <v>0.8880190009284608</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2630,19 +2630,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8869954212945836</v>
+        <v>0.8279793710301075</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9698097872789249</v>
+        <v>0.9148836870071987</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -2769,16 +2769,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.909855950672081</v>
+        <v>0.9009115337528599</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>32</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9826270118228945</v>
+        <v>0.9293446588695458</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -2851,16 +2851,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9322019252982778</v>
+        <v>0.9075198200427399</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>32</v>
@@ -2889,19 +2889,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9009117748161461</v>
+        <v>0.9514974023965904</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>32</v>
